--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/2Pokies2goBrokenData.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/2Pokies2goBrokenData.xlsx
@@ -10,20 +10,20 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190BB0D8-778B-4AD4-A87E-273D5030528F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="CopyGames" sheetId="5" r:id="rId1"/>
-    <sheet name="ProvidersBrokenImgWeb" sheetId="6" r:id="rId2"/>
-    <sheet name="GamesBrokenImgWeb" sheetId="7" r:id="rId3"/>
-    <sheet name="GamesBrokenURL" r:id="rId7" sheetId="8"/>
+    <sheet name="CopyGames" r:id="rId8" sheetId="9"/>
+    <sheet name="ProvidersBrokenImgWeb" r:id="rId9" sheetId="10"/>
+    <sheet name="GamesBrokenURL" r:id="rId7" sheetId="11"/>
+    <sheet name="GamesBrokenImgWeb" r:id="rId10" sheetId="12"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="456">
   <si>
     <t>Dream Car Speed</t>
   </si>
@@ -788,6 +788,679 @@
   </si>
   <si>
     <t>5702 ID=77768 Provider=CQGaming Name=Zombie's Fortune cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>Pirate King</t>
+  </si>
+  <si>
+    <t>Mines</t>
+  </si>
+  <si>
+    <t>Shave the Beard</t>
+  </si>
+  <si>
+    <t>Fear the Dark</t>
+  </si>
+  <si>
+    <t>ITERO</t>
+  </si>
+  <si>
+    <t>Baseball Fever</t>
+  </si>
+  <si>
+    <t>Fortune Lions</t>
+  </si>
+  <si>
+    <t>Apollo Pays</t>
+  </si>
+  <si>
+    <t>Pop</t>
+  </si>
+  <si>
+    <t>Casino Hold'em</t>
+  </si>
+  <si>
+    <t>Snow Queen</t>
+  </si>
+  <si>
+    <t>Gold Megaways</t>
+  </si>
+  <si>
+    <t>Dracula</t>
+  </si>
+  <si>
+    <t>Wild Spirit</t>
+  </si>
+  <si>
+    <t>Wild Flower</t>
+  </si>
+  <si>
+    <t>Blackjack Multihand VIP</t>
+  </si>
+  <si>
+    <t>Double Fortune</t>
+  </si>
+  <si>
+    <t>Golden Catch</t>
+  </si>
+  <si>
+    <t>Lions Pride</t>
+  </si>
+  <si>
+    <t>It's bananas!</t>
+  </si>
+  <si>
+    <t>Keno</t>
+  </si>
+  <si>
+    <t>Triple Dragons</t>
+  </si>
+  <si>
+    <t>Ice Queen</t>
+  </si>
+  <si>
+    <t>Minesweeper</t>
+  </si>
+  <si>
+    <t>Wisdom of Athena</t>
+  </si>
+  <si>
+    <t>Under the Sea</t>
+  </si>
+  <si>
+    <t>Spicy Meatballs</t>
+  </si>
+  <si>
+    <t>Cyberslot Megaclusters</t>
+  </si>
+  <si>
+    <t>Outlaw</t>
+  </si>
+  <si>
+    <t>Pub Kings</t>
+  </si>
+  <si>
+    <t>Pirate Pays</t>
+  </si>
+  <si>
+    <t>Cai Yuan Guang Jin</t>
+  </si>
+  <si>
+    <t>Fruit Party</t>
+  </si>
+  <si>
+    <t>Shave the Sheep</t>
+  </si>
+  <si>
+    <t>Fantasy Park</t>
+  </si>
+  <si>
+    <t>Treasure Bowl</t>
+  </si>
+  <si>
+    <t>Diamond Fruits</t>
+  </si>
+  <si>
+    <t>Beast Below</t>
+  </si>
+  <si>
+    <t>Stack 'em Scratch</t>
+  </si>
+  <si>
+    <t>SCRATCH! Gold</t>
+  </si>
+  <si>
+    <t>The Final Countdown</t>
+  </si>
+  <si>
+    <t>Fat Panda</t>
+  </si>
+  <si>
+    <t>Pinocchio</t>
+  </si>
+  <si>
+    <t>Mini Roulette</t>
+  </si>
+  <si>
+    <t>Pets</t>
+  </si>
+  <si>
+    <t>Vampires</t>
+  </si>
+  <si>
+    <t>Red Cliff</t>
+  </si>
+  <si>
+    <t>The Respinners</t>
+  </si>
+  <si>
+    <t>Golden Dragon</t>
+  </si>
+  <si>
+    <t>Dragon Ball</t>
+  </si>
+  <si>
+    <t>King Of Cats</t>
+  </si>
+  <si>
+    <t>Lucky Lucky</t>
+  </si>
+  <si>
+    <t>Piggy Bankers</t>
+  </si>
+  <si>
+    <t>LOVE is all you need</t>
+  </si>
+  <si>
+    <t>Nezha</t>
+  </si>
+  <si>
+    <t>Spellbinding Mystery</t>
+  </si>
+  <si>
+    <t>Butterfly Lovers</t>
+  </si>
+  <si>
+    <t>Mazu</t>
+  </si>
+  <si>
+    <t>SCRATCH! Bronze</t>
+  </si>
+  <si>
+    <t>Cash Pool</t>
+  </si>
+  <si>
+    <t>Donuts</t>
+  </si>
+  <si>
+    <t>Hi-Lo</t>
+  </si>
+  <si>
+    <t>Opal Fruits</t>
+  </si>
+  <si>
+    <t>Muay Thai</t>
+  </si>
+  <si>
+    <t>Balloons</t>
+  </si>
+  <si>
+    <t>4  Provider ID = 1173   Provider Name = Authentic :   cod = 200:   src = https://pokies2go.io/assets/images/providers/1173.png</t>
+  </si>
+  <si>
+    <t>17  Provider ID = 1041   Provider Name = ELKStudios :   cod = 200:   src = https://pokies2go.io/assets/images/providers/1041.png</t>
+  </si>
+  <si>
+    <t>54  Provider ID = 1149   Provider Name = Spribe :   cod = 200:   src = https://pokies2go.io/assets/images/providers/1149.png</t>
+  </si>
+  <si>
+    <t>87 ID=6089 Provider=TomHorn Name=Frozen Queen cod=21 description=Unknown partner or partner is disabled. PartnerID: '0262aff9-8256-4a25-9769-f51c6af9692d' ResponseObject=null</t>
+  </si>
+  <si>
+    <t>120 ID=6018 Provider=TomHorn Name=Savannah King cod=21 description=Unknown partner or partner is disabled. PartnerID: '0262aff9-8256-4a25-9769-f51c6af9692d' ResponseObject=null</t>
+  </si>
+  <si>
+    <t>189 ID=250299 Provider=Authentic Name=7’s On Fire Live cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>224 ID=250512 Provider=Authentic Name=XL Auto Roulette cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>226 ID=250447 Provider=Authentic Name=24/7 Roulette XL Live cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>230 ID=250448 Provider=Authentic Name=Auto Roulette VIP XL cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>237 ID=250455 Provider=Authentic Name=China Town Roulette cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>255 ID=250446 Provider=Authentic Name=Live Roulette XL cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>850 ID=6010 Provider=TomHorn Name=Blackbeard's Quest cod=21 description=Unknown partner or partner is disabled. PartnerID: '0262aff9-8256-4a25-9769-f51c6af9692d' ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1526 ID=76117 Provider=Microgaming Name=Gods Of Giza cod=0 description=null ResponseObject=Wrong incoming params</t>
+  </si>
+  <si>
+    <t>1970 ID=76120 Provider=Microgaming Name=Machine Gun Unicorn cod=0 description=null ResponseObject=Wrong incoming params</t>
+  </si>
+  <si>
+    <t>2321 ID=76116 Provider=Microgaming Name=Ragnarok cod=0 description=null ResponseObject=Wrong incoming params</t>
+  </si>
+  <si>
+    <t>2408 ID=76118 Provider=Microgaming Name=Robyn cod=0 description=null ResponseObject=Wrong incoming params</t>
+  </si>
+  <si>
+    <t>3079 ID=53030 Provider=Mascot Name=3 Corsairs cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>3162 ID=53049 Provider=Mascot Name=Across the Universe cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>3221 ID=53042 Provider=Mascot Name=Aloha Tiki Bar cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>3229 ID=53036 Provider=Mascot Name=Amaterasu Keno cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>3267 ID=53001 Provider=Mascot Name=Anksunamun: the Queen of Egypt cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>3342 ID=53033 Provider=Mascot Name=Baccarat cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>3359 ID=53013 Provider=Mascot Name=Bamboo Bear cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>3381 ID=53026 Provider=Mascot Name=Bastet and Cats cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>3405 ID=53069 Provider=Mascot Name=Ben Gunn Robinson cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>3407 ID=53021 Provider=Mascot Name=Benny's The Biggest Game cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>3460 ID=53032 Provider=Mascot Name=Black Jack cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>3530 ID=53034 Provider=Mascot Name=Book of Amaterasu cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>3680 ID=53005 Provider=Mascot Name=CanCan Saloon cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>3740 ID=53031 Provider=Mascot Name=Casino Hold'em cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>3816 ID=53062 Provider=Mascot Name=Cleopatra’s Gems Bingo cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>3817 ID=53046 Provider=Mascot Name=Cleopatra's Gems Rockways cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>3940 ID=53056 Provider=Mascot Name=Deepsea Riches cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>4024 ID=53052 Provider=Mascot Name=Double Triple Fruits cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>4066 ID=53039 Provider=Mascot Name=Dragon’s Nest cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>4073 ID=77557 Provider=PariPlay Name=Dragons of the North - Blackjack cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>4115 ID=53065 Provider=Mascot Name=Easter Luck cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>4221 ID=53044 Provider=Mascot Name=Fairytale Coven cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>4323 ID=53047 Provider=Mascot Name=For the Realm! cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>4386 ID=53053 Provider=Mascot Name=Fruit Disco: Mega Stacks cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>4393 ID=53027 Provider=Mascot Name=Fruit Macau cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>4394 ID=53067 Provider=Mascot Name=Fruit Machine Megabonus cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>4395 ID=53064 Provider=Mascot Name=Fruit Machine x25 cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>4399 ID=53028 Provider=Mascot Name=Fruit Monaco cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>4410 ID=53019 Provider=Mascot Name=Fruit Vegas cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>4422 ID=53037 Provider=Mascot Name=Fruits of Luxor cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>4468 ID=53015 Provider=Mascot Name=Gemz Grow cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>4611 ID=53061 Provider=Mascot Name=Greedy Greenskins Rockways cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>4620 ID=53020 Provider=Mascot Name=Gryphons Castle cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>4649 ID=77543 Provider=CQGaming Name=Happy Insect cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>4675 ID=53022 Provider=Mascot Name=Hell'Sing cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>4722 ID=53068 Provider=Mascot Name=Hook up! Fishing Wars cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>4801 ID=53057 Provider=Mascot Name=Hydra's Lair cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>4939 ID=77784 Provider=CQGaming Name=Jungle Treasure cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>4965 ID=77783 Provider=CQGaming Name=Kickin' Kash cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>5006 ID=53059 Provider=Mascot Name=La Fiesta de Muertos cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>5025 ID=77778 Provider=CQGaming Name=Le Cirque cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>5046 ID=53017 Provider=Mascot Name=Legioner cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>5064 ID=77488 Provider=CQGaming Name=Lin Chong cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>5070 ID=53002 Provider=Mascot Name=Lions Pride cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>5078 ID=77501 Provider=CQGaming Name=LongLaiFa cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>5079 ID=77508 Provider=CQGaming Name=LongLongLong cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>5080 ID=53055 Provider=Mascot Name=Loot the Train cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>5094 ID=77780 Provider=CQGaming Name=Lotus Lantern cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>5102 ID=77776 Provider=CQGaming Name=Love Story cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>5140 ID=77766 Provider=CQGaming Name=Lucky Legend cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>5243 ID=77773 Provider=CQGaming Name=Magpie Bridge cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>5245 ID=77626 Provider=CQGaming Name=Mahjong For 2 Players cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>5265 ID=77496 Provider=CQGaming Name=Master Panda cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>5280 ID=53050 Provider=Mascot Name=Mayan Riches Rockways cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>5284 ID=77775 Provider=CQGaming Name=Mazu cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>5304 ID=78772 Provider=CQGaming Name=Mega Winner cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>5313 ID=53009 Provider=Mascot Name=Merlin's Tower cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>5319 ID=53008 Provider=Mascot Name=Mermaid's Bay cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>5321 ID=53023 Provider=Mascot Name=Merry Scary Christmas cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>5383 ID=77687 Provider=CQGaming Name=Monkey King cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>5425 ID=77483 Provider=CQGaming Name=MULAN cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>5466 ID=77477 Provider=CQGaming Name=Myth cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>5484 ID=77486 Provider=CQGaming Name=Nezha cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>5504 ID=77480 Provider=CQGaming Name=Niu Niu Niu cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>5511 ID=53004 Provider=Mascot Name=Northern Heat cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>5558 ID=77476 Provider=CQGaming Name=PARTY ISLAND cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>5605 ID=53040 Provider=Mascot Name=Pinup Dolls cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>5665 ID=53043 Provider=Mascot Name=Primal bet Rockways cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>5668 ID=53024 Provider=Mascot Name=Prince Of Persia: Persepolis cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>5701 ID=53010 Provider=Mascot Name=Purple Pills cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>5721 ID=53029 Provider=Mascot Name=Queen Of Spades cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>5732 ID=77777 Provider=CQGaming Name=Rabbit Rampage cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>5773 ID=53016 Provider=Mascot Name=Red Horde cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>5780 ID=76216 Provider=Yggdrasil Name=Reel Desire cod=0 description=null ResponseObject=Transactions ID failed value</t>
+  </si>
+  <si>
+    <t>5801 ID=53003 Provider=Mascot Name=ReKill cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>5822 ID=53012 Provider=Mascot Name=Riot cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>5823 ID=53051 Provider=Mascot Name=Riot 2: Blow and Burn cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>5838 ID=53011 Provider=Mascot Name=Robin of Loxley cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>5843 ID=53066 Provider=Mascot Name=Rocket Chimp Jackpot  cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>5849 ID=77502 Provider=CQGaming Name=ROLLING DRAGON cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>5875 ID=77597 Provider=CQGaming Name=Royal Fruit cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>5890 ID=77478 Provider=CQGaming Name=Rush Hour cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>5975 ID=77771 Provider=CQGaming Name=Sheng Xiao Chuan Qi cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>6039 ID=77492 Provider=CQGaming Name=Slot 777 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>6067 ID=77547 Provider=CQGaming Name=Songkran cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>6147 ID=77781 Provider=CQGaming Name=Stone to Gold cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>6173 ID=77498 Provider=CQGaming Name=Sun Er Niang cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>6218 ID=77464 Provider=CQGaming Name=Sweet 666 Deluxe cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>6283 ID=53048 Provider=Mascot Name=The Candy Crush cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>6284 ID=53060 Provider=Mascot Name=The Candy Keno cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>6294 ID=77534 Provider=CQGaming Name=The Dragon Brings Wealth cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>6295 ID=77623 Provider=CQGaming Name=The Dragon Brings Wealth 2 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>6297 ID=53041 Provider=Mascot Name=The Evil Bet cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>6329 ID=77487 Provider=CQGaming Name=The Legend Of Snake cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>6333 ID=77782 Provider=CQGaming Name=The Magic Brush cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>6337 ID=53025 Provider=Mascot Name=The Myth cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>6344 ID=53054 Provider=Mascot Name=The Princess &amp; Dwarfs Rockways cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>6350 ID=53006 Provider=Mascot Name=The Rite cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>6361 ID=53014 Provider=Mascot Name=The Tomb: Dragon Emperor's Treasure cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>6397 ID=77490 Provider=CQGaming Name=TIGER HERO cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>6455 ID=78539 Provider=CQGaming Name=Treasure Koi cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>6501 ID=53063 Provider=Mascot Name=Trump Card: Queen cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>6509 ID=53038 Provider=Mascot Name=Twin Fruits of Olympus cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>6510 ID=53045 Provider=Mascot Name=Twin Fruits of Santa cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>6516 ID=77792 Provider=CQGaming Name=Typhoon Cash cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>6563 ID=53007 Provider=Mascot Name=Venetian Magic cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>6607 ID=77680 Provider=CQGaming Name=Water Margin cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>6612 ID=77769 Provider=CQGaming Name=Wealthy Chicken cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>6644 ID=77481 Provider=CQGaming Name=Wild Chameleon cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>6672 ID=53070 Provider=Mascot Name=Wild Phoenix Rises cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>6682 ID=53018 Provider=Mascot Name=Wild Spirit cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>6704 ID=53058 Provider=Mascot Name=WildLife Riches cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>6776 ID=77772 Provider=CQGaming Name=Xiao Fu Xing cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>6777 ID=78984 Provider=CQGaming Name=Xiao Ne Zha cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>6779 ID=77493 Provider=CQGaming Name=XIYOUJI cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>6809 ID=53035 Provider=Mascot Name=Zeus the Thunderer cod=21 description=The system cannot find the file specified.
+ ResponseObject=null</t>
+  </si>
+  <si>
+    <t>6823 ID=77768 Provider=CQGaming Name=Zombie's Fortune cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1075  Game ID = 25703  Game Provider Name = Fugaso   Game Name =  Clash Of Gods  cod = 403   src = https://agstatic.com/games/fugaso/clash_of_gods1.jpg</t>
+  </si>
+  <si>
+    <t>3545  Game ID = 78730  Game Provider Name = PariPlay   Game Name =  Book of Eternal Romance  cod = 403   src = https://agstatic.com/games/pariplay/book_of_eternal_romance.jpg</t>
+  </si>
+  <si>
+    <t>5851  Game ID = 68070  Game Provider Name = KAGaming   Game Name =  Romance of the Three Kingdoms  cod = 403   src = https://resources.pokies2go.io/products/</t>
   </si>
 </sst>
 </file>
@@ -1138,939 +1811,706 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A154"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="195.28515625"/>
+    <col min="1" max="1" customWidth="true" width="195.3125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>153</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A130"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="195.28515625"/>
+    <col min="1" max="1" customWidth="true" width="195.3125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:A21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="195.28515625"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>175</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A79"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2081,397 +2521,1088 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>176</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>455</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A211"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="195.3125"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>186</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>188</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>189</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>190</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>191</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>192</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>193</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>194</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>195</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>196</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>197</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>198</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>199</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>200</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>201</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>202</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>203</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>204</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>205</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>206</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>207</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>208</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>209</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>210</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>211</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>213</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>214</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>215</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>216</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>217</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>219</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>220</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>221</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>222</v>
+        <v>268</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>223</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>224</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>225</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>227</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>228</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>229</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>230</v>
+        <v>271</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>231</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>233</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>235</v>
+        <v>274</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>236</v>
+        <v>275</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>237</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>238</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>240</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>243</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>244</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>245</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>247</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>249</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>250</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>252</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>254</v>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/2Pokies2goBrokenData.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/2Pokies2goBrokenData.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="462">
   <si>
     <t>Dream Car Speed</t>
   </si>
@@ -1461,6 +1461,24 @@
   </si>
   <si>
     <t>5851  Game ID = 68070  Game Provider Name = KAGaming   Game Name =  Romance of the Three Kingdoms  cod = 403   src = https://resources.pokies2go.io/products/</t>
+  </si>
+  <si>
+    <t>2024-02-07T12:36:47.448  &gt;&gt;&gt;  3609  Game ID = 78730  Game Provider Name = PariPlay   Game Name =  Book of Eternal Romance  cod = 404   src = https://agstatic.com/games/pariplay/book_of_eternal_romance.jpg</t>
+  </si>
+  <si>
+    <t>2024-02-07T12:36:53.188  &gt;&gt;&gt;  3768  Game ID = 67435  Game Provider Name = Spadegaming   Game Name =  Candy Pop  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f1bc85efc6a06d24ae655ce242b33d032d51a34e/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-02-07T12:37:12.726  &gt;&gt;&gt;  4315  Game ID = 67450  Game Provider Name = Spadegaming   Game Name =  Emperor Gate SA  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/640a93da2ae8e842034edb440250cbf326310695/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-02-07T12:38:21.749  &gt;&gt;&gt;  6237  Game ID = 68480  Game Provider Name = Gamzix   Game Name =  Rich Granny  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/167f4099603192338fff7f3a74af313713bed3b5/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-02-07T12:38:23.131  &gt;&gt;&gt;  6279  Game ID = 68070  Game Provider Name = KAGaming   Game Name =  Romance of the Three Kingdoms  cod = 404   src = https://resources.pokies2go.io/products/null</t>
+  </si>
+  <si>
+    <t>2024-02-07T12:38:37.446  &gt;&gt;&gt;  6606  Game ID = 66557  Game Provider Name = 1X2Gaming   Game Name =  Stellar Ways  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7de126f53d6e4882248e1eb62d49e25edb6e67d1/Games%20Catalog%20image/image.png</t>
   </si>
 </sst>
 </file>
@@ -2510,7 +2528,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2521,17 +2539,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>455</v>
+        <v>458</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>461</v>
       </c>
     </row>
   </sheetData>

--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/2Pokies2goBrokenData.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/2Pokies2goBrokenData.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="1321">
   <si>
     <t>Dream Car Speed</t>
   </si>
@@ -1479,6 +1479,2583 @@
   </si>
   <si>
     <t>2024-02-07T12:38:37.446  &gt;&gt;&gt;  6606  Game ID = 66557  Game Provider Name = 1X2Gaming   Game Name =  Stellar Ways  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7de126f53d6e4882248e1eb62d49e25edb6e67d1/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:43:20.977  &gt;&gt;&gt;  942  Game ID = 65854  Game Provider Name = NucleusGaming   Game Name =   Mystic Rift  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/8d3fa1ef935313078e14af0b64aaeb6a4728d4a0/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:43:20.977  &gt;&gt;&gt;  942  Game ID = 65989  Game Provider Name = NucleusGaming   Game Name =   No Limit Bandit  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b439b1ff016e75ed21d844b5c31530ce5bcd5b7d/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:43:21.424  &gt;&gt;&gt;  952  Game ID = 65543  Game Provider Name = NucleusGaming   Game Name =  12 Animals  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/460d4d727960560b96ed295ef079e5fdd5f82338/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:43:21.811  &gt;&gt;&gt;  961  Game ID = 68647  Game Provider Name = NucleusGaming   Game Name =  21 Burn Blackjack  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b167602af5c876a8ddcc8ef710229fcfea0b93d7/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:43:23.387  &gt;&gt;&gt;  1002  Game ID = 65906  Game Provider Name = NucleusGaming   Game Name =  A Time to Win  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/2c306a5a0240554b9e2f5f6d3fcc70774e5ecd02/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:43:25.027  &gt;&gt;&gt;  1033  Game ID = 66507  Game Provider Name = NucleusGaming   Game Name =  All Reel Drive  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/48a38bee8519399ea888a0b095b787e870cbfe47/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:43:25.518  &gt;&gt;&gt;  1040  Game ID = 68649  Game Provider Name = NucleusGaming   Game Name =  American Roulette  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b90a3ed35a46a995bb7edb08443b7a90a6a9201e/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:43:25.520  &gt;&gt;&gt;  1041  Game ID = 68648  Game Provider Name = NucleusGaming   Game Name =  American (US) Blackjack  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/705ab4cddb8d20cb7acdd9b188e192e5850f08e2/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:43:25.599  &gt;&gt;&gt;  1043  Game ID = 68726  Game Provider Name = DragonGaming   Game Name =  American Roulette  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/967c3cb27fb1c8cd735d86aa1027deb5904ce589/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:43:26.543  &gt;&gt;&gt;  1061  Game ID = 65544  Game Provider Name = NucleusGaming   Game Name =  Arabian Wishes  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/687fc3c9673695774fb6fc9ccc5ee26f28c8b2de/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:43:29.456  &gt;&gt;&gt;  1110  Game ID = 66978  Game Provider Name = NucleusGaming   Game Name =  Bandits and Bounties  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/d0822e89c951d604b396f1837459aaf9e50fa5ac/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:43:30.030  &gt;&gt;&gt;  1122  Game ID = 67188  Game Provider Name = DragonGaming   Game Name =  Basketball Legends  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/50407efe28a488ad1600fce2e2f8c5f40b98397d/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:43:31.691  &gt;&gt;&gt;  1161  Game ID = 68727  Game Provider Name = DragonGaming   Game Name =  Blackjack  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/6f040a0f6ab7b7c8ed6d6a7d244e3515425efe59/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:43:31.791  &gt;&gt;&gt;  1163  Game ID = 65545  Game Provider Name = NucleusGaming   Game Name =  Blades Of The Abyss  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/a95708d868ed5884f261c65ea33acf160e20e27c/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:43:31.794  &gt;&gt;&gt;  1164  Game ID = 68728  Game Provider Name = DragonGaming   Game Name =  Blackjack Deluxe  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/fe10466cb4de4ac76ada1516ea569c07be4ce192/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:43:36.200  &gt;&gt;&gt;  1248  Game ID = 65838  Game Provider Name = NucleusGaming   Game Name =  Bottled Wishes  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/e0637045f72f579e503ab9f512b50e4a115857ac/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:43:36.796  &gt;&gt;&gt;  1257  Game ID = 67190  Game Provider Name = DragonGaming   Game Name =  Buffalo Of Bounty  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/4f967c253e8613d13aa304593ee327f2df691f72/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:43:54.229  &gt;&gt;&gt;  1277  Game ID = 68616  Game Provider Name = NucleusGaming   Game Name =  Call Of Zeus  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f7ee5211c1b25858bfb90a2e17068a4a00a0151c/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:43:57.780  &gt;&gt;&gt;  1285  Game ID = 65547  Game Provider Name = NucleusGaming   Game Name =  Cardinal Dragons NJP  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/1a13ac5d8c612e3e3da7099914eaa40f4a214d85/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:43:58.138  &gt;&gt;&gt;  1286  Game ID = 68650  Game Provider Name = NucleusGaming   Game Name =  Caribbean Poker  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/58bdd4e4380f0bad8db2d714feb6b0ca0ea34290/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:44:10.505  &gt;&gt;&gt;  1311  Game ID = 65548  Game Provider Name = NucleusGaming   Game Name =  Catch And Release  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/e80e6737b3507a7c65a555238a7ec21bc259e8c2/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:44:12.907  &gt;&gt;&gt;  1335  Game ID = 66852  Game Provider Name = NucleusGaming   Game Name =  Christmas Journey  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/541863d70d76c83ee99959aae5c33a7e6a9d7222/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:44:13.898  &gt;&gt;&gt;  1347  Game ID = 67192  Game Provider Name = DragonGaming   Game Name =  Cleopatra's Fortune  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/42f535f53927fdb8e2b4eb3aee36a6fb76e605d8/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:44:15.068  &gt;&gt;&gt;  1374  Game ID = 68651  Game Provider Name = NucleusGaming   Game Name =  Craps  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/a99f52e4acbfbee437a0ab2e296e119e40f57874/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:44:18.161  &gt;&gt;&gt;  1443  Game ID = 66563  Game Provider Name = NucleusGaming   Game Name =  Diamond Strip  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f8610564eac17d9b0532775760d440d053f96f80/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:44:19.859  &gt;&gt;&gt;  1482  Game ID = 66590  Game Provider Name = NucleusGaming   Game Name =  Dragon Watch  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/db065615004609fbe2510cd34cb4a9e769c9747d/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:44:20.511  &gt;&gt;&gt;  1497  Game ID = 68652  Game Provider Name = NucleusGaming   Game Name =  Draw High Low  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/caac0b1681458f043104bd3d8ac8ce6db7ca4915/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:44:21.813  &gt;&gt;&gt;  1529  Game ID = 67195  Game Provider Name = DragonGaming   Game Name =  Empire Of Riches  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/4f30aa7e498eb0994cc89490883c01a3645e81ae/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:44:22.016  &gt;&gt;&gt;  1535  Game ID = 65748  Game Provider Name = NucleusGaming   Game Name =  End Zone Riches  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/110e0bb02fd97a83ac18cf1ba08d2ba817a715c2/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:44:22.342  &gt;&gt;&gt;  1541  Game ID = 68653  Game Provider Name = NucleusGaming   Game Name =  European BlackJack  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/1c2b574215a96d76e63bd91aa6db2aa5276f118d/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:44:22.350  &gt;&gt;&gt;  1542  Game ID = 68654  Game Provider Name = NucleusGaming   Game Name =  European Roulette  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/145aceece81eab3617ac1ad4e7c89ec8ae2ca2c8/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:44:22.436  &gt;&gt;&gt;  1543  Game ID = 68729  Game Provider Name = DragonGaming   Game Name =  European Roulette  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/2c70ec9ab6a41a8a50ec0eea2220f1967cbcb670/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:44:24.209  &gt;&gt;&gt;  1583  Game ID = 65551  Game Provider Name = NucleusGaming   Game Name =  Firecrackers  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7b56cd8cdc3385341fc8a373b60f96f1b004c568/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:44:25.565  &gt;&gt;&gt;  1613  Game ID = 67196  Game Provider Name = DragonGaming   Game Name =  Fortune Frog  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/76a17159b76fe3d31b691b13215bd2b4a1846b57/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:44:26.134  &gt;&gt;&gt;  1626  Game ID = 65552  Game Provider Name = NucleusGaming   Game Name =  Freaky Frankenstein  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/dd1ab6c990bea33accbe4fd14e371bec4cb15e76/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:44:26.866  &gt;&gt;&gt;  1646  Game ID = 65553  Game Provider Name = NucleusGaming   Game Name =  Fruit Serenity  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/63312a99577cdf5fb61f3774b93562b764ab94a8/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:44:27.622  &gt;&gt;&gt;  1666  Game ID = 67197  Game Provider Name = DragonGaming   Game Name =  Fruity Feast  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/c9fcf49d29833306e0f295fed6a44b746d17e11e/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:44:27.696  &gt;&gt;&gt;  1669  Game ID = 66302  Game Provider Name = NucleusGaming   Game Name =  Fruity Way  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/0035f3ab296d55255e5ebd85b9e4d1ff14fea23f/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:44:28.673  &gt;&gt;&gt;  1691  Game ID = 65554  Game Provider Name = NucleusGaming   Game Name =  Geppettos Toy Shop  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/23e8ff4644dd8cb7ea0dcab3a3c4a45920578206/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:44:28.978  &gt;&gt;&gt;  1698  Game ID = 65791  Game Provider Name = NucleusGaming   Game Name =  Glorious Gems  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/9f21ee55077444b2b3aa07dd0d7f1e57744dc1ee/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:44:29.142  &gt;&gt;&gt;  1702  Game ID = 66611  Game Provider Name = NucleusGaming   Game Name =  Goals of Glory  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/28fbfae19dc4738439b635bd020a683fed926db2/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:44:29.651  &gt;&gt;&gt;  1716  Game ID = 67199  Game Provider Name = DragonGaming   Game Name =  Gold Heist  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b99c1e13a1d61ee373477eadbf9333823950e151/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:44:31.478  &gt;&gt;&gt;  1754  Game ID = 66403  Game Provider Name = NucleusGaming   Game Name =  Grand Luxe  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/d8e02bd2d310bdd030690ac3fd57277ba588f7fc/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:44:33.195  &gt;&gt;&gt;  1792  Game ID = 67201  Game Provider Name = DragonGaming   Game Name =  Hero School  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/8b41d6f1126b49e1aa6426714bad2a3b7718de42/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:44:33.279  &gt;&gt;&gt;  1793  Game ID = 65555  Game Provider Name = NucleusGaming   Game Name =  High Noon  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/82cd28c4b5af2d7ddd071fcc423f31b2869ac512/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:44:33.560  &gt;&gt;&gt;  1801  Game ID = 66436  Game Provider Name = NucleusGaming   Game Name =  Ho Ho Cash  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/bd882bb3936764ceeca0538d08aef7cc8a910185/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:44:36.147  &gt;&gt;&gt;  1839  Game ID = 65722  Game Provider Name = NucleusGaming   Game Name =  Howling at the Moon  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/62fcabc1ea1f541bd74fe48ef4ae9d4bdbe77b86/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:44:51.025  &gt;&gt;&gt;  1844  Game ID = 65556  Game Provider Name = NucleusGaming   Game Name =  Hyper Galactic  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/54174a3861142b77cb7d8fb0bdfd3f739b8533f5/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:44:53.561  &gt;&gt;&gt;  1874  Game ID = 67231  Game Provider Name = DragonGaming   Game Name =  iScream!  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/fd469dda907ab537e38bf255ff2e24e04490dcea/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:44:53.981  &gt;&gt;&gt;  1879  Game ID = 65014  Game Provider Name = NucleusGaming   Game Name =  Jack And The Mighty Beanstalk  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/adc17109c84bdb6bcbb5c0ad5970282fd0288dc2/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:44:55.851  &gt;&gt;&gt;  1907  Game ID = 65773  Game Provider Name = NucleusGaming   Game Name =  Joker Gemferno  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/8e64308ef8d5e55e0b31885e6dc76813b27b76ee/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:44:56.637  &gt;&gt;&gt;  1926  Game ID = 68489  Game Provider Name = NucleusGaming   Game Name =  Juicy Bonanza  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/0aeb09cecdec8e20a36dba854b5093353d8b6b77/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:44:56.801  &gt;&gt;&gt;  1930  Game ID = 65557  Game Provider Name = NucleusGaming   Game Name =  Jumbo Jester  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/a39cf3d49b3e86c42a890dcaf8eb6e7cdbe522aa/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:45:02.052  &gt;&gt;&gt;  1963  Game ID = 65558  Game Provider Name = NucleusGaming   Game Name =  Kitty Cutie  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/9e7a741705d613a5b1de453ac89dd494ef81e621/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:45:03.385  &gt;&gt;&gt;  1966  Game ID = 66324  Game Provider Name = NucleusGaming   Game Name =  Kraken Deep Wins  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/92e10df1cc8bc50b0017ce1987e45352ca6545e8/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:45:06.412  &gt;&gt;&gt;  1979  Game ID = 66807  Game Provider Name = NucleusGaming   Game Name =  Legend Of Azteca  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/4ed82443526ae9ec246ca8423e8ef05442e89e4d/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:45:06.854  &gt;&gt;&gt;  1981  Game ID = 67206  Game Provider Name = DragonGaming   Game Name =  Legend Of Horus  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f5ddf6781dc018df01c4ea30185b2b7d9864ed75/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:45:30.011  &gt;&gt;&gt;  2029  Game ID = 65560  Game Provider Name = NucleusGaming   Game Name =  Lucky Clovers NJP  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/01480509462b5764268317367401daff28ea4f78/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:45:31.002  &gt;&gt;&gt;  2047  Game ID = 67207  Game Provider Name = DragonGaming   Game Name =  Lucky Macau  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/5dbe57dd5f3a66cc2425145bdd3f15eec7e82ca2/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:45:33.615  &gt;&gt;&gt;  2106  Game ID = 65561  Game Provider Name = NucleusGaming   Game Name =  Matinee  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/abbd30cee577cf9dc3becb3c33e8f9cdab21003f/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:45:33.884  &gt;&gt;&gt;  2110  Game ID = 65562  Game Provider Name = NucleusGaming   Game Name =  Merlin's Elements  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/4fe172a19426fa190b0070069a8caa345d73b1c3/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:45:34.131  &gt;&gt;&gt;  2115  Game ID = 65563  Game Provider Name = NucleusGaming   Game Name =  Mermaid's Treasure  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b478baf4336640e5eb64b5962781338b4959269a/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:45:35.689  &gt;&gt;&gt;  2150  Game ID = 65564  Game Provider Name = NucleusGaming   Game Name =  Moon Bitten  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/8810e7bb69ad49ddaaa9dbe76582ec58c774a59e/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:45:37.120  &gt;&gt;&gt;  2175  Game ID = 67210  Game Provider Name = DragonGaming   Game Name =  Mythical Creatures  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/35f9fcb35a94adf1def043643ff898a36ba85589/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:45:38.580  &gt;&gt;&gt;  2206  Game ID = 68655  Game Provider Name = NucleusGaming   Game Name =  Oasis Poker  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/9d54a78f600b2e535c4a0fc5e1b179fc04526568/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:45:39.189  &gt;&gt;&gt;  2220  Game ID = 68656  Game Provider Name = NucleusGaming   Game Name =  Pai Gow  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/69247a1ac06842ada9c498b4bbeb25ee5e646def/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:45:39.454  &gt;&gt;&gt;  2225  Game ID = 67211  Game Provider Name = DragonGaming   Game Name =  Panda Playtime  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b44f2d053fe6e1c0809612e7964cbf38dd72ca4a/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:45:39.993  &gt;&gt;&gt;  2238  Game ID = 68486  Game Provider Name = NucleusGaming   Game Name =  Party Paradise  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/0f4eed2828c8fffd57fc4134d57620ccb456182d/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:45:40.324  &gt;&gt;&gt;  2244  Game ID = 66461  Game Provider Name = NucleusGaming   Game Name =  Peak Riches  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/a85271d803763719b1b7b84a72645aa1b871b1df/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:45:41.968  &gt;&gt;&gt;  2281  Game ID = 68657  Game Provider Name = NucleusGaming   Game Name =  Pirate 21  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/eb2ca22a4881fc0f57044c2ec0cd734b17f30fdd/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:45:42.263  &gt;&gt;&gt;  2283  Game ID = 67212  Game Provider Name = DragonGaming   Game Name =  Pirates Of The Grand Line  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/c78bc99cd7f7d937c9d7eda78e41def86af9e437/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:45:42.598  &gt;&gt;&gt;  2286  Game ID = 65753  Game Provider Name = NucleusGaming   Game Name =  Pixie Magic  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/190655ef33e4a677cd6ab250194502b025279518/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:45:42.915  &gt;&gt;&gt;  2289  Game ID = 67213  Game Provider Name = DragonGaming   Game Name =  Play with Cleo  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/8ef02474bf6dfbfea3f0cb9747ed990e64932d21/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:45:42.941  &gt;&gt;&gt;  2290  Game ID = 68628  Game Provider Name = DragonGaming   Game Name =  Play with Cleo Scratchcard  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/35ecb0044ec87d9df73949586144d7875a1a087c/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:45:43.318  &gt;&gt;&gt;  2298  Game ID = 65754  Game Provider Name = NucleusGaming   Game Name =  Polar Breeze  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/d54e343262efe6e37ac6dd7f78eab3eb4d2462af/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:45:43.450  &gt;&gt;&gt;  2301  Game ID = 68658  Game Provider Name = NucleusGaming   Game Name =  Pontoon 21  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/c0fefc9a5c1d7d50dbafef4d245716fe23cfc53e/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:45:52.078  &gt;&gt;&gt;  2368  Game ID = 65566  Game Provider Name = NucleusGaming   Game Name =  Reels Of Treasure NJP  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/373b1b69d127521829d2d7ad117152ca46ee5187/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:12.434  &gt;&gt;&gt;  2402  Game ID = 68659  Game Provider Name = NucleusGaming   Game Name =  Ride`m Poker  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/3ffe0c353089cc713f0904e8e66966a57db13a72/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:14.663  &gt;&gt;&gt;  2411  Game ID = 67216  Game Provider Name = DragonGaming   Game Name =  Rise Of The Titans  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/43f249c1422c606b1f495bda1a25c06ca7acf90c/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:15.018  &gt;&gt;&gt;  2414  Game ID = 68629  Game Provider Name = DragonGaming   Game Name =  Rise of the Titans Scratchcard  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b94fd209ac56749f888f96ea99d52f33774d864a/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:20.950  &gt;&gt;&gt;  2439  Game ID = 65568  Game Provider Name = NucleusGaming   Game Name =  Ruby Jade  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/bb80f2efd82bf1df0e38439b59bfb5d53597ab73/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:21.493  &gt;&gt;&gt;  2448  Game ID = 65756  Game Provider Name = NucleusGaming   Game Name =  Runes Of Odin  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/2aa01b363469c2fdec9830939096401ccfbbb531/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:21.876  &gt;&gt;&gt;  2452  Game ID = 68478  Game Provider Name = NucleusGaming   Game Name =  Safari Spins  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/4d698e778715f098fa16b28c3168784e9d7d4dd9/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:21.876  &gt;&gt;&gt;  2453  Game ID = 67217  Game Provider Name = DragonGaming   Game Name =  Safari Stampede  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/83f352a0f7f75243121f876466ee64782be9974f/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:22.060  &gt;&gt;&gt;  2455  Game ID = 67218  Game Provider Name = DragonGaming   Game Name =  Saiyan Warriors  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/e7a43b54e4d389339e35dd7d570bddfe89366de5/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:22.269  &gt;&gt;&gt;  2460  Game ID = 65757  Game Provider Name = NucleusGaming   Game Name =  Salsa Poppers  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/fad2b4d70f46ec5cf1919dfcc66f0627ffc31c71/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:22.633  &gt;&gt;&gt;  2464  Game ID = 65570  Game Provider Name = NucleusGaming   Game Name =  Sands Of Egypt NJP  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/9298a5bcdb121fa2fc1b5ff93d0c131a372ed962/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:22.888  &gt;&gt;&gt;  2467  Game ID = 65571  Game Provider Name = NucleusGaming   Game Name =  Sashimi Dreams  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7f860100b3bee80df9dd842f5429428e03f00b6e/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:23.153  &gt;&gt;&gt;  2470  Game ID = 65572  Game Provider Name = NucleusGaming   Game Name =  Savanna Safari  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/819436b960fbbd75285e59a25880352b9ac18aa3/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:23.935  &gt;&gt;&gt;  2484  Game ID = 65573  Game Provider Name = NucleusGaming   Game Name =  Scroll Of Horus  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/030b9b0375ebf2baac4cd79d76fee4807a8042c2/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:24.527  &gt;&gt;&gt;  2492  Game ID = 65574  Game Provider Name = NucleusGaming   Game Name =  Seer's Crystal  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/893e27060af695a879c153459fbca2d366e8d7f6/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:24.548  &gt;&gt;&gt;  2494  Game ID = 67219  Game Provider Name = DragonGaming   Game Name =  Seirei Academy  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/e424a8ffe940463dc669fb92bc38b269f7c282ec/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:25.240  &gt;&gt;&gt;  2496  Game ID = 66712  Game Provider Name = NucleusGaming   Game Name =  Shark Spins  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/1db448b57f4243cacce21dee4c981bf9f99970f9/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:25.939  &gt;&gt;&gt;  2502  Game ID = 67220  Game Provider Name = DragonGaming   Game Name =  Shinobi Wars  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/4675418df819cc05896fe763c246858260b19879/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:26.520  &gt;&gt;&gt;  2510  Game ID = 68660  Game Provider Name = NucleusGaming   Game Name =  Single Deck Blackjack  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b7b9322382c4761452fc378c865aa0aac3796f75/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:26.523  &gt;&gt;&gt;  2511  Game ID = 65575  Game Provider Name = NucleusGaming   Game Name =  Sisters Of Luck  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/9f627c260291109e3598b9b50983e6c43cf51d46/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:26.880  &gt;&gt;&gt;  2516  Game ID = 65576  Game Provider Name = NucleusGaming   Game Name =  Sleight Of Hand  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/06ff6e94f758a7cf851ba4f11d788c63dd127d2e/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:27.413  &gt;&gt;&gt;  2529  Game ID = 65577  Game Provider Name = NucleusGaming   Game Name =  Soaring Wind  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/5501d695d1fa6ca2e7ad6e5e7f2f040c1fe6073d/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:28.472  &gt;&gt;&gt;  2551  Game ID = 65767  Game Provider Name = NucleusGaming   Game Name =  Spirit Of The Nile  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/e6d991e9b88f31cc2a72d96367494abc84fb9bec/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:28.623  &gt;&gt;&gt;  2553  Game ID = 66381  Game Provider Name = NucleusGaming   Game Name =  Spooktacular Spins  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/1f8e1e2bb02a2e948f2612ecd9f878286b10c882/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:31.211  &gt;&gt;&gt;  2605  Game ID = 65579  Game Provider Name = NucleusGaming   Game Name =  Super 7s  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/6afc4163bbd7b9ae2b059103b34b51c8897e2e3e/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:31.262  &gt;&gt;&gt;  2606  Game ID = 65581  Game Provider Name = NucleusGaming   Game Name =  Super Crystals NJP  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/5ee4f887941df0676f66d3a04c71a025d48303fe/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:32.562  &gt;&gt;&gt;  2631  Game ID = 65582  Game Provider Name = NucleusGaming   Game Name =  Sweet Treats  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b44cc95530ab325c64ddf6add5bd6047edd98def/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:32.623  &gt;&gt;&gt;  2632  Game ID = 65583  Game Provider Name = NucleusGaming   Game Name =  Sweet Treats 2  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/0cb062601d31a9923ce4ee7e7dbe015dbd1580dd/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:34.203  &gt;&gt;&gt;  2662  Game ID = 65584  Game Provider Name = NucleusGaming   Game Name =  The Critters  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/6d58fc8f45898cb08e43672f9c23c25f1da7fbcb/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:34.252  &gt;&gt;&gt;  2663  Game ID = 67223  Game Provider Name = DragonGaming   Game Name =  The Defenders  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/99647731139f569b76a5137840fee8dec467a87b/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:34.349  &gt;&gt;&gt;  2665  Game ID = 67222  Game Provider Name = DragonGaming   Game Name =  The Bank Heist  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/d3459d2953fbd0df1c5c33b9c89c232d59ae759a/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:34.555  &gt;&gt;&gt;  2667  Game ID = 65585  Game Provider Name = NucleusGaming   Game Name =  The Family NJP  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/ffe1b9511b8bc2cbdd2944964a2a90abe834d746/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:34.558  &gt;&gt;&gt;  2668  Game ID = 65586  Game Provider Name = NucleusGaming   Game Name =  The Family Part II  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/d21d809c3fe6e80a24db5a9ed0da10778115a6e8/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:34.620  &gt;&gt;&gt;  2670  Game ID = 66691  Game Provider Name = NucleusGaming   Game Name =  The Forbidden Tomb  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b7b99ae28e246496a1dc6488e57b5c14322bce0d/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:34.980  &gt;&gt;&gt;  2675  Game ID = 66535  Game Provider Name = NucleusGaming   Game Name =  The Golden Inn  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/ca1eb30c1b9037ca630c006f176260e0006247cd/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:34.997  &gt;&gt;&gt;  2676  Game ID = 66274  Game Provider Name = NucleusGaming   Game Name =  The Golden Games  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/2e6aba19e43b12a326fdfc94c926bfb8c1d2680e/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:35.334  &gt;&gt;&gt;  2681  Game ID = 66766  Game Provider Name = NucleusGaming   Game Name =  The Haunted Carnival  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/651f4b105dd827840ce2c28e0458365872a82266/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:35.356  &gt;&gt;&gt;  2682  Game ID = 68625  Game Provider Name = NucleusGaming   Game Name =  The Haunted Inn  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/af445ee803d2519bd8a50d72ec2f69fe6bf4a71e/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:35.373  &gt;&gt;&gt;  2683  Game ID = 67225  Game Provider Name = DragonGaming   Game Name =  The Ingot Ox  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/05276047dc1d83cfa440e0cbe9bcdf00fa99e72c/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:35.533  &gt;&gt;&gt;  2685  Game ID = 65587  Game Provider Name = NucleusGaming   Game Name =  The Job  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/98e10919bf7c39b688419a1efa82528def395c8a/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:36.230  &gt;&gt;&gt;  2695  Game ID = 65588  Game Provider Name = NucleusGaming   Game Name =  The Mad Genius  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b75a40af357f33c1b261bea2dacd72ddaa98c125/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:36.313  &gt;&gt;&gt;  2697  Game ID = 65590  Game Provider Name = NucleusGaming   Game Name =  The Moguls NJP  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/03abc97a0759902af9f3b7d08071411e2d187ab3/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:36.458  &gt;&gt;&gt;  2701  Game ID = 65591  Game Provider Name = NucleusGaming   Game Name =  The Party Guy  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/6e59420cf0976d32faf6f6358dd9dde1092ce1a8/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:37.175  &gt;&gt;&gt;  2714  Game ID = 67227  Game Provider Name = DragonGaming   Game Name =  The Wicked Witched  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/3e3fc2f5d0be91b782f137a89c6538b5c77ffa1a/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:37.407  &gt;&gt;&gt;  2716  Game ID = 68661  Game Provider Name = NucleusGaming   Game Name =  Three Card Rummy  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/3e712c7d4fe4f461c33a32367f106c612c1abdd4/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:37.605  &gt;&gt;&gt;  2723  Game ID = 65592  Game Provider Name = NucleusGaming   Game Name =  There's Gold Yonder  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/67d821e4c339240512ff1b1dc8f75569386a5cc7/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:38.518  &gt;&gt;&gt;  2738  Game ID = 65593  Game Provider Name = NucleusGaming   Game Name =  Totem Tumble  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f81473c6037def10b9b0a1426e03c0f7e16da33e/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:38.576  &gt;&gt;&gt;  2740  Game ID = 66081  Game Provider Name = NucleusGaming   Game Name =  Totems Of Fortune  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/0f0d7bed4089e9bd2c89d930b2e2c06d498a223c/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:39.653  &gt;&gt;&gt;  2763  Game ID = 66653  Game Provider Name = NucleusGaming   Game Name =  Tropical Splash  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/cb7f38dc3f239e02c83267cf4cfdb461bb0a38e1/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:40.079  &gt;&gt;&gt;  2773  Game ID = 67228  Game Provider Name = DragonGaming   Game Name =  Twin Dragons  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/63cef8d9ad486518878ca1be86dd8df4e4a27ad1/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:41.006  &gt;&gt;&gt;  2798  Game ID = 65594  Game Provider Name = NucleusGaming   Game Name =  Vegas Road Trip  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/8797d1891f7973186e653468b2f64d8747be7b0c/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:41.759  &gt;&gt;&gt;  2811  Game ID = 68662  Game Provider Name = NucleusGaming   Game Name =  War  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/1eb0631294a3e62bef81f5df38d1510e1663745b/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:42.554  &gt;&gt;&gt;  2829  Game ID = 65595  Game Provider Name = NucleusGaming   Game Name =  Wild Adventures  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/52d635dd9dd9c2b0407e1fe4d2054d674fca016f/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:43.017  &gt;&gt;&gt;  2839  Game ID = 65796  Game Provider Name = NucleusGaming   Game Name =  Wild Cherry Blast  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/45399742bd143be2776cd328babfa184c3be1b6c/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:44.808  &gt;&gt;&gt;  2879  Game ID = 67229  Game Provider Name = DragonGaming   Game Name =  Wilderness Wins  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7cfbffcdc5dc5c18b1461cbdf5016dfcd529b476/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:45.188  &gt;&gt;&gt;  2887  Game ID = 68468  Game Provider Name = NucleusGaming   Game Name =  Wings Of Victory  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/56648a994c6991f254d80a6f85520ca626804cb8/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:45.213  &gt;&gt;&gt;  2888  Game ID = 67230  Game Provider Name = DragonGaming   Game Name =  Winning Vegas  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/849682ebed9b9be27ff028a8404d2396dd44565a/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:45.456  &gt;&gt;&gt;  2893  Game ID = 66886  Game Provider Name = NucleusGaming   Game Name =  Winter Champs  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/db4790ebb803b2fe1c36223b468226e706bb97cb/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:45.457  &gt;&gt;&gt;  2894  Game ID = 66938  Game Provider Name = NucleusGaming   Game Name =  Wins Ahoy  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/03aa5f773732196e5faa5fc7ffd1463432ad547d/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:46:46.869  &gt;&gt;&gt;  2920  Game ID = 68663  Game Provider Name = NucleusGaming   Game Name =  Zoom Roulette  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/8da173356c865cf35cfc08b241216129bba6d4f7/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:13.756  &gt;&gt;&gt;  3000  Game ID = 68615  Game Provider Name = Gamzix   Game Name =  3*3 Hold The Spin  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/758e37837c116b68c61f29a259a281a74319e7f9/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:14.102  &gt;&gt;&gt;  3003  Game ID = 68960  Game Provider Name = Gamzix   Game Name =  3x3 Egypt: Hold The Spin  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/6e95c6d8b469ec3f175c68fff1761ea6a9f51da1/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:14.140  &gt;&gt;&gt;  3004  Game ID = 68624  Game Provider Name = Gamzix   Game Name =  3X3: 27 Ways  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/d99051be9c8a234d529dfd8514c9dc5be45f5ddd/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:14.256  &gt;&gt;&gt;  3006  Game ID = 68497  Game Provider Name = Gamzix   Game Name =  3X3: Hell Spin  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/4ad2c3c7359c6bfb5d7eb933ca4790f79641e53a/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:15.021  &gt;&gt;&gt;  3018  Game ID = 67184  Game Provider Name = Gamzix   Game Name =  40 Chilli Fruits  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/eb2828e89b8a10850815a2c63ec7397a3554c34c/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:15.111  &gt;&gt;&gt;  3021  Game ID = 67185  Game Provider Name = Gamzix   Game Name =  40 Chilli Fruits Flaming Edition  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f4fb265f6220ebfa0da5ef0a56f507232536aa43/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:15.608  &gt;&gt;&gt;  3032  Game ID = 68955  Game Provider Name = Gamzix   Game Name =  40 Sweet Fruits  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/670b5320e0c2768473406299e829220f84cddfa0/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:15.938  &gt;&gt;&gt;  3037  Game ID = 67416  Game Provider Name = Spadegaming   Game Name =  5 Fortune SA  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/711292483f7236629087108711f0b127d1e6b7fa/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:15.945  &gt;&gt;&gt;  3038  Game ID = 67415  Game Provider Name = Spadegaming   Game Name =  5 Fortune Dragons  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/a7654116d4a39b20dd876a33fb1ca15734dfbfe2/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:16.620  &gt;&gt;&gt;  3049  Game ID = 65041  Game Provider Name = Mr.Slotty   Game Name =  50 Lines Of War  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/2c1b1c50c7df5c8542320f85689fe22290b30b3b/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:17.555  &gt;&gt;&gt;  3064  Game ID = 67838  Game Provider Name = KAGaming   Game Name =  7 Heroines  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7f8ee40e47d97fc25d9a8cc0ff3cbb6358850de8/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:17.836  &gt;&gt;&gt;  3068  Game ID = 65042  Game Provider Name = Mr.Slotty   Game Name =  777 Diamonds  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/d84aa1b7e24b9ab77273e0fc9001f8baa83723e5/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:17.926  &gt;&gt;&gt;  3070  Game ID = 69392  Game Provider Name = Corps   Game Name =  777 Jackpot Diamond Hold and Win  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7fd3d0709a61d94a635de63bcaa63f86d09d50d0/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:18.314  &gt;&gt;&gt;  3077  Game ID = 67839  Game Provider Name = KAGaming   Game Name =  777 Vegas  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/25f1e033f8ebb08a380dbf44cfce722b9cccdcf4/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:18.866  &gt;&gt;&gt;  3088  Game ID = 67419  Game Provider Name = Spadegaming   Game Name =  888  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/250f3c2ddfbddb871248409b0dab813d917164f5/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:19.648  &gt;&gt;&gt;  3107  Game ID = 69545  Game Provider Name = Corps   Game Name =  9 Jokers Stick and Spin  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/347ebee470f8ef574fdd898003a409df69374a28/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:20.366  &gt;&gt;&gt;  3120  Game ID = 67840  Game Provider Name = KAGaming   Game Name =  A Girl's Best Friend  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/a0ca8ab186045d559891f2de678cbdfacb736586/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:20.502  &gt;&gt;&gt;  3123  Game ID = 67841  Game Provider Name = KAGaming   Game Name =  A Thirsty Crow  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/6e9a3569c7fe5691c80099f13ef39490f40c030f/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:21.805  &gt;&gt;&gt;  3148  Game ID = 67842  Game Provider Name = KAGaming   Game Name =  Africa Run  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/dc5a41b6a36e39649419c47e25eb7f8c38e51320/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:22.594  &gt;&gt;&gt;  3159  Game ID = 67843  Game Provider Name = KAGaming   Game Name =  Age of Vikings  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/3c3fc794af3d748d98f8c6a9bae2a01b95d94c1a/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:23.035  &gt;&gt;&gt;  3166  Game ID = 65051  Game Provider Name = Mr.Slotty   Game Name =  Agent X Mission  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/8d2134cfea9d8eb5c6dec74526b6628159caee61/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:23.142  &gt;&gt;&gt;  3169  Game ID = 67844  Game Provider Name = KAGaming   Game Name =  AirCombat 1942  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/bd49d196742701a2cc86c227eefcf0991769d940/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:23.172  &gt;&gt;&gt;  3170  Game ID = 67845  Game Provider Name = KAGaming   Game Name =  Aladdin  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/aef4fde3fa6d9082e84f4a04a22d9031502c9398/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:23.789  &gt;&gt;&gt;  3183  Game ID = 67846  Game Provider Name = KAGaming   Game Name =  Alexander the Great  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/a189f3f2b88f4bb429b3c0289ac34b710ecc2912/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:23.910  &gt;&gt;&gt;  3186  Game ID = 67847  Game Provider Name = KAGaming   Game Name =  Alice In Wonderland  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7d05e07ca279ee5dc86242d19848f10eceed1a0a/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:24.614  &gt;&gt;&gt;  3195  Game ID = 67422  Game Provider Name = Spadegaming   Game Name =  Alien hunter  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/d93df65c990162134ffff04648dab3f140cffa27/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:25.431  &gt;&gt;&gt;  3213  Game ID = 69399  Game Provider Name = NetEnt   Game Name =  Aloha! Cluster Pays  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/28d092c240438c264411031594a91d64c57237be/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:25.521  &gt;&gt;&gt;  3216  Game ID = 67848  Game Provider Name = KAGaming   Game Name =  Alter World  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/a4884cd42761bf49600832ffbb1010a9b174f9ea/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:27.882  &gt;&gt;&gt;  3266  Game ID = 69388  Game Provider Name = Corps   Game Name =  Angry Elf Christmas Miner  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/bd32fd5b67424350659b6b7688dcc50815a8f071/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:27.975  &gt;&gt;&gt;  3267  Game ID = 67849  Game Provider Name = KAGaming   Game Name =  Angry Piggies  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/240ed11b8505022b10b3d0ecbdaddbc2082887f5/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:28.113  &gt;&gt;&gt;  3271  Game ID = 67850  Game Provider Name = KAGaming   Game Name =  Animal Fishing  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/e46792f8e7eea6f1462215fd34440420dc10b9ba/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:28.948  &gt;&gt;&gt;  3287  Game ID = 67851  Game Provider Name = KAGaming   Game Name =  Archer Robin Hood  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/578a35a4f9d5d4aeb7b96599d2510ae4943cc0bd/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:28.949  &gt;&gt;&gt;  3288  Game ID = 66982  Game Provider Name = 1X2Gaming   Game Name =  Arctic Fruits  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/0cd9d6b9a25056802e0271e6b2edb304ca26ffc9/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:29.157  &gt;&gt;&gt;  3291  Game ID = 67852  Game Provider Name = KAGaming   Game Name =  Arctic Storm  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/68e878503a98a8df9f40433d67810db0db242b57/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:29.509  &gt;&gt;&gt;  3298  Game ID = 67853  Game Provider Name = KAGaming   Game Name =  Ares God of War  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/4f85e7f69da49ab25757fc8c9e597e14f97e819e/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:29.949  &gt;&gt;&gt;  3306  Game ID = 67854  Game Provider Name = KAGaming   Game Name =  Artificial Intelligence  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/17a654ceb07f00e28abf0c0597b9695092c2df37/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:29.979  &gt;&gt;&gt;  3308  Game ID = 67855  Game Provider Name = KAGaming   Game Name =  Artist Studio  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b8d5d8d5584bfc4b14f7d9a071c9dd28ac201119/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:30.102  &gt;&gt;&gt;  3311  Game ID = 66613  Game Provider Name = 1X2Gaming   Game Name =  Asgard Warriors  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7f9127e6057f6cb140eedd030dd802af7a921efa/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:30.345  &gt;&gt;&gt;  3316  Game ID = 69029  Game Provider Name = ELKStudios   Game Name =  Ashoka  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7acccd01bee6cec29d1534b0ed67350a42e6f6ef/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:30.450  &gt;&gt;&gt;  3317  Game ID = 68974  Game Provider Name = Orbital   Game Name =  Astro  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/e4a045f6246b22891cf34b03ccf6e37776da609c/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:31.112  &gt;&gt;&gt;  3331  Game ID = 66782  Game Provider Name = 1X2Gaming   Game Name =  Atomic Reactor  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/e535cb3dcab032cbfcc12c0c667acb6cb7907c8d/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:31.432  &gt;&gt;&gt;  3338  Game ID = 67856  Game Provider Name = KAGaming   Game Name =  Aurora  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b37d9c86d84ccd177451c248315e32e6407b8687/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:31.714  &gt;&gt;&gt;  3343  Game ID = 68913  Game Provider Name = ELKStudios   Game Name =  Avalon Gold  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/2813bee95cb9ddbfdd5880181963948ff7caa91f/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:32.332  &gt;&gt;&gt;  3358  Game ID = 65062  Game Provider Name = Mr.Slotty   Game Name =  Aztec Pyramids  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/1bef4a5b569f5a57049ae5d1d9f64edd3986de64/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:32.386  &gt;&gt;&gt;  3360  Game ID = 65063  Game Provider Name = 1X2Gaming   Game Name =  Aztec Secrets  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/52bd84fdac2caa9abdbcb49b1daaa828a939c3b0/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:32.643  &gt;&gt;&gt;  3364  Game ID = 67857  Game Provider Name = KAGaming   Game Name =  Ba Wang Bie Ji  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/d912a83dd2abc7f650b66b2f4c72408cced96ccf/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:32.730  &gt;&gt;&gt;  3365  Game ID = 67426  Game Provider Name = Spadegaming   Game Name =  Baby Cai Shen  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/a3ed1e7c5adfc3f96da335ddbffd760c84420e96/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:32.938  &gt;&gt;&gt;  3367  Game ID = 68686  Game Provider Name = KAGaming   Game Name =  Baccarat  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/34ba89d0c8a9c8a952d55a4a8f909d2780c86022/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:32.951  &gt;&gt;&gt;  3368  Game ID = 68730  Game Provider Name = Orbital   Game Name =  Baccarat  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/3d543a97663b09ed37f0d8e4ade9255bbaa3513e/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:32.996  &gt;&gt;&gt;  3369  Game ID = 69563  Game Provider Name = 1X2Gaming   Game Name =  Baccarat  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/045991c354c1efaafe4f3f8162a4837c5357bf17/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:33.113  &gt;&gt;&gt;  3372  Game ID = 69559  Game Provider Name = Corps   Game Name =  BACCARAT  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/fc052954b418f7540602676d8e22b2289997accc/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:33.672  &gt;&gt;&gt;  3384  Game ID = 67858  Game Provider Name = KAGaming   Game Name =  Bakery Sweetness  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/095cfc2cc5cfba74db821ba33e36deec58b802a8/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:33.973  &gt;&gt;&gt;  3389  Game ID = 67187  Game Provider Name = Gamzix   Game Name =  Banana Bar  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/9446de7891c9b57a96d0c683e89d0ef86fa6e6a5/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:34.319  &gt;&gt;&gt;  3395  Game ID = 66904  Game Provider Name = Corps   Game Name =  Bank or Bust  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/faeb9e807b4fc337cacc2d9b83f3b3ebab4ea6c0/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:35.056  &gt;&gt;&gt;  3409  Game ID = 67859  Game Provider Name = KAGaming   Game Name =  Baseball Fever  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/d312ce4cc9d8400f0b3a9e655a64b11d111863f3/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:35.310  &gt;&gt;&gt;  3413  Game ID = 65835  Game Provider Name = 1X2Gaming   Game Name =  Battle Maidens  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/14990a3b407fafad0b2f8323ffd477005375debd/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:35.357  &gt;&gt;&gt;  3415  Game ID = 66387  Game Provider Name = 1X2Gaming   Game Name =  Battle Maidens Cleopatra (No Buy Feature)  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/2026c6cb7f32ecd7cc48f0f997e5d5113bd97362/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:37.226  &gt;&gt;&gt;  3459  Game ID = 67860  Game Provider Name = KAGaming   Game Name =  Big Apple  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/8ce58c6fb1257049837868ce75e97d2b3d5be3f7/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:38.098  &gt;&gt;&gt;  3478  Game ID = 67427  Game Provider Name = Spadegaming   Game Name =  Big Prosperity SA  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/69c91eb2afc6994999e97a1e9f034546ece920c4/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:39.323  &gt;&gt;&gt;  3506  Game ID = 67861  Game Provider Name = KAGaming   Game Name =  Black Rider  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/3466f0b6c2ac151eb4ad184cee07c1a8e3a3885b/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:39.390  &gt;&gt;&gt;  3508  Game ID = 68756  Game Provider Name = ELKStudios   Game Name =  Black River Gold  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/00106d0ae65ddeb0b18cae86eea2e0ce23eb6f67/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:39.449  &gt;&gt;&gt;  3511  Game ID = 65736  Game Provider Name = 1X2Gaming   Game Name =  Blackbeard's Compass  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/64a0a12190272097d4f50ca51347cf4c1a86fc14/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:39.677  &gt;&gt;&gt;  3515  Game ID = 69564  Game Provider Name = 1X2Gaming   Game Name =  Blackjack  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/662c6661d2101e0aefff639a757a93b52dbe34f3/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:39.794  &gt;&gt;&gt;  3516  Game ID = 69565  Game Provider Name = 1X2Gaming   Game Name =  Blackjack Bonus  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/fa32a6368cae53c26840169486265978dd69ca51/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:40.167  &gt;&gt;&gt;  3523  Game ID = 69371  Game Provider Name = Corps   Game Name =  Blackjack Multihand VIP  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/400f54d274a002ba5b23706b9bc9cca7909800dd/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:40.291  &gt;&gt;&gt;  3526  Game ID = 69373  Game Provider Name = Corps   Game Name =  Blackjack Singlehand VIP  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/61e658a923f0df51a5abecedf376c5b6003d8207/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:40.447  &gt;&gt;&gt;  3528  Game ID = 65719  Game Provider Name = 1X2Gaming   Game Name =  Blazing 777  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/3e979c97271d02f8380ca19167feb07eaafaed2b/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:41.122  &gt;&gt;&gt;  3542  Game ID = 67862  Game Provider Name = KAGaming   Game Name =  Blocky Block  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7cd424037e9992b39676c196bf6b344ad1728b77/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:41.140  &gt;&gt;&gt;  3543  Game ID = 67863  Game Provider Name = KAGaming   Game Name =  Blocky Block 2  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/a36332e3a1042bcdde713c446a8068db67c3d440/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:41.181  &gt;&gt;&gt;  3544  Game ID = 65098  Game Provider Name = 1X2Gaming   Game Name =  Blood Bank  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/ea9662171d3aa729fc12e93d909943bf17cc1eaf/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:41.272  &gt;&gt;&gt;  3548  Game ID = 68753  Game Provider Name = ELKStudios   Game Name =  Blood Lust  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/316934f01399ed0cf510485b66c88a9ffe329694/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:41.417  &gt;&gt;&gt;  3550  Game ID = 69579  Game Provider Name = 1X2Gaming   Game Name =  Blood Rage   cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/9e3739058eac4e814ef3d1a09f6fa27e10226d48/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:41.861  &gt;&gt;&gt;  3560  Game ID = 67864  Game Provider Name = KAGaming   Game Name =  Bollywood Romance  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/abf4e5af3977fcb3ff69376ee160bf0d6c17047f/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:41.928  &gt;&gt;&gt;  3563  Game ID = 67865  Game Provider Name = KAGaming   Game Name =  Bombing Fruit  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/87fb6e282f081ef70c6328a6509f4b088ac8636d/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:42.233  &gt;&gt;&gt;  3568  Game ID = 68907  Game Provider Name = Gamzix   Game Name =  Bonanza Donut  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b5ec698087b704443062e3282b508cfea4403590/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:42.245  &gt;&gt;&gt;  3569  Game ID = 68919  Game Provider Name = Gamzix   Game Name =  Bonanza Donut Xmas  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/a49d9ad370aa37787a2946f7121c5b7326670ab5/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:42.731  &gt;&gt;&gt;  3576  Game ID = 67866  Game Provider Name = KAGaming   Game Name =  Bonus Mania  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/a20cd2d5abe6a4a150e54aa6ce27e43d941f7cb3/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:42.741  &gt;&gt;&gt;  3577  Game ID = 67867  Game Provider Name = KAGaming   Game Name =  Bonus Mania Deluxe  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/71a1f991ee492ad3b573c3748b4cc22b6ab30d7e/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:43.649  &gt;&gt;&gt;  3596  Game ID = 68481  Game Provider Name = Gamzix   Game Name =  Book of Cairo  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/c00a41b2ede6bac8a62f2656b36a3b23c01d5874/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:44.300  &gt;&gt;&gt;  3603  Game ID = 78730  Game Provider Name = PariPlay   Game Name =  Book of Eternal Romance  cod = 404   src = https://agstatic.com/games/pariplay/book_of_eternal_romance.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:45.357  &gt;&gt;&gt;  3618  Game ID = 66093  Game Provider Name = 1X2Gaming   Game Name =  Book Of Loki  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/8566099ba0666781268f860d2586372b020cbf5c/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:45.694  &gt;&gt;&gt;  3621  Game ID = 65856  Game Provider Name = 1X2Gaming   Game Name =  Book Of Merlin  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/c4f23e65272d3a1384a406c427b06d057b90cb17/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:45.818  &gt;&gt;&gt;  3623  Game ID = 67428  Game Provider Name = Spadegaming   Game Name =  Book of Myth  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/61303c42fae8f310038b07c9be72c87e1d58a711/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:46.766  &gt;&gt;&gt;  3637  Game ID = 67868  Game Provider Name = KAGaming   Game Name =  Book of Mummy  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/57c52c31164a8da727604aab0d1471b15fad34a9/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:46.779  &gt;&gt;&gt;  3638  Game ID = 68940  Game Provider Name = ELKStudios   Game Name =  Book of Sam  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/ffb6efdeb82cb30ca221bd2a3d3c92eefafc2379/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:47.045  &gt;&gt;&gt;  3643  Game ID = 67189  Game Provider Name = Gamzix   Game Name =  Book Of Symbols  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/c385a56f8fd5f07a7d19fa8c383fb5b638c52373/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:47.789  &gt;&gt;&gt;  3657  Game ID = 69580  Game Provider Name = 1X2Gaming   Game Name =  Boom Time  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/baafd9ba7474231e117875ecfb7e3387e3763eaf/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:48.462  &gt;&gt;&gt;  3665  Game ID = 67869  Game Provider Name = KAGaming   Game Name =  Boxing Roo  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/3cc312a2b0a697db6abe711408a900d7037e5a6b/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:48.487  &gt;&gt;&gt;  3666  Game ID = 67870  Game Provider Name = KAGaming   Game Name =  Boy Toys  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/756fb3886aa862a07e1083bd9a5b398105cca451/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:50.266  &gt;&gt;&gt;  3686  Game ID = 67430  Game Provider Name = Spadegaming   Game Name =  Brothers Kingdom  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/8f3e8cc71821aa759037cf782f4f51f9d3037f9d/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:50.407  &gt;&gt;&gt;  3687  Game ID = 67871  Game Provider Name = KAGaming   Game Name =  Bubble Double  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/6ac52745d7885f93de5537e06cc26ca28ef44f54/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:51.515  &gt;&gt;&gt;  3700  Game ID = 68614  Game Provider Name = Gamzix   Game Name =  Buffalo Coin Hold The Spin  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/aea7d624f178ce5b4b62af578cc1493f870624f0/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:51.614  &gt;&gt;&gt;  3701  Game ID = 68928  Game Provider Name = Gamzix   Game Name =  Buffalo Ice: Hold The Spin  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/4ea25c0ea245255ae6087838009cbdafd55c75ad/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:51.857  &gt;&gt;&gt;  3704  Game ID = 68867  Game Provider Name = ELKStudios   Game Name =  Buffalo Toro  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/2afef40a38d746e0674e69326faeef7acefd58fb/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:52.236  &gt;&gt;&gt;  3708  Game ID = 67872  Game Provider Name = KAGaming   Game Name =  Bull Stampede  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/dc0c0623d07264e7480a14c316cace2462b73741/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:52.505  &gt;&gt;&gt;  3709  Game ID = 67873  Game Provider Name = KAGaming   Game Name =  Bumble Bee  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f12173aff21f211a9274edad12ba7933f652b648/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:52.591  &gt;&gt;&gt;  3711  Game ID = 66549  Game Provider Name = 1X2Gaming   Game Name =  Bun In The Oven  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f05a8770498d3bafb03a85878dc0c157ef5de3f3/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:53.516  &gt;&gt;&gt;  3724  Game ID = 67191  Game Provider Name = Gamzix   Game Name =  Burning Power  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/fd6a0e46d09b3d4d11a058af5e1ca339174185f6/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:54.638  &gt;&gt;&gt;  3744  Game ID = 67874  Game Provider Name = KAGaming   Game Name =  Butterfly Lovers  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/e01365e9271f9a9a2b89e8f6d512c335e63c0905/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:55.003  &gt;&gt;&gt;  3748  Game ID = 67432  Game Provider Name = Spadegaming   Game Name =  Cai Shen 888  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b2c73937adcadb0473855e19fb81cf02bd80c5e2/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:55.102  &gt;&gt;&gt;  3750  Game ID = 67875  Game Provider Name = KAGaming   Game Name =  Cai Shen Dao  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/44f67518d5d3d3dd15f27b42e5593e68ee69c9f6/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:55.303  &gt;&gt;&gt;  3752  Game ID = 67433  Game Provider Name = Spadegaming   Game Name =  Cai Yuan Guang Jin  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/2e665f3acaa5f2076caeae1ac216372221eac0ad/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:55.387  &gt;&gt;&gt;  3754  Game ID = 67876  Game Provider Name = KAGaming   Game Name =  Cai Yuan Guang Jin  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/23ae7a8ada78a104247ba65b1531cc5a5d8ac0c0/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:55.659  &gt;&gt;&gt;  3760  Game ID = 67877  Game Provider Name = KAGaming   Game Name =  California Gold Rush  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/bcf34817a91f253dfd589d6db6541918d80b32a9/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:55.728  &gt;&gt;&gt;  3761  Game ID = 67878  Game Provider Name = KAGaming   Game Name =  Can Can  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/987c3113cfb29f0403cb744045c4ce338d382bd4/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:55.931  &gt;&gt;&gt;  3764  Game ID = 65122  Game Provider Name = 1X2Gaming   Game Name =  Candy Cash  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/96af2c7554fdad772bb0963a96225096d005706e/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:56.076  &gt;&gt;&gt;  3767  Game ID = 67879  Game Provider Name = KAGaming   Game Name =  Candy Mania  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b12499770f8cb421c66611a261475641fb1b643d/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:56.392  &gt;&gt;&gt;  3770  Game ID = 67435  Game Provider Name = Spadegaming   Game Name =  Candy Pop  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f1bc85efc6a06d24ae655ce242b33d032d51a34e/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:56.421  &gt;&gt;&gt;  3772  Game ID = 67880  Game Provider Name = KAGaming   Game Name =  Candy Storm  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/d2e5d0437362f44024f724d106f0d5b6249cb516/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:56.774  &gt;&gt;&gt;  3778  Game ID = 67881  Game Provider Name = KAGaming   Game Name =  Captain Pirate  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/3f3374024d245cf1d8c956ce5df64c1e68182595/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:47:59.561  &gt;&gt;&gt;  3818  Game ID = 67434  Game Provider Name = Spadegaming   Game Name =  Candy Candy  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/bcf225f7dc581566ac72977321058990c117ae82/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:00.054  &gt;&gt;&gt;  3822  Game ID = 68731  Game Provider Name = Orbital   Game Name =  Casino Hold’Em  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/14152af7a84cb0b280e83862e5df16414bc66dd5/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:01.364  &gt;&gt;&gt;  3836  Game ID = 67882  Game Provider Name = KAGaming   Game Name =  Catch The Thief  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/511fe07aa945985678aaa51083582c2f3f1234b6/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:02.418  &gt;&gt;&gt;  3859  Game ID = 67884  Game Provider Name = KAGaming   Game Name =  Charming Sorceress  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/cd867b652d11a83d42dc6b29069b96e19b1f3893/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:02.526  &gt;&gt;&gt;  3862  Game ID = 67883  Game Provider Name = KAGaming   Game Name =  Charlotte's Web  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f5ac6c33e0a9222770cc517fe91514e92a6b8c47/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:02.928  &gt;&gt;&gt;  3869  Game ID = 66018  Game Provider Name = ELKStudios   Game Name =  Chi  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/4b6f9804784e184fded49593a091a191fa4b0e9e/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:02.986  &gt;&gt;&gt;  3871  Game ID = 67885  Game Provider Name = KAGaming   Game Name =  Chi You  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/8022fcfd5307f21f0ec523a587a2c5d9d5ce37bc/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:03.619  &gt;&gt;&gt;  3883  Game ID = 67886  Game Provider Name = KAGaming   Game Name =  Chinese Ancient Tomb  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/4e0fca98738280ee3499531979395c275b383751/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:03.752  &gt;&gt;&gt;  3886  Game ID = 67887  Game Provider Name = KAGaming   Game Name =  Chinese Opera  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/73d05c494e921df0434d9b98154725db5ca7ba23/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:03.866  &gt;&gt;&gt;  3890  Game ID = 67888  Game Provider Name = KAGaming   Game Name =  Chinese Valentines Day  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/cca4a18da73ae838a5aa5fbd8a195bc43975f8f0/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:04.169  &gt;&gt;&gt;  3896  Game ID = 67889  Game Provider Name = KAGaming   Game Name =  Christmas Candy  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/5a03d9c80786eda950071765f1fe72b7d05128a8/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:04.703  &gt;&gt;&gt;  3908  Game ID = 65136  Game Provider Name = Mr.Slotty   Game Name =  Classic 7 Fruits  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/5d47fbcd3c0a437ed22a1cf456c534010249f3d1/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:05.128  &gt;&gt;&gt;  3916  Game ID = 65135  Game Provider Name = 1X2Gaming   Game Name =  Classic Fruit  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/52490ce21fa66e8f2c5406b0c4e483b4ffaf1fee/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:05.201  &gt;&gt;&gt;  3918  Game ID = 66431  Game Provider Name = 1X2Gaming   Game Name =  Classic Fruits  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/2d1f9944562e91118e114a5eb2342dd1c5dba25b/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:05.363  &gt;&gt;&gt;  3924  Game ID = 65139  Game Provider Name = Mr.Slotty   Game Name =  Cleopatra 18+  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/c149da32dd04e3f1e234ad87224ce1ee2df5ec7f/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:05.752  &gt;&gt;&gt;  3933  Game ID = 68847  Game Provider Name = ELKStudios   Game Name =  Coba  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/09d2db7f2830943a7c9d9465630ec30162885b62/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:05.888  &gt;&gt;&gt;  3937  Game ID = 67890  Game Provider Name = KAGaming   Game Name =  Cocorico  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/875b168ad8571d19bbe5390dba050f64e4736f72/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:06.109  &gt;&gt;&gt;  3939  Game ID = 69572  Game Provider Name = 1X2Gaming   Game Name =  Coin Field  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/599d41df11738f95c2d678c888742c05d5c99252/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:06.176  &gt;&gt;&gt;  3940  Game ID = 69547  Game Provider Name = Corps   Game Name =  Coin Miner 2  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/2246952ad131520e301c9f57977423106c4601f7/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:06.176  &gt;&gt;&gt;  3941  Game ID = 66771  Game Provider Name = Corps   Game Name =  Coin Miner  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/94ffe4cf0619a4f69184a37bb2629dbbc0d376e2/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:06.238  &gt;&gt;&gt;  3944  Game ID = 69573  Game Provider Name = 1X2Gaming   Game Name =  Coin Vault  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/6485d40f8894e08245068e08f3d30ab8eac0fab1/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:06.554  &gt;&gt;&gt;  3953  Game ID = 67891  Game Provider Name = KAGaming   Game Name =  Come On Rhythm  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/46ffab36e4068c5fdb69f950aed5e6729e0b2e63/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:07.157  &gt;&gt;&gt;  3968  Game ID = 67892  Game Provider Name = KAGaming   Game Name =  Cowboys  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/da9780322dfca10227d5159a227bebcdfe36716f/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:07.201  &gt;&gt;&gt;  3969  Game ID = 69577  Game Provider Name = 1X2Gaming   Game Name =  Crashout Fireworks  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/1cb8c178b60c8b4b200684ebbb5b1ebbc788fbce/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:07.436  &gt;&gt;&gt;  3974  Game ID = 67437  Game Provider Name = Spadegaming   Game Name =  Crazy Bomber  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/511e9a63e901ce6057c3079ae4b38eb1d6861c48/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:07.487  &gt;&gt;&gt;  3975  Game ID = 67893  Game Provider Name = KAGaming   Game Name =  Crazy Circus  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/07e77b3786eb1f6d02d5c4387129c1fdea18e3e7/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:07.724  &gt;&gt;&gt;  3981  Game ID = 65148  Game Provider Name = Mr.Slotty   Game Name =  Crazy Halloween  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/aee40e86413ec394d9fe516c95f2db1f4d47d5b2/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:08.312  &gt;&gt;&gt;  3994  Game ID = 68824  Game Provider Name = ELKStudios   Game Name =  Crusader  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/62b59d3cae6631ddb5c72aeabea30fb84c0581db/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:08.337  &gt;&gt;&gt;  3995  Game ID = 65151  Game Provider Name = Mr.Slotty   Game Name =  Crypto Matrix  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/fcc29c97f1f777ca51d2d4a5fcdc209e47a79a0c/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:08.854  &gt;&gt;&gt;  4009  Game ID = 67894  Game Provider Name = KAGaming   Game Name =  Cu Ju  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/d28a57e607c3075bc7e50ccbb549cdd99c51ec19/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:09.050  &gt;&gt;&gt;  4014  Game ID = 67895  Game Provider Name = KAGaming   Game Name =  Cupid And Psyche  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/12f6bc33e0c76f92f660c6f22a33a08778e3f410/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:09.303  &gt;&gt;&gt;  4020  Game ID = 68976  Game Provider Name = Orbital   Game Name =  Cyberdice  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/d23472382844c124ea62a4ba2dc0c360197af741/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:09.514  &gt;&gt;&gt;  4023  Game ID = 68857  Game Provider Name = ELKStudios   Game Name =  Cygnus 2  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/a7c64dfa155532631fa564e487f7d9eb7c190e73/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:09.659  &gt;&gt;&gt;  4025  Game ID = 67896  Game Provider Name = KAGaming   Game Name =  Da Guan Yuan  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/23518e66d5dc2d3abc612db4cf8f3ab9657db58b/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:09.880  &gt;&gt;&gt;  4026  Game ID = 67898  Game Provider Name = KAGaming   Game Name =  Daji  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/66f739d8a7f807d77df846545fc29cce343e6986/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:10.013  &gt;&gt;&gt;  4027  Game ID = 67441  Game Provider Name = Spadegaming   Game Name =  Dancing Fever  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/ba771c72aac5d07d034db8c43b56b4b027fc37dc/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:10.579  &gt;&gt;&gt;  4034  Game ID = 67439  Game Provider Name = Spadegaming   Game Name =  Da Fu Xiao Fu  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/630edab01ae2ec4926ebaf86b1a5f8def1f52bb5/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:10.722  &gt;&gt;&gt;  4036  Game ID = 67899  Game Provider Name = KAGaming   Game Name =  Dark Fortress  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/8d89dabf38d20388ff1e68c3143f0fded7f3de3a/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:10.879  &gt;&gt;&gt;  4038  Game ID = 69417  Game Provider Name = NetEnt   Game Name =  Dark King: Forbidden Riches  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/fa383cb70f015cbd306935d58b4051b33da28a51/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:11.068  &gt;&gt;&gt;  4040  Game ID = 65158  Game Provider Name = 1X2Gaming   Game Name =  Dark Thirst  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/c46ea674fb35568d43a33baaa834d9a663dd8625/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:11.248  &gt;&gt;&gt;  4043  Game ID = 65159  Game Provider Name = 1X2Gaming   Game Name =  Darts 180  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/4bd2085d24cf9b57f47133b4121563949d536bb5/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:11.779  &gt;&gt;&gt;  4055  Game ID = 69039  Game Provider Name = ELKStudios   Game Name =  Dead Man's Gold  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/92c8a1c020e5012e408772578f2ca3c2b20d6128/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:12.127  &gt;&gt;&gt;  4057  Game ID = 65160  Game Provider Name = 1X2Gaming   Game Name =  Deadworld  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/53c30f0f45b71deadc28981ae8fad1ed91e5e961/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:12.657  &gt;&gt;&gt;  4062  Game ID = 67900  Game Provider Name = KAGaming   Game Name =  Deep Sea Adventure  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/22c0c523625270615d3afb3440f8a9aa618a5969/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:24.836  &gt;&gt;&gt;  4074  Game ID = 67897  Game Provider Name = KAGaming   Game Name =  Da Vinci  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f4cfe9f3cb949b34f0fa6793f36ab6d8dd47048c/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:24.908  &gt;&gt;&gt;  4075  Game ID = 67440  Game Provider Name = Spadegaming   Game Name =  Daddys Vacation  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/909dca8bb7a528de95d9844de73140104707caee/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:25.285  &gt;&gt;&gt;  4078  Game ID = 67901  Game Provider Name = KAGaming   Game Name =  Dia De Muertos  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/ad3fd0842b587d5669c6c87be8bf6074ee4f98a4/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:27.285  &gt;&gt;&gt;  4093  Game ID = 67902  Game Provider Name = KAGaming   Game Name =  Diamond Power  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/e15e07505f6e4ec8a4875b76bf08827eca22f781/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:28.379  &gt;&gt;&gt;  4108  Game ID = 68933  Game Provider Name = Gamzix   Game Name =  Dice: Hold The Spin  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/e580eb31e9b4007f65e9de88e1951ed0c9fef37a/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:28.696  &gt;&gt;&gt;  4113  Game ID = 67903  Game Provider Name = KAGaming   Game Name =  Dim Sum  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/1df332e24467d9d87ca9bd92b2c4724d13ddc24f/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:28.958  &gt;&gt;&gt;  4117  Game ID = 66792  Game Provider Name = 1X2Gaming   Game Name =  Disco 777  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/5ef470b39792a23b524e150fd2d27bfc4788e15a/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:29.623  &gt;&gt;&gt;  4131  Game ID = 68938  Game Provider Name = Gamzix   Game Name =  Dogs and Tails  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/6a86c249d2008a7b52e4e48f57d74b27a4e302f1/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:30.053  &gt;&gt;&gt;  4140  Game ID = 65169  Game Provider Name = Mr.Slotty   Game Name =  Dolphins Gold  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b39a6422c711ea3a2ba92713b3d864aca6737a89/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:30.371  &gt;&gt;&gt;  4146  Game ID = 67904  Game Provider Name = KAGaming   Game Name =  Don Quixote  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/30e3c52ced9f3114275435dabff57000bd6dbfde/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:30.778  &gt;&gt;&gt;  4153  Game ID = 67445  Game Provider Name = Spadegaming   Game Name =  Double Flame  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/2af2c452c5169396d00021e4d112662a7103e219/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:30.845  &gt;&gt;&gt;  4155  Game ID = 67905  Game Provider Name = KAGaming   Game Name =  Double Fortune  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/3f2e50bc2e506249131ceae98dbc449e63290514/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:30.964  &gt;&gt;&gt;  4160  Game ID = 67446  Game Provider Name = Spadegaming   Game Name =  Double Fortunes  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/484b5915758c30d79676d16997069556293001ad/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:31.351  &gt;&gt;&gt;  4167  Game ID = 65173  Game Provider Name = 1X2Gaming   Game Name =  Downtown  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/a5809e8506ac5d8f6191cf671e97f9c1fcab2bca/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:31.546  &gt;&gt;&gt;  4173  Game ID = 67906  Game Provider Name = KAGaming   Game Name =  Dr. Geek  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/de60667a60efd040f7572836c6d5c4fc5eae54be/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:31.699  &gt;&gt;&gt;  4175  Game ID = 67907  Game Provider Name = KAGaming   Game Name =  Dracula  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/54e02e28c5142e33965c3c3cba942f89550a094c/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:31.836  &gt;&gt;&gt;  4178  Game ID = 65739  Game Provider Name = Mr.Slotty   Game Name =  Dracula's Gems  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/0ede1fa351c8250b02469986e2ebacd5fdb1b14f/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:31.904  &gt;&gt;&gt;  4181  Game ID = 67908  Game Provider Name = KAGaming   Game Name =  Dragon Ball  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/0aa177bf0da735ab0bacdadd03e6cb128842b140/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:32.151  &gt;&gt;&gt;  4185  Game ID = 67909  Game Provider Name = KAGaming   Game Name =  Dragon Boat  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/d7678795f5c7bbc242dbf74d49fe35fcaeb36d94/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:32.450  &gt;&gt;&gt;  4191  Game ID = 67910  Game Provider Name = KAGaming   Game Name =  Dragon Gate  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7785fe05cd23a025ae98b76d17e0fb1b6becc196/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:32.506  &gt;&gt;&gt;  4192  Game ID = 67448  Game Provider Name = Spadegaming   Game Name =  Dragon Gold SA  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/8b44e8b19b32ef4315eb285ce7945c82a8b8a28c/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:34.123  &gt;&gt;&gt;  4227  Game ID = 67193  Game Provider Name = Gamzix   Game Name =  Dragons Secret  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/4396d3857bd89a0bfc3e4ed92eaef9affb26b5f1/Games%20Catalog%20image/image.jpeg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:34.343  &gt;&gt;&gt;  4233  Game ID = 67911  Game Provider Name = KAGaming   Game Name =  Dragon's Way  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/eba53fb2291fe8f4c02c63dd48184063dd314c34/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:34.718  &gt;&gt;&gt;  4243  Game ID = 67912  Game Provider Name = KAGaming   Game Name =  Dreamcatcher  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/6df52597741e7b2c9d2325ec2535cb09c956ffce/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:35.379  &gt;&gt;&gt;  4262  Game ID = 67913  Game Provider Name = KAGaming   Game Name =  Earth God  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/d01cd7a86986820c615d08ccaacca455625768fa/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:36.221  &gt;&gt;&gt;  4280  Game ID = 67914  Game Provider Name = KAGaming   Game Name =  Egyptian Empress  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/9c549518a47551cc1bd6a9042c88265ac69c333c/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:36.308  &gt;&gt;&gt;  4282  Game ID = 67915  Game Provider Name = KAGaming   Game Name =  Egyptian Mythology  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7d0c06bb7d847c5b800749d0aba510f80d35b0f9/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:36.585  &gt;&gt;&gt;  4288  Game ID = 67916  Game Provider Name = KAGaming   Game Name =  Eight Treasures  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/26d7c4ced643df33c381f94bb6cc0648425995c9/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:36.759  &gt;&gt;&gt;  4290  Game ID = 65182  Game Provider Name = Mr.Slotty   Game Name =  Electric 7 Fruits  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/49a6b95bd8746b2dbdacf1356747745333f033d1/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:36.976  &gt;&gt;&gt;  4297  Game ID = 66024  Game Provider Name = ELKStudios   Game Name =  Electric Sam  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/d2036bcd696d6a296a2c083deac825d00a7e4586/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:37.338  &gt;&gt;&gt;  4303  Game ID = 69431  Game Provider Name = NetEnt   Game Name =  Elements: The Awakening  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/784071cfa856c2090af7b56613d565f3a8f882cc/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:37.747  &gt;&gt;&gt;  4313  Game ID = 67917  Game Provider Name = KAGaming   Game Name =  Emoji  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/665fab072acc15fbbbad1b7b07be85af2240d895/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:37.849  &gt;&gt;&gt;  4316  Game ID = 65184  Game Provider Name = Mr.Slotty   Game Name =  Emoji Slot  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/9e93ffccdcce05e5693196c4b84fa67b014ec6b2/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:37.904  &gt;&gt;&gt;  4317  Game ID = 67450  Game Provider Name = Spadegaming   Game Name =  Emperor Gate SA  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/640a93da2ae8e842034edb440250cbf326310695/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:38.081  &gt;&gt;&gt;  4320  Game ID = 67918  Game Provider Name = KAGaming   Game Name =  Emperor Qin  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/3f3272949afe27ac9be1a67bfca49f2a9ae49381/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:38.188  &gt;&gt;&gt;  4322  Game ID = 67919  Game Provider Name = KAGaming   Game Name =  Enchanted  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/da95319a09c84f58e9db852240b93fdecfbd808f/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:38.270  &gt;&gt;&gt;  4323  Game ID = 65187  Game Provider Name = Mr.Slotty   Game Name =  Enchanted 7s  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/bfb7d3d843bad9d7ae0b6f5ce05e1df73c59dd50/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:38.788  &gt;&gt;&gt;  4333  Game ID = 65735  Game Provider Name = 1X2Gaming   Game Name =  Era Of Gods  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/50120cf0fcf7e22915f487ee54ec52aae831b4e5/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:38.824  &gt;&gt;&gt;  4335  Game ID = 67920  Game Provider Name = KAGaming   Game Name =  Erlang Shen  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/612a6275aa1910e348b3a214d6a45fd37c1cdca1/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:39.403  &gt;&gt;&gt;  4348  Game ID = 69566  Game Provider Name = 1X2Gaming   Game Name =  European Roulette  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/4bbd37bb6496c8ad0c258d63c77292e80205c4a6/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:40.812  &gt;&gt;&gt;  4383  Game ID = 67921  Game Provider Name = KAGaming   Game Name =  Fa Cai Destiny  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/929769b90e12a7dab0299efc75b4c77263cd6ea8/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:41.047  &gt;&gt;&gt;  4386  Game ID = 65620  Game Provider Name = 1X2Gaming   Game Name =  Faerie Nights  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/4e8e57f400526e41bd3285509b77badd7d894f4a/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:41.103  &gt;&gt;&gt;  4387  Game ID = 67454  Game Provider Name = Spadegaming   Game Name =  FaFaFa  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/2b2fc491e2173142f47148f71f99a7cf4f2424a8/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:41.167  &gt;&gt;&gt;  4389  Game ID = 67455  Game Provider Name = Spadegaming   Game Name =  FaFaFa2  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/799d8df7551bf19c6a767472e3050f56fb142d2c/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:41.253  &gt;&gt;&gt;  4390  Game ID = 67922  Game Provider Name = KAGaming   Game Name =  Fairy Dust  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/68ce04a53b37fafc81391ba10410e8063467ecd9/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:41.395  &gt;&gt;&gt;  4393  Game ID = 67923  Game Provider Name = KAGaming   Game Name =  Fairy Forest Tale  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/6f16d8682811e833b2c33d72a7de404e4d943d0f/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:41.603  &gt;&gt;&gt;  4396  Game ID = 69433  Game Provider Name = NetEnt   Game Name =  Fairytale Legends: Hansel and Gretel  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/3f88d8c18e8e2bf92b097e64bf0cf78964a37865/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:41.654  &gt;&gt;&gt;  4397  Game ID = 69434  Game Provider Name = NetEnt   Game Name =  Fairytale Legends: Mirror Mirror  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/0acdfbe141af584f89b67b2acf91422bf9f15a5b/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:41.664  &gt;&gt;&gt;  4398  Game ID = 69435  Game Provider Name = NetEnt   Game Name =  Fairytale Legends: Red Riding Hood  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/afc17c7738ab0cb0713dcfcb97ea51a5a7f809ed/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:41.945  &gt;&gt;&gt;  4402  Game ID = 67924  Game Provider Name = KAGaming   Game Name =  Fantasy 777  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/dbcdd3ae171527bd9f58a5408185d9bfb2bcb561/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:42.007  &gt;&gt;&gt;  4404  Game ID = 67925  Game Provider Name = KAGaming   Game Name =  Fantasy Park  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/61566a8ea48ca2037c1dede2bcdc272a0d050fc8/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:42.045  &gt;&gt;&gt;  4405  Game ID = 67926  Game Provider Name = KAGaming   Game Name =  Farm Mania  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/6ed455ee519cbcd2ce32e8f143390af718ff78f7/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:42.097  &gt;&gt;&gt;  4407  Game ID = 67927  Game Provider Name = KAGaming   Game Name =  Fast Blast  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/871b0164ef25ed48d83c88aa40b8d9e8d320a433/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:42.339  &gt;&gt;&gt;  4412  Game ID = 67928  Game Provider Name = KAGaming   Game Name =  Fastbreak  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/6d765111b8fef7ebe2b4bea5e867d63f6709565b/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:42.750  &gt;&gt;&gt;  4421  Game ID = 67457  Game Provider Name = Spadegaming   Game Name =  Festive Lion  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/03f3e278cc061f56e0c63378f20d9d2cd138da6e/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:42.762  &gt;&gt;&gt;  4422  Game ID = 66540  Game Provider Name = 1X2Gaming   Game Name =  Fields Of Clover  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/90ab190f27888f95839ffc25e02163e915a90a33/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:42.792  &gt;&gt;&gt;  4424  Game ID = 67458  Game Provider Name = Spadegaming   Game Name =  Fiery Sevens  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/ec1eaf45294be178d3afcba4d2e7cabb578a37d3/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:43.835  &gt;&gt;&gt;  4446  Game ID = 67929  Game Provider Name = KAGaming   Game Name =  Fire Dragons  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/02b4e6dc48ae217c1ce354758e5e20f1e87beed8/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:43.926  &gt;&gt;&gt;  4447  Game ID = 67930  Game Provider Name = KAGaming   Game Name =  Fire Hit  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/6be09fc1c94c58ae314f3de176ce6aab484f7a42/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:44.357  &gt;&gt;&gt;  4456  Game ID = 65196  Game Provider Name = 1X2Gaming   Game Name =  FireFly Keno  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/6c341529dfa8888fc5e3a83d78f472fd73ccb745/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:44.478  &gt;&gt;&gt;  4458  Game ID = 67461  Game Provider Name = Spadegaming   Game Name =  First Love  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/4250035e35eddab0da1d4b0f2e51da6a9e97e61b/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:45.105  &gt;&gt;&gt;  4471  Game ID = 67931  Game Provider Name = KAGaming   Game Name =  Fishing Expedition  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/60ad407cdb24cee828e44d560f500ee7a4bd101a/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:45.259  &gt;&gt;&gt;  4472  Game ID = 67462  Game Provider Name = Spadegaming   Game Name =  Fishing god  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/3b3c3db4d9a908043ea2224409e197cd1ce543b0/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:45.313  &gt;&gt;&gt;  4473  Game ID = 67463  Game Provider Name = Spadegaming   Game Name =  Fishing war  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/489979978b33920b48915b949c5d22c563022663/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:45.367  &gt;&gt;&gt;  4475  Game ID = 67464  Game Provider Name = Spadegaming   Game Name =  Fist of Gold  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/0fa363bf16b375c37d493eae7e29dc13825d6608/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:45.460  &gt;&gt;&gt;  4477  Game ID = 67932  Game Provider Name = KAGaming   Game Name =  Flaming 7's  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/a583bb6e95bd44f949129aaa663b26a7e0b804d2/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:46.047  &gt;&gt;&gt;  4490  Game ID = 67933  Game Provider Name = KAGaming   Game Name =  Flower Goddess Festival  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/691643756c1136b553947f3295e975dd79c2bc9e/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:46.101  &gt;&gt;&gt;  4493  Game ID = 67934  Game Provider Name = KAGaming   Game Name =  Fluffy Buddy  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b14b9dd5b65645a0f5fd2042664ed744e7639d0c/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:46.692  &gt;&gt;&gt;  4504  Game ID = 65199  Game Provider Name = 1X2Gaming   Game Name =  Football 3X3  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/880173335ba47e5ea8f512264045ecee4576313c/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:47.334  &gt;&gt;&gt;  4518  Game ID = 67935  Game Provider Name = KAGaming   Game Name =  Force of Dragon  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/bde38d2936235e229c7742f8c715de0b481657d3/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:47.739  &gt;&gt;&gt;  4527  Game ID = 67936  Game Provider Name = KAGaming   Game Name =  Formosan Birds  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/09044962bf23230e48cec94ed6590ab22ab1b64d/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:47.854  &gt;&gt;&gt;  4528  Game ID = 67937  Game Provider Name = KAGaming   Game Name =  Fortune Beauty Megaways  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/225a23163ac73b1fd584189d7f6cf30fd4921de9/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:48.082  &gt;&gt;&gt;  4533  Game ID = 67938  Game Provider Name = KAGaming   Game Name =  Fortune Fu  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/dbcfcc693385ec2459401422cf93e64487405d01/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:48.216  &gt;&gt;&gt;  4535  Game ID = 67939  Game Provider Name = KAGaming   Game Name =  Fortune Ganesha  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/175fcc7d467195041d1505556457b7d4b4520c89/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:48.321  &gt;&gt;&gt;  4538  Game ID = 67940  Game Provider Name = KAGaming   Game Name =  Fortune God  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/4879282bc355952b0822912e0ef40ed90bd2e6d0/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:48.437  &gt;&gt;&gt;  4539  Game ID = 67941  Game Provider Name = KAGaming   Game Name =  Fortune Lions  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/3029163009f9f0eecad7027b1597c0f23ef8b3b5/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:48.746  &gt;&gt;&gt;  4547  Game ID = 67942  Game Provider Name = KAGaming   Game Name =  Fortune Piggy Bank  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/218459048b7c7c416534c99a2d6bac61224f8599/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:49.339  &gt;&gt;&gt;  4561  Game ID = 67943  Game Provider Name = KAGaming   Game Name =  Four Beauties  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/39474a13249577bb5e1999de1fefb36a52b0b569/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:49.532  &gt;&gt;&gt;  4565  Game ID = 67944  Game Provider Name = KAGaming   Game Name =  Frankenstein  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/97888cb429be5f82c625b932a2e836b3e7157932/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:49.653  &gt;&gt;&gt;  4570  Game ID = 68889  Game Provider Name = ELKStudios   Game Name =  Freeway 7  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/9d32907aaa71caa762493e76500c745fee1abf70/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:50.567  &gt;&gt;&gt;  4590  Game ID = 65212  Game Provider Name = Mr.Slotty   Game Name =  Fruit Cocktail 7  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b1585384782c9f44f94b7ddf293b778cd25ddeb9/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:51.209  &gt;&gt;&gt;  4601  Game ID = 67945  Game Provider Name = KAGaming   Game Name =  Fruit Mountain  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/85206a1ae9cabe9f4ea7ceb3b70f3cf10a45c8a4/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:51.241  &gt;&gt;&gt;  4603  Game ID = 67946  Game Provider Name = KAGaming   Game Name =  Fruit Party  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/ab29ff8ae06402a66edc5c10d8af936c71f62bb6/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:51.657  &gt;&gt;&gt;  4612  Game ID = 68943  Game Provider Name = Gamzix   Game Name =  Fruit Story  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/5aa343f07f51e81c9d27a944524fe5dbb972cde4/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:51.701  &gt;&gt;&gt;  4614  Game ID = 69061  Game Provider Name = Gamzix   Game Name =  Fruit Story: Hold the Spin  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/5139f7ab7b89f4ec8d2e1aaa9598445dba2dc8c9/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:52.242  &gt;&gt;&gt;  4624  Game ID = 65216  Game Provider Name = Mr.Slotty   Game Name =  Fruits &amp; Diamonds  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/8947cd9259e257e218484bb33aca4e5dd1a69e9e/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:52.600  &gt;&gt;&gt;  4632  Game ID = 65218  Game Provider Name = 1X2Gaming   Game Name =  Fruity 3X3  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b026e9257ca4e67ae1758f95008210a1c0d8a540/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:48:53.141  &gt;&gt;&gt;  4639  Game ID = 67947  Game Provider Name = KAGaming   Game Name =  Fu Lu Shou  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/798f9ce505b8b8fefbf2e71a05264a52773bf1a2/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:49:24.967  &gt;&gt;&gt;  4677  Game ID = 67948  Game Provider Name = KAGaming   Game Name =  Genghis Khan  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/226f5d821496f1453db15d24eb48782812af2f14/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:01.415  &gt;&gt;&gt;  4688  Game ID = 67950  Game Provider Name = KAGaming   Game Name =  Giants  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/8fa8227bdaf1930d2d7aeecfa1a43714f053a0f4/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:02.249  &gt;&gt;&gt;  4689  Game ID = 76201  Game Provider Name = Yggdrasil   Game Name =  Gem Rocks  src = https://agstatic.com/games/yggdrasil/gem_rocks.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:05.753  &gt;&gt;&gt;  4690  Game ID = 67289  Game Provider Name = Gamzix   Game Name =  GG Coin: Hold The Spin  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/5b53b4a75f1194cd2b7a3454489b5af78b2f0eca/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:06.314  &gt;&gt;&gt;  4691  Game ID = 65695  Game Provider Name = Mr.Slotty   Game Name =  Gems Tower  src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/a2cc44ff23f29644eee2acfb26004a7658134eae/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:09.265  &gt;&gt;&gt;  4693  Game ID = 65221  Game Provider Name = 1X2Gaming   Game Name =  Gingerbread Joy  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/c178f2b6604192cfd642c2a7b47ec4b1632e650c/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:09.940  &gt;&gt;&gt;  4698  Game ID = 67951  Game Provider Name = KAGaming   Game Name =  Glacial Epoch  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/1691448685d18730dac280b149bc7e7ff82c8f4b/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:10.429  &gt;&gt;&gt;  4702  Game ID = 65223  Game Provider Name = 1X2Gaming   Game Name =  Gladiator Of Rome  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7c41ef943e3f92bdf15e6050e1ac91047e230479/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:10.851  &gt;&gt;&gt;  4705  Game ID = 67952  Game Provider Name = KAGaming   Game Name =  Glass Slipper  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/08f3873dee1dd0dd7ffe00b0b679080de035eedd/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:11.299  &gt;&gt;&gt;  4709  Game ID = 67953  Game Provider Name = KAGaming   Game Name =  Go Go Monsters  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/746c96df965f42e0f079e199f69eae85ca87f9b2/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:11.536  &gt;&gt;&gt;  4711  Game ID = 67198  Game Provider Name = Gamzix   Game Name =  Go Wild  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/adbef48e3edd0833b2fddaedc76ffd87a7a668bb/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:12.385  &gt;&gt;&gt;  4717  Game ID = 67954  Game Provider Name = KAGaming   Game Name =  God of Love  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/e34ce11cb87bd166b833d7fed6c018dbf1570f38/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:12.771  &gt;&gt;&gt;  4721  Game ID = 67949  Game Provider Name = KAGaming   Game Name =  Ghostbuster  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/acbca2d28b1bf3a0dc6fa9d6715a68822baf5854/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:12.874  &gt;&gt;&gt;  4722  Game ID = 67475  Game Provider Name = Spadegaming   Game Name =  God's Kitchen  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/d4df5eec28f38e29d78f0dcb865ec29050eef745/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:13.083  &gt;&gt;&gt;  4723  Game ID = 65789  Game Provider Name = Mr.Slotty   Game Name =  Gods Of Egypt  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/ce3eb1619c8cc8fca0e06ae004dd5aed1e7aa779/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:13.128  &gt;&gt;&gt;  4724  Game ID = 69447  Game Provider Name = NetEnt   Game Name =  Gods Of Gold: InfiniReels  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/5217a67a406cf70adfb1ea47f1664122f165a9f9/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:13.229  &gt;&gt;&gt;  4725  Game ID = 65225  Game Provider Name = 1X2Gaming   Game Name =  Gods Of Olympus  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/d726abe7f171c46af69bdddcf92a8137457695cc/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:13.578  &gt;&gt;&gt;  4729  Game ID = 68812  Game Provider Name = Gamzix   Game Name =  GOGO Spinner  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/8cab50eb458bdc58418b500559c949f8f5490820/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:14.994  &gt;&gt;&gt;  4746  Game ID = 67955  Game Provider Name = KAGaming   Game Name =  Gold Magic   cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/47ac669b2af29dd85ac5c2b008edef88bc4d3bec/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:15.077  &gt;&gt;&gt;  4748  Game ID = 68232  Game Provider Name = Gamzix   Game Name =  Gold Mania  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/efe095361d0bf7d47449fafdd78cbe00910d8c2c/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:15.425  &gt;&gt;&gt;  4751  Game ID = 65227  Game Provider Name = Mr.Slotty   Game Name =  Gold Miners  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/39daacb1e069f8af1ef7a1a5316407aeeff19128/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:15.552  &gt;&gt;&gt;  4753  Game ID = 67200  Game Provider Name = Gamzix   Game Name =  Gold of Maya  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/ee21e6c326a126394774deba11dd20dfa7aed67a/Games%20Catalog%20image/image.jpeg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:15.785  &gt;&gt;&gt;  4755  Game ID = 67476  Game Provider Name = Spadegaming   Game Name =  Gold Panther  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/930a1b835a011762f4449da0c3dd645ba465a477/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:16.225  &gt;&gt;&gt;  4761  Game ID = 67477  Game Provider Name = Spadegaming   Game Name =  Gold Rush Cowboy  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/cf17d06e0ae231676cb648afbae7fe8f0b298a4b/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:16.905  &gt;&gt;&gt;  4772  Game ID = 65234  Game Provider Name = Mr.Slotty   Game Name =  Golden 7 Fruits  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/cd663b20db9d68082d7fab431b1a9c3059f64d03/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:17.014  &gt;&gt;&gt;  4775  Game ID = 67956  Game Provider Name = KAGaming   Game Name =  Golden Ball  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b5378bbf9218b6d4484909cbd7707d41ae9c6e58/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:17.185  &gt;&gt;&gt;  4777  Game ID = 67957  Game Provider Name = KAGaming   Game Name =  Golden Bull  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/ba613f07b1566d7bad4e1e0602f660243e9e297a/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:17.355  &gt;&gt;&gt;  4779  Game ID = 67478  Game Provider Name = Spadegaming   Game Name =  Golden Chicken  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/407a42a6b2d3aa4720df716549fa588507a930b8/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:17.537  &gt;&gt;&gt;  4781  Game ID = 67958  Game Provider Name = KAGaming   Game Name =  Golden Dragon  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/70625d1d217708053683b7669f5ea043bba0afbf/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:17.895  &gt;&gt;&gt;  4789  Game ID = 67959  Game Provider Name = KAGaming   Game Name =  Golden Fish  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/8350305ca0513c39f2251bb676ffb41c93a8030e/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:18.107  &gt;&gt;&gt;  4790  Game ID = 67479  Game Provider Name = Spadegaming   Game Name =  Golden Fist  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/53e1dbacbc20508cc083f6005d5eb106a051cd98/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:18.875  &gt;&gt;&gt;  4798  Game ID = 65230  Game Provider Name = Mr.Slotty   Game Name =  Golden Joker Dice  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/a3f5bc640b03d7f104108fcde226201773fecf29/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:19.516  &gt;&gt;&gt;  4806  Game ID = 67481  Game Provider Name = Spadegaming   Game Name =  Golden Monkey  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/2c65ff527598d929e6cecf476b63cdadcd791870/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:19.863  &gt;&gt;&gt;  4811  Game ID = 67960  Game Provider Name = KAGaming   Game Name =  Golden Shanghai  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/66725a6b9fb66a92933caf7bdb7441be4ec30e9f/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:24.353  &gt;&gt;&gt;  4822  Game ID = 66954  Game Provider Name = Corps   Game Name =  Golden Chick  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/460292569e21702db305ea8cdc48e565372ab84b/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:27.460  &gt;&gt;&gt;  4825  Game ID = 67482  Game Provider Name = Spadegaming   Game Name =  Golden Whale  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/c68fb508345dd8f578344f5a014ad094636be797/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:28.198  &gt;&gt;&gt;  4829  Game ID = 69450  Game Provider Name = NetEnt   Game Name =  Gordon Ramsay Hell’s Kitchen  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/49d1d59e6e392ce0ac23260a390ab76608d110ec/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:34.364  &gt;&gt;&gt;  4832  Game ID = 67480  Game Provider Name = Spadegaming   Game Name =  Golden Lotus SE  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b811cb76ba8acf2ae4a53cffacc3c9cdda35218a/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:35.859  &gt;&gt;&gt;  4844  Game ID = 67488  Game Provider Name = Spadegaming   Game Name =  Great Stars SA  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/d49570d20bbbcd09e8f6495540d1c725c6ada912/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:36.324  &gt;&gt;&gt;  4850  Game ID = 65750  Game Provider Name = 1X2Gaming   Game Name =  Green Diamond  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/1337f3bf5da2fdb166ad889d65789bd0ad7c6032/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:36.995  &gt;&gt;&gt;  4862  Game ID = 69452  Game Provider Name = NetEnt   Game Name =  Guns N' Roses Video Slots  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/76bab3d5607bbe57451e753313099925e08a27ea/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:37.531  &gt;&gt;&gt;  4875  Game ID = 65240  Game Provider Name = 1X2Gaming   Game Name =  Halloween Horrors  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/0bc526cb5c0cfe5e5e4158cdc2df76d3a12f2051/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:38.110  &gt;&gt;&gt;  4888  Game ID = 68949  Game Provider Name = Gamzix   Game Name =  Happy Rabbit 27 Ways  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/5f962e1c8a58fb127a118e0d2f9a0252d2547087/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:38.441  &gt;&gt;&gt;  4894  Game ID = 67962  Game Provider Name = KAGaming   Game Name =  Hat Seller  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/6f3cbe6ed2c88b8228dc6a160b6544fb94a81df0/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:39.254  &gt;&gt;&gt;  4907  Game ID = 67961  Game Provider Name = KAGaming   Game Name =  Happy Thanksgiving  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/61e4abff6999e4f2da1d1f4d021051c097aa7a8e/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:39.706  &gt;&gt;&gt;  4916  Game ID = 67963  Game Provider Name = KAGaming   Game Name =  Heng and Ha  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/dcc433beb7dfcf2b7a869a964864cf3dad0e1f22/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:40.015  &gt;&gt;&gt;  4919  Game ID = 65674  Game Provider Name = 1X2Gaming   Game Name =  Here Comes Summer  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f540eb37ec5b2685429f28c6b85dfba9eb3a3618/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:40.368  &gt;&gt;&gt;  4923  Game ID = 67491  Game Provider Name = Spadegaming   Game Name =  Heroes  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/8e1ebd1cee88e20bc6aa1f66f05e5189a77d35d3/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:41.302  &gt;&gt;&gt;  4943  Game ID = 67492  Game Provider Name = Spadegaming   Game Name =  Highway Fortune  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/a1855ca487d7de822a194e461c58cf17fc0e7a05/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:41.574  &gt;&gt;&gt;  4948  Game ID = 67153  Game Provider Name = Orbital   Game Name =  Hi-Lo  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/9002b3dc98e859aeb1902e10ce82d39734e8b67c/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:42.209  &gt;&gt;&gt;  4960  Game ID = 66894  Game Provider Name = Corps   Game Name =  Ho Ho HODL  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/5adbcefa7cc03a1cb4677812ec064914febafcbd/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:42.249  &gt;&gt;&gt;  4961  Game ID = 67493  Game Provider Name = Spadegaming   Game Name =  Ho Yeah Monkey  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/dc673adadc9810e7562286b5fafafa4b037eaba0/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:42.977  &gt;&gt;&gt;  4969  Game ID = 67964  Game Provider Name = KAGaming   Game Name =  Holy Beast  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/a5ffe9e47dd41efdd50042afe919379bb4da4659/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:43.223  &gt;&gt;&gt;  4972  Game ID = 67965  Game Provider Name = KAGaming   Game Name =  Honey Money  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/6a68b6cceb6136b8a0b6c88eb46aee64fbaad0d7/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:43.660  &gt;&gt;&gt;  4976  Game ID = 67202  Game Provider Name = Gamzix   Game Name =  Hoonga Boonga  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/4fd7b964ffc60c409528aa6f93370ed9e03d587e/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:44.213  &gt;&gt;&gt;  4978  Game ID = 67966  Game Provider Name = KAGaming   Game Name =  Horoscope  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/1200484a91ae9bd9765ad1ffdb7dc27521a248dd/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:46.084  &gt;&gt;&gt;  5005  Game ID = 65257  Game Provider Name = Mr.Slotty   Game Name =  Hot Honey 22 VIP  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/119ba19ffc2146efb290421b0d44d139de19979f/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:46.084  &gt;&gt;&gt;  5006  Game ID = 65256  Game Provider Name = Mr.Slotty   Game Name =  Hot Honey 22  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/c1d58cd6fa9b13b1239870e047a77173d0521d93/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:46.273  &gt;&gt;&gt;  5009  Game ID = 67203  Game Provider Name = Gamzix   Game Name =  Hot Life  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/c00a9387224c1173528ec3a0659a90a7e358932d/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:46.282  &gt;&gt;&gt;  5010  Game ID = 67204  Game Provider Name = Gamzix   Game Name =  Hot Life Buy Bonus  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/e5895eda1ea0c13fc40dc4947aa64c401d993dfe/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:46.445  &gt;&gt;&gt;  5013  Game ID = 68962  Game Provider Name = Gamzix   Game Name =  Hot Love  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7a018eb16aefa454a19b063a5c1922006dfccdf2/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:46.643  &gt;&gt;&gt;  5017  Game ID = 68233  Game Provider Name = Gamzix   Game Name =  Hot Patrick  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/a4b4982f5a23d1fde94017a69a3a3e5541c3f717/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:46.754  &gt;&gt;&gt;  5019  Game ID = 65239  Game Provider Name = Mr.Slotty   Game Name =  HOT Fruits  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/625625cef134383b1f815eccbf8e195d6d59fe05/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:48.158  &gt;&gt;&gt;  5053  Game ID = 67967  Game Provider Name = KAGaming   Game Name =  Hou Yi  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/157ccbb5d5b17c9e31b53e60e992a286a48a7cf3/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:48.311  &gt;&gt;&gt;  5054  Game ID = 67968  Game Provider Name = KAGaming   Game Name =  Hu Hu Fighting  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/0cdddcc6e7ead48d19e1ea7ebf9f619de4a440ca/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:48.369  &gt;&gt;&gt;  5056  Game ID = 67969  Game Provider Name = KAGaming   Game Name =  Hu Yeh  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/e72384c9c014e3e3835c76a67c9f85a8d04382b9/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:48.375  &gt;&gt;&gt;  5057  Game ID = 67970  Game Provider Name = KAGaming   Game Name =  Hua Mulan  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/2c73a57f5b863ae9d1930c1fdf163d48a25da68b/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:48.437  &gt;&gt;&gt;  5059  Game ID = 67496  Game Provider Name = Spadegaming   Game Name =  Hugon Quest  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/91a74627a59e47ff8a6f3071543b078267d1aba4/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:49.284  &gt;&gt;&gt;  5069  Game ID = 65645  Game Provider Name = 1X2Gaming   Game Name =  I am the Law  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/a389ae84ea1fba29b91648a198fbbf70dceb657e/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:49.643  &gt;&gt;&gt;  5075  Game ID = 65963  Game Provider Name = 1X2Gaming   Game Name =  Ice Queen  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/89f97e0bd1107e404ecfb348f665e29e5448f801/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:49.876  &gt;&gt;&gt;  5081  Game ID = 67497  Game Provider Name = Spadegaming   Game Name =  Iceland SA  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b16935fd74e15e04007e42c9cda3403da99b28d2/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:49.994  &gt;&gt;&gt;  5083  Game ID = 68821  Game Provider Name = ELKStudios   Game Name =  Illogicool  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7dd26634444cb59a88793b6306fd9c4620fdb19e/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:50.340  &gt;&gt;&gt;  5091  Game ID = 67971  Game Provider Name = KAGaming   Game Name =  Imperial Girls  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/decc77f175f014c5bf488f1234dcc487ff8ed815/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:50.929  &gt;&gt;&gt;  5104  Game ID = 65263  Game Provider Name = Mr.Slotty   Game Name =  Insects 18+  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/8feafdca8fb75dc091cf2e12dc3a3b139cdafac6/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:51.119  &gt;&gt;&gt;  5108  Game ID = 65863  Game Provider Name = 1X2Gaming   Game Name =  Irish Love  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/3d430747b377de8142aab37cc1a55924d8dab3fc/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:51.582  &gt;&gt;&gt;  5121  Game ID = 65730  Game Provider Name = 1X2Gaming   Game Name =  Italia 3x3  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/4b6ca52089f5e8a43816b51650dbb0ece4d7546c/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:51.907  &gt;&gt;&gt;  5128  Game ID = 69459  Game Provider Name = NetEnt   Game Name =  Jack Hammer 2: Fishy Business  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/5671c2acd2fb0cc9756ed012b74664ae8d561435/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:52.189  &gt;&gt;&gt;  5134  Game ID = 65276  Game Provider Name = 1X2Gaming   Game Name =  Jackpot 3X3  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/bffd84128206a82869eb9ffdd4d8a0d5172d0639/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:52.780  &gt;&gt;&gt;  5147  Game ID = 67972  Game Provider Name = KAGaming   Game Name =  Japanese 7 Heroes  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/8752f9a0edfceb335dc138fdfef648813bbb2e71/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:52.796  &gt;&gt;&gt;  5148  Game ID = 69057  Game Provider Name = Gamzix   Game Name =  Japanese Coin: Hold The Spin  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/0360aeb918360cc3c6603537ce241883dae0c94a/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:52.906  &gt;&gt;&gt;  5149  Game ID = 66621  Game Provider Name = Corps   Game Name =  Jellos  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/40e3b58688e1d898e01c7fcfe608b9690cac61be/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:53.019  &gt;&gt;&gt;  5151  Game ID = 67973  Game Provider Name = KAGaming   Game Name =  Jellymania  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/1bc78ed6d498c87d352dbfcdba3e80be8cf5b4dc/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:53.164  &gt;&gt;&gt;  5154  Game ID = 66655  Game Provider Name = 1X2Gaming   Game Name =  Jesters Wilds  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/2d726ececfafc4aa65cc8d666ea5d01760fcb7c0/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:53.276  &gt;&gt;&gt;  5156  Game ID = 67002  Game Provider Name = Corps   Game Name =  Jet Lucky 2  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/eede205bb8b705abb94785211bdc5e70660c80be/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:53.430  &gt;&gt;&gt;  5159  Game ID = 65967  Game Provider Name = 1X2Gaming   Game Name =  Jewel of Athena  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/d0c088d5942faa8bad3aa8388e1f38e67eec687e/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:53.805  &gt;&gt;&gt;  5170  Game ID = 69462  Game Provider Name = NetEnt   Game Name =  Jimi Hendrix Online Slot  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/9c625ccccdceeda1463fbd11185818bc2d50abed/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:53.848  &gt;&gt;&gt;  5171  Game ID = 67974  Game Provider Name = KAGaming   Game Name =  Jingwei  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f403e2e90f4fefe1ecb62c32446e19c7334c6bdd/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:54.120  &gt;&gt;&gt;  5175  Game ID = 65281  Game Provider Name = Mr.Slotty   Game Name =  Joker Cards  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/9b1a414ec14ada8c3c22ae40e15a430d48afd0d9/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:54.195  &gt;&gt;&gt;  5178  Game ID = 66946  Game Provider Name = Mr.Slotty   Game Name =  Joker Craze  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f84f15b152f307d24cf064bd4987df5e6427f814/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:54.340  &gt;&gt;&gt;  5180  Game ID = 65282  Game Provider Name = Mr.Slotty   Game Name =  Joker Dice  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/79d7ddb93030572274181412b8fafc51a9b8b13d/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:54.491  &gt;&gt;&gt;  5182  Game ID = 66947  Game Provider Name = Mr.Slotty   Game Name =  Joker Factor  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/327e4768e6edaaa850d601843cf9cabeea552ac8/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:54.516  &gt;&gt;&gt;  5183  Game ID = 67975  Game Provider Name = KAGaming   Game Name =  Joker Fruit  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f8b5440778e0bddda1ccb0deb47729f3ff44f47f/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:54.621  &gt;&gt;&gt;  5186  Game ID = 66948  Game Provider Name = Mr.Slotty   Game Name =  Joker Goes Wild  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b5b2ad8708804b2e296e9559abe8ed3d09c2767c/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:55.159  &gt;&gt;&gt;  5197  Game ID = 67976  Game Provider Name = KAGaming   Game Name =  Joker Slot  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/492f830663579c74b0b025079bd46fac89002d93/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:55.291  &gt;&gt;&gt;  5201  Game ID = 67205  Game Provider Name = Gamzix   Game Name =  Joker Splash  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/5682040a88957a26014ffdad037678e4f95c97b1/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:55.504  &gt;&gt;&gt;  5206  Game ID = 67501  Game Provider Name = Spadegaming   Game Name =  Jokers Treasure  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/a16a288ad251683d9106157fa22f3c9d93508003/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:55.890  &gt;&gt;&gt;  5211  Game ID = 67977  Game Provider Name = KAGaming   Game Name =  Journey to the West  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b4bd32b729444372a86d1638725d5f10bb6803a9/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:56.145  &gt;&gt;&gt;  5214  Game ID = 65654  Game Provider Name = 1X2Gaming   Game Name =  Juicy Ninja  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/6d8ee342e7e30c834041090e366c674cc40842b6/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:56.697  &gt;&gt;&gt;  5224  Game ID = 67978  Game Provider Name = KAGaming   Game Name =  Jungle  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/4c5c034667311974204e40e984ec4c0fc8d0f9bb/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:57.135  &gt;&gt;&gt;  5234  Game ID = 67503  Game Provider Name = Spadegaming   Game Name =  Jungle King  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/d4cbb67e1d09b21c15c4947ea8983fdf07e1c00b/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:57.186  &gt;&gt;&gt;  5236  Game ID = 65293  Game Provider Name = Mr.Slotty   Game Name =  Jungle Treasure  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/5105dd77d51673915bc023cfb0f3235d0a65b209/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:57.543  &gt;&gt;&gt;  5242  Game ID = 69569  Game Provider Name = 1X2Gaming   Game Name =  Justice Machine Scratch  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/2b287e29af3970118cdc9ab319af14cca4e049d7/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:57.709  &gt;&gt;&gt;  5245  Game ID = 67979  Game Provider Name = KAGaming   Game Name =  KA Fish Hunter  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/173796dc1e1983e954c42058afeb1e6de1b38e7c/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:57.718  &gt;&gt;&gt;  5246  Game ID = 66040  Game Provider Name = ELKStudios   Game Name =  Kaiju  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/4d817b2906846fa64bc0302c50053a8576ad7638/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:58.089  &gt;&gt;&gt;  5255  Game ID = 69011  Game Provider Name = ELKStudios   Game Name =  Katmandu X  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b7d55fac269a34ac509b6c2b73b64d2d2e1e82d8/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:58.314  &gt;&gt;&gt;  5260  Game ID = 68725  Game Provider Name = Orbital   Game Name =  Keno  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/c2c080c883bd055f27be64a626bb9c8eb1664b12/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:58.760  &gt;&gt;&gt;  5271  Game ID = 67980  Game Provider Name = KAGaming   Game Name =  King Octopus  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/89f02b35a5dce80d056555ca828fdc8cd19545c6/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:58.974  &gt;&gt;&gt;  5276  Game ID = 67981  Game Provider Name = KAGaming   Game Name =  King Of Dragon  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f6fc41dd459345a10c947f8ccee507a1dfd4e60a/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:59.226  &gt;&gt;&gt;  5280  Game ID = 67504  Game Provider Name = Spadegaming   Game Name =  King Pharaoh  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/e2e99975f4d324b679d6fb9e15aee69fac4d1b53/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:59.787  &gt;&gt;&gt;  5292  Game ID = 66949  Game Provider Name = Mr.Slotty   Game Name =  Kitty Bonus Jackpot  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/56d7da450c5f11ea53c146a2fabcaf157dbba883/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:59.858  &gt;&gt;&gt;  5293  Game ID = 65301  Game Provider Name = 1X2Gaming   Game Name =  Kitty Cash  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/9c471c3d1a3ce7757b0426a897e48762b5786b9b/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:50:59.932  &gt;&gt;&gt;  5295  Game ID = 67982  Game Provider Name = KAGaming   Game Name =  Kitty Living  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/da6ecba3718e11b996099ac386e7f82a6e47f7d5/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:00.140  &gt;&gt;&gt;  5302  Game ID = 69469  Game Provider Name = NetEnt   Game Name =  Knight Rider Video Slot  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/237b9617d9d84013ff9f472c6d3882c077b4f2ca/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:00.519  &gt;&gt;&gt;  5307  Game ID = 67506  Game Provider Name = Spadegaming   Game Name =  KungFu Dragon  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/d97ca76474801e7890a720a0d6fa4f343cbe21f9/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:00.593  &gt;&gt;&gt;  5308  Game ID = 67983  Game Provider Name = KAGaming   Game Name =  KungFu Kaga  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/a17f3d6e6d04de97cbcbbbcf3bfd4da71f1f610e/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:01.003  &gt;&gt;&gt;  5318  Game ID = 67984  Game Provider Name = KAGaming   Game Name =  KungFu Kash  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/45e46c1eb82f4128ee7ab0667a8f6d00023b4b1b/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:01.297  &gt;&gt;&gt;  5323  Game ID = 67986  Game Provider Name = KAGaming   Game Name =  Lantern Festival  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/0a6731ab2e503309575ab5f1106cc7832f0ac159/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:01.309  &gt;&gt;&gt;  5325  Game ID = 67985  Game Provider Name = KAGaming   Game Name =  Lands of Gold  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/0b8fe45d53311bd282a213e6facf049176393d50/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:01.600  &gt;&gt;&gt;  5330  Game ID = 67987  Game Provider Name = KAGaming   Game Name =  Last Fantasy  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b1d0d7011e5e43f6c25482d123d311e0fc83503e/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:02.135  &gt;&gt;&gt;  5339  Game ID = 67989  Game Provider Name = KAGaming   Game Name =  Legend of Fox Spirit  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/efff61cff81fb49a657e5df1f8b587f5ac91cbe1/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:02.146  &gt;&gt;&gt;  5340  Game ID = 67988  Game Provider Name = KAGaming   Game Name =  Legend of Dragons  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/820927387e39d1cda01fd3b30800688510897e82/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:02.330  &gt;&gt;&gt;  5345  Game ID = 67990  Game Provider Name = KAGaming   Game Name =  Legend of Paladin  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/2d1b0ba83cdfb04f78bb4518def02900b721d4df/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:02.650  &gt;&gt;&gt;  5353  Game ID = 67991  Game Provider Name = KAGaming   Game Name =  Legend of the White Snake  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b85e5023893a335e6314f4dae4842dd880a48904/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:02.953  &gt;&gt;&gt;  5360  Game ID = 69583  Game Provider Name = 1X2Gaming   Game Name =  Leprechaun Charms  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/27614aa136601aff9077a53041698bb3078982b9/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:03.077  &gt;&gt;&gt;  5363  Game ID = 67992  Game Provider Name = KAGaming   Game Name =  Leprechauns  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7a14aee6c1e58e01ed9ca0ffa05319d1e70252c8/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:03.881  &gt;&gt;&gt;  5379  Game ID = 67993  Game Provider Name = KAGaming   Game Name =  Lion Dance  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/81930d9235082ce0b4d6ed631cefdb6348f00598/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:03.895  &gt;&gt;&gt;  5380  Game ID = 67994  Game Provider Name = KAGaming   Game Name =  Lion King And Eagle King  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/c0711a9e9599ecbcc11b6f885874114221921ba5/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:04.040  &gt;&gt;&gt;  5385  Game ID = 65310  Game Provider Name = Mr.Slotty   Game Name =  Lion The Lord  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/629dba9ac688468a7d12710810e73bf7932e656b/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:04.323  &gt;&gt;&gt;  5388  Game ID = 67995  Game Provider Name = KAGaming   Game Name =  Live Streaming Star  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/6fe1e4680510a6bdc99e325d3069f17249610d22/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:05.019  &gt;&gt;&gt;  5406  Game ID = 67996  Game Provider Name = KAGaming   Game Name =  Lost Realm  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b49b8519f5613b0c09bddce325d6f032b50e21ad/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:05.315  &gt;&gt;&gt;  5411  Game ID = 67997  Game Provider Name = KAGaming   Game Name =  Lounge Club  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7185e3dd518dff8ec843948acc21e81b88f3e2a1/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:05.382  &gt;&gt;&gt;  5413  Game ID = 67507  Game Provider Name = Spadegaming   Game Name =  Love Idol  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/847621b5bfc85dfc9c706a80c8faa84ef32c64e4/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:05.467  &gt;&gt;&gt;  5416  Game ID = 67998  Game Provider Name = KAGaming   Game Name =  Love In Memory  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/c003072347a94167c84bdb17d08a6261954d8a38/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:06.206  &gt;&gt;&gt;  5428  Game ID = 67508  Game Provider Name = Spadegaming   Game Name =  Lucky Cai Shen  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/28c00dd7d384356c3ea0bbc5810c3c56704bff97/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:06.263  &gt;&gt;&gt;  5429  Game ID = 68000  Game Provider Name = KAGaming   Game Name =  Lucky Casino  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/2dc33b7e9786194c3a8ec1410ad48e39a9570cd8/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:06.451  &gt;&gt;&gt;  5433  Game ID = 68001  Game Provider Name = KAGaming   Game Name =  Lucky Cat  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/dde86a4e1eda0364094ae746e50317d7737f55b5/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:06.808  &gt;&gt;&gt;  5438  Game ID = 67999  Game Provider Name = KAGaming   Game Name =  Luck88  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f31c11c5961ed2a9a99239bcaf6447998c5e2a2c/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:07.164  &gt;&gt;&gt;  5447  Game ID = 67509  Game Provider Name = Spadegaming   Game Name =  Lucky Feng Shui  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/8fb9f8d3170b559b1ef2c5d77762473933cf1874/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:08.114  &gt;&gt;&gt;  5461  Game ID = 67510  Game Provider Name = Spadegaming   Game Name =  Lucky Koi  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/10716cc90264e12a320e3f4cffddb07308685dc5/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:09.036  &gt;&gt;&gt;  5475  Game ID = 68002  Game Provider Name = KAGaming   Game Name =  Lucky Lucky  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/2263e5ea5c43bd1097abd2d6bb077a130cdba2d3/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:09.051  &gt;&gt;&gt;  5476  Game ID = 67511  Game Provider Name = Spadegaming   Game Name =  Lucky Meow  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/de88e034d7727420bc1f6b95f5c66f24b5653aa5/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:09.461  &gt;&gt;&gt;  5486  Game ID = 66956  Game Provider Name = Corps   Game Name =  Lucky O'Miner  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/8127bdf8cceb0e4b354c2a39dd27bfb37b5d76ac/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:09.462  &gt;&gt;&gt;  5487  Game ID = 68003  Game Provider Name = KAGaming   Game Name =  Lucky Penguins  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/3789b292aec99b819d64028be53cb647641300a7/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:10.086  &gt;&gt;&gt;  5500  Game ID = 65777  Game Provider Name = 1X2Gaming   Game Name =  Lucky Streaks  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/0253cc735a531da6ae730191c1a58f1eaee26259/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:10.468  &gt;&gt;&gt;  5509  Game ID = 66934  Game Provider Name = Corps   Game Name =  Lucky Yuanbao  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/65f169a0606d679a69d4db217da7622a891e8870/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:10.512  &gt;&gt;&gt;  5510  Game ID = 69551  Game Provider Name = Corps   Game Name =  Luke E. Chance and the Book of Luck  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/c565cbcc11684380d404986c34fd961f8c6b68bd/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:10.822  &gt;&gt;&gt;  5516  Game ID = 68004  Game Provider Name = KAGaming   Game Name =  Luxury Garage  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/ce66eba6aa03df4926487ca87b245806389f1ec5/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:11.213  &gt;&gt;&gt;  5525  Game ID = 68005  Game Provider Name = KAGaming   Game Name =  Magic Apprentice  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/e7989c7529aa65ea9b1324d84379b1cdcb2220fb/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:11.933  &gt;&gt;&gt;  5546  Game ID = 67516  Game Provider Name = Spadegaming   Game Name =  Magic Kitty  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b5cb968017df8db2495ace71598bfe32d8f9955f/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:12.839  &gt;&gt;&gt;  5570  Game ID = 67517  Game Provider Name = Spadegaming   Game Name =  Magical Lamp  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/9e843c6e7faa7a322ddbca5103298717aa1b8a8e/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:13.013  &gt;&gt;&gt;  5573  Game ID = 68006  Game Provider Name = KAGaming   Game Name =  Magical Store  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/653f70f7d3738e6a200a13c15a2158918090d93b/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:13.248  &gt;&gt;&gt;  5579  Game ID = 68007  Game Provider Name = KAGaming   Game Name =  Mahjong Master  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/52328f5cccffac00cd3663c0efdf361e0a594dfd/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:13.777  &gt;&gt;&gt;  5589  Game ID = 67208  Game Provider Name = Gamzix   Game Name =  Make Money  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/d2768b9a994c39805374663b57698c8622ed5cd5/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:13.823  &gt;&gt;&gt;  5592  Game ID = 67209  Game Provider Name = Gamzix   Game Name =  Make Money Rich Edition  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7339bf0d04527134aab8e8298f23d334729671fb/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:14.134  &gt;&gt;&gt;  5597  Game ID = 65346  Game Provider Name = Mr.Slotty   Game Name =  MarsDinner  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b42c16f586ea19b09200860af5d1e0987a789dec/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:14.323  &gt;&gt;&gt;  5600  Game ID = 68008  Game Provider Name = KAGaming   Game Name =  Masquerade  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/10adb93e40104131e055a43edee10bff13b3815c/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:14.688  &gt;&gt;&gt;  5606  Game ID = 69584  Game Provider Name = 1X2Gaming   Game Name =  Maverick  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/6a85a838a0bd8a1cd1b20ceab4f3f0ba486367c7/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:14.766  &gt;&gt;&gt;  5608  Game ID = 69587  Game Provider Name = 1X2Gaming   Game Name =  Maverick X  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/86f71507f35cfd6bbccc5177dd09227b04e4bb89/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:15.343  &gt;&gt;&gt;  5620  Game ID = 67520  Game Provider Name = Spadegaming   Game Name =  Mayan Gems  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/d88b6ec0b3460cd135bcfd256b455a3bb1147e8a/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:15.343  &gt;&gt;&gt;  5621  Game ID = 68009  Game Provider Name = KAGaming   Game Name =  Mayan Gold  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/577e6330802b424cf3b6ef6ec5f9c00387df32b7/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:15.677  &gt;&gt;&gt;  5626  Game ID = 68010  Game Provider Name = KAGaming   Game Name =  Mazu  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/1fe54d493afb6c335197ee046e308f3216e3b836/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:15.744  &gt;&gt;&gt;  5627  Game ID = 68012  Game Provider Name = KAGaming   Game Name =  Medieval Knights  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7bd9d6b293f520d2d545144f22bbdf50b13c7614/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:15.755  &gt;&gt;&gt;  5628  Game ID = 66647  Game Provider Name = 1X2Gaming   Game Name =  Medieval Mania  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b3aa015b05efaa16524d5a2faa65cf48836d497d/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:15.756  &gt;&gt;&gt;  5629  Game ID = 68011  Game Provider Name = KAGaming   Game Name =  Medal Winner Megaways  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b9d9a4d93f896f14bcdff17a1202f27b2abdada1/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:16.112  &gt;&gt;&gt;  5635  Game ID = 68013  Game Provider Name = KAGaming   Game Name =  Meerkats' Family  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/a37d5152f89e988bcebe35aa3226b59046179a89/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:16.112  &gt;&gt;&gt;  5636  Game ID = 67521  Game Provider Name = Spadegaming   Game Name =  Mega 7  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/ae56a2a9e06c43b1077847c2f5c35f9d1d6775fd/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:16.847  &gt;&gt;&gt;  5651  Game ID = 69571  Game Provider Name = 1X2Gaming   Game Name =  MegaBlox 777  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f4b61a2c37864914b3286c57ba82eacb52f2522f/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:16.890  &gt;&gt;&gt;  5653  Game ID = 69581  Game Provider Name = 1X2Gaming   Game Name =  Megablox Pyramids  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/95129a7c21fe690f4fdf9c947c563e90057550c9/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:16.986  &gt;&gt;&gt;  5654  Game ID = 65350  Game Provider Name = Mr.Slotty   Game Name =  Meme Faces  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/1066d7a8b931372bafc0cfad91edfff30d0b3545/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:17.098  &gt;&gt;&gt;  5656  Game ID = 68014  Game Provider Name = KAGaming   Game Name =  Meowfia  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/dd424ffce0e3e17c0832b0a59d79d7cae6c56965/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:17.198  &gt;&gt;&gt;  5658  Game ID = 69476  Game Provider Name = NetEnt   Game Name =  Mercy Of The Gods  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/073c3559bdb552bbf2c40e7449bd148176d4d87c/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:17.337  &gt;&gt;&gt;  5660  Game ID = 67522  Game Provider Name = Spadegaming   Game Name =  Mermaid  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/a404bdc4e93b406fa7ff85adec9d0fe6e81d1095/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:17.429  &gt;&gt;&gt;  5661  Game ID = 65351  Game Provider Name = Mr.Slotty   Game Name =  Mermaid Gold  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/0d2d6b50f89418810d076129706ba8051745ebbc/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:17.436  &gt;&gt;&gt;  5663  Game ID = 68015  Game Provider Name = KAGaming   Game Name =  Mermaid Hunter  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/bf98a7a47bf0f1382d1f8e1583562376598620aa/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:17.546  &gt;&gt;&gt;  5665  Game ID = 68016  Game Provider Name = KAGaming   Game Name =  Mermaid Seas  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/33bb9785c964ae949280d75b4acfb9e5fa6c7e33/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:17.712  &gt;&gt;&gt;  5669  Game ID = 68017  Game Provider Name = KAGaming   Game Name =  Mexicaliente  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/9e8024e01237eedf68f22dd6648955e1a86d9017/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:18.530  &gt;&gt;&gt;  5688  Game ID = 68018  Game Provider Name = KAGaming   Game Name =  Milk Girl  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/dfbb75791ed3aa4fac906a0f3dc7dbf6915d5ff7/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:18.555  &gt;&gt;&gt;  5689  Game ID = 68019  Game Provider Name = KAGaming   Game Name =  Millennium Love  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/3d472669da9416a3ad271c8337283bc64c90a341/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:18.859  &gt;&gt;&gt;  5694  Game ID = 68020  Game Provider Name = KAGaming   Game Name =  Millionaires  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/e4b45ce413d271ab0fffa0e67a3a979eb94b1ee9/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:19.170  &gt;&gt;&gt;  5702  Game ID = 67154  Game Provider Name = Orbital   Game Name =  Mines  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b1cd64d706e46b1553e22f3a71547510fd12b538/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:19.404  &gt;&gt;&gt;  5706  Game ID = 68021  Game Provider Name = KAGaming   Game Name =  Ming Imperial Guards  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/0c2d3a6bfef96b62e130b83614546cbb6943b35a/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:19.704  &gt;&gt;&gt;  5712  Game ID = 66968  Game Provider Name = Corps   Game Name =  Mining Madness  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/aac4a52511c6820b3e5e2071eec83c97e93e4ab6/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:19.896  &gt;&gt;&gt;  5715  Game ID = 68022  Game Provider Name = KAGaming   Game Name =  Miss Tiger  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/ff931fbe31678a99235c6ff4dc4c8ac52e1ab7a1/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:20.099  &gt;&gt;&gt;  5720  Game ID = 68023  Game Provider Name = KAGaming   Game Name =  Modern 7 Wonders  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/9ffe109629e12b090b9f849192a6b1978563a081/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:20.592  &gt;&gt;&gt;  5732  Game ID = 67524  Game Provider Name = Spadegaming   Game Name =  Money Mouse  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/0dc4f451562ea4b390f1f9b6c7fa778a9f9065b8/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:20.830  &gt;&gt;&gt;  5736  Game ID = 68024  Game Provider Name = KAGaming   Game Name =  Monkey and Crab  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/e44d608db04735d6cbb9c282bfcf4eb1da2d9b8d/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:21.197  &gt;&gt;&gt;  5745  Game ID = 65356  Game Provider Name = Mr.Slotty   Game Name =  Monster Birds  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/8372a750d6c1c89af0f83d6d6b25a446608a256c/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:21.537  &gt;&gt;&gt;  5752  Game ID = 68025  Game Provider Name = KAGaming   Game Name =  Monster Parade  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/1f435e45280d066456945d51e88f4c14ea1fc116/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:21.564  &gt;&gt;&gt;  5754  Game ID = 65359  Game Provider Name = Mr.Slotty   Game Name =  Monsterinos  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/8261d48c7f83d4d3d960d2951787ff9a846bc4b6/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:21.878  &gt;&gt;&gt;  5759  Game ID = 68026  Game Provider Name = KAGaming   Game Name =  Moon Goddess  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/98a27613f57065d200202c622399ad5c212b7eeb/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:22.356  &gt;&gt;&gt;  5771  Game ID = 69477  Game Provider Name = NetEnt   Game Name =  Motorhead Video Slot  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/d6921c54ed72a3a53a71c90a31cc6fd7aa845890/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:22.546  &gt;&gt;&gt;  5774  Game ID = 67526  Game Provider Name = Spadegaming   Game Name =  Mr Chu Tycoon  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/426b1142a93478ae6c560799090ce34f30acd68f/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:22.904  &gt;&gt;&gt;  5781  Game ID = 68027  Game Provider Name = KAGaming   Game Name =  Muay Thai  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/21d9b4621e3538087a48623e1146797bf44b4b37/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:23.092  &gt;&gt;&gt;  5786  Game ID = 67527  Game Provider Name = Spadegaming   Game Name =  Muay Thai Fighter  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/6903c69a3416bd408dd28828c8b656216ef65433/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:24.124  &gt;&gt;&gt;  5807  Game ID = 68028  Game Provider Name = KAGaming   Game Name =  Muscle Cars  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/772823a71838d6c763ec1f9a5621f9b74a8068ea/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:24.165  &gt;&gt;&gt;  5809  Game ID = 68029  Game Provider Name = KAGaming   Game Name =  Musketeers  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/d6dc91a9a0461636a0e05fcc42846abeeb81e1aa/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:24.533  &gt;&gt;&gt;  5816  Game ID = 68030  Game Provider Name = KAGaming   Game Name =  Mysterious Pyramid  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/706071b88f361b15c8f1fc26ecb4affe10148441/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:24.587  &gt;&gt;&gt;  5819  Game ID = 68031  Game Provider Name = KAGaming   Game Name =  Mystery Alchemy  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/876b41484fb4faaded0eaa7cd932e9bfa91c6d64/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:25.124  &gt;&gt;&gt;  5833  Game ID = 68818  Game Provider Name = ELKStudios   Game Name =  Mystic Orbs  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/3aae61f830d208a09243a5e004b0d0e143a0cef5/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:25.169  &gt;&gt;&gt;  5835  Game ID = 68032  Game Provider Name = KAGaming   Game Name =  Mythic  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/eeeb6783893522e6414d2f7398c47276a6dd7dc9/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:25.335  &gt;&gt;&gt;  5838  Game ID = 68033  Game Provider Name = KAGaming   Game Name =  Mythological Creatures  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/060b7026e214361c59ee2f6700f932b19340c575/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:25.510  &gt;&gt;&gt;  5843  Game ID = 68034  Game Provider Name = KAGaming   Game Name =  Neanderthals  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/c4cf61d4ba331d8c40a52adc16c137314ffca18b/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:25.603  &gt;&gt;&gt;  5844  Game ID = 65631  Game Provider Name = 1X2Gaming   Game Name =  Neon Fruit  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/d632633a3963dcb6f25f48a7812f27d182001ac9/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:25.699  &gt;&gt;&gt;  5845  Game ID = 65725  Game Provider Name = 1X2Gaming   Game Name =  Neon Fruit Cityscape  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7c02c260e2a0c0b4d85f36c9ed05eb71a5830d0c/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:26.113  &gt;&gt;&gt;  5856  Game ID = 68036  Game Provider Name = KAGaming   Game Name =  Nian  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f0bfc9e43839e94945df2c6cfb5da8b4a2045ff7/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:26.118  &gt;&gt;&gt;  5857  Game ID = 68035  Game Provider Name = KAGaming   Game Name =  Nezha  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/d903bbd22f2751deee650c1f1ad5b391aacc54da/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:26.462  &gt;&gt;&gt;  5864  Game ID = 68037  Game Provider Name = KAGaming   Game Name =  Nine Lucks  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/e22148aa593b9789568e87775a1f44d792a20c84/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:26.557  &gt;&gt;&gt;  5869  Game ID = 68038  Game Provider Name = KAGaming   Game Name =  Ninja  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/179619b37c23f9477b3f44f5a3b7ee09639df5f3/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:26.888  &gt;&gt;&gt;  5873  Game ID = 68990  Game Provider Name = ELKStudios   Game Name =  Nitropolis 4  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/d46645b386f6783fa2d10b01b17edc48956cdf81/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:26.891  &gt;&gt;&gt;  5874  Game ID = 68826  Game Provider Name = ELKStudios   Game Name =  Nitropolis 3  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/78960d71da9b23625c583c31a1b5e7630d369db6/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:26.937  &gt;&gt;&gt;  5876  Game ID = 65372  Game Provider Name = Mr.Slotty   Game Name =  No More Fruits  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/38885d9536ab078d41a19a5f4ba78a0ad1ab8b6e/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:27.302  &gt;&gt;&gt;  5885  Game ID = 68039  Game Provider Name = KAGaming   Game Name =  Nvwa  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/6998cf79c9eb982c8e779cfac3c2243321e76e1e/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:28.653  &gt;&gt;&gt;  5914  Game ID = 68040  Game Provider Name = KAGaming   Game Name =  Origin Of Fire  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/ef739a880fa7a51ed6041e14a276f0da9c1c9eea/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:29.058  &gt;&gt;&gt;  5924  Game ID = 69482  Game Provider Name = NetEnt   Game Name =  Ozzy Osbourne Video Slot  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/3086fa70404f2358298adbc262f928034be0f9f2/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:29.200  &gt;&gt;&gt;  5926  Game ID = 69101  Game Provider Name = Corps   Game Name =  Paddy's Payouts  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/977f25769ca18eacb029f1d63d6bee8b80ca254d/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:29.278  &gt;&gt;&gt;  5927  Game ID = 68041  Game Provider Name = KAGaming   Game Name =  Panda Family  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/86f7d40318229060a202018da33d2be58473413c/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:29.282  &gt;&gt;&gt;  5928  Game ID = 65373  Game Provider Name = Mr.Slotty   Game Name =  PandaMEME  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/4f374831870814fd70df748e41c8329ced583f60/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:29.410  &gt;&gt;&gt;  5932  Game ID = 68042  Game Provider Name = KAGaming   Game Name =  Pandora's Box   cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/38143bdd0ce01de27228a61e4b7be1cd9e0de067/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:29.707  &gt;&gt;&gt;  5935  Game ID = 69483  Game Provider Name = NetEnt   Game Name =  Parthenon: Quest for Immortality  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f19b8876c5cb8390720ee30c523e7221ab434671/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:29.749  &gt;&gt;&gt;  5937  Game ID = 68044  Game Provider Name = KAGaming   Game Name =  Party Girl Ways  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/4083def7ec5051531f698d8792f48fd96ae08f5b/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:29.759  &gt;&gt;&gt;  5938  Game ID = 68043  Game Provider Name = KAGaming   Game Name =  Party Girl  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/a029f62728a9c30628309d0cacb370ef292e978f/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:29.800  &gt;&gt;&gt;  5939  Game ID = 69000  Game Provider Name = Gamzix   Game Name =  Patrick's Coin: Hold The Spin  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7d808379a29e4b6071c23b8b4e3e054db5cec3b5/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:30.298  &gt;&gt;&gt;  5950  Game ID = 69384  Game Provider Name = Corps   Game Name =  Penalty Champion  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/60cba3319017d0f93fb2eed341aa30360c0178c9/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:31.071  &gt;&gt;&gt;  5960  Game ID = 68045  Game Provider Name = KAGaming   Game Name =  Persia Bonanza Megaways  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/03a45680f1009e7317d37f4bdbd41213c44016d0/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:31.305  &gt;&gt;&gt;  5961  Game ID = 68046  Game Provider Name = KAGaming   Game Name =  Peter Pan  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/2e582beb442d8d4461ed24073c7c720581a85ec6/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:31.390  &gt;&gt;&gt;  5963  Game ID = 68047  Game Provider Name = KAGaming   Game Name =  Pets  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/08ad3e23efda4a3af4162dc5c8d32d69c4b868c7/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:31.975  &gt;&gt;&gt;  5969  Game ID = 68832  Game Provider Name = ELKStudios   Game Name =  Phoenix Graveyard  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/1ead3a96e61ffa0ecf869bdc09ad92efa7a60299/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:32.138  &gt;&gt;&gt;  5971  Game ID = 68048  Game Provider Name = KAGaming   Game Name =  Phoenix Rising  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/9ea9e4cca490a2160b9765ad34039297edae59db/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:33.135  &gt;&gt;&gt;  5977  Game ID = 66585  Game Provider Name = 1X2Gaming   Game Name =  Phoenix Inferno  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/2934f78350b00408dd8f6fa5804c92490d062b7c/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:35.284  &gt;&gt;&gt;  5987  Game ID = 68617  Game Provider Name = Gamzix   Game Name =  Pilot  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/cafdf621845a123a64432b7ae6f492c5ba37e274/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:35.352  &gt;&gt;&gt;  5988  Game ID = 68900  Game Provider Name = Gamzix   Game Name =  Pilot Coin  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/0fc552455ba65f3d5bfb05fd8d37024de3977ac3/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:35.629  &gt;&gt;&gt;  5991  Game ID = 68626  Game Provider Name = Gamzix   Game Name =  Pilot Cup  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b37971bfc53af50b3333c2cbd56225b4fc1c6fa4/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:35.941  &gt;&gt;&gt;  5994  Game ID = 68049  Game Provider Name = KAGaming   Game Name =  Pinata  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/5ca44dfedb3cb4e0f19a6800e0fbd6c0ccfae75a/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:35.975  &gt;&gt;&gt;  5995  Game ID = 68710  Game Provider Name = Spadegaming   Game Name =  Pineapple Poker  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b071f898908d77f6dee7f75c55fde30c9dcce30f/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:36.111  &gt;&gt;&gt;  5997  Game ID = 68050  Game Provider Name = KAGaming   Game Name =  Pinocchio  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/363ec5a54e8ad1edb18cc86819aeffc5f7f24bf7/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:36.337  &gt;&gt;&gt;  5999  Game ID = 66685  Game Provider Name = 1X2Gaming   Game Name =  Pirate Armada  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/072202ee7b5a1d03856410536db9d2c69b030e92/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:36.453  &gt;&gt;&gt;  6001  Game ID = 67530  Game Provider Name = Spadegaming   Game Name =  Pirate King  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/4679f5104508276fd46e04665bbf2c2ce1056187/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:36.609  &gt;&gt;&gt;  6004  Game ID = 68051  Game Provider Name = KAGaming   Game Name =  Pirate King  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/8e6b8a1ae0e967f0b2ad413ce297f1517aee7850/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:37.670  &gt;&gt;&gt;  6024  Game ID = 67238  Game Provider Name = Orbital   Game Name =  Plinko  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/fbce46c214bf0e3a94fb4e9fa067a18ef7914d79/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:37.800  &gt;&gt;&gt;  6027  Game ID = 69386  Game Provider Name = Corps   Game Name =  Plinko  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/d30db9b55ca11893a938bf99b1f38ec33d1bc20d/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:37.978  &gt;&gt;&gt;  6031  Game ID = 69582  Game Provider Name = 1X2Gaming   Game Name =  Plinko Go  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/ee899df918fbb4bf578fc1ad75ef3c71888a3e3f/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:38.162  &gt;&gt;&gt;  6035  Game ID = 68052  Game Provider Name = KAGaming   Game Name =  Po Chi Lam  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/11c33b7b646a2c2001f13453a17717367bfb6c5e/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:38.442  &gt;&gt;&gt;  6039  Game ID = 67531  Game Provider Name = Spadegaming   Game Name =  Poker Ways  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b937c01094b2bfb8002b0c8782ea1cb90444f0d4/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:38.488  &gt;&gt;&gt;  6040  Game ID = 68053  Game Provider Name = KAGaming   Game Name =  Polaroid  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/a5f0b49c3b069bd1afb58550500b996b95b3515d/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:38.563  &gt;&gt;&gt;  6043  Game ID = 68054  Game Provider Name = KAGaming   Game Name =  Polynesian  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7383e84f56c8d16c5c9cd00d962feb9293cda1d9/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:38.829  &gt;&gt;&gt;  6048  Game ID = 69570  Game Provider Name = 1X2Gaming   Game Name =  Pop TIll You Drop  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/190b6d6ae9bdf949c34e6afdf4ca386cebb4b271/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:38.959  &gt;&gt;&gt;  6051  Game ID = 68055  Game Provider Name = KAGaming   Game Name =  Poseidon's Secret  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/a27fe1e29b7e5ca542fc9e1be32b8083e97441f7/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:39.039  &gt;&gt;&gt;  6052  Game ID = 68056  Game Provider Name = KAGaming   Game Name =  Poseidon's Treasure  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/aa036e52413d508d33ae81a9b5294d15cea33ccc/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:39.170  &gt;&gt;&gt;  6056  Game ID = 65669  Game Provider Name = 1X2Gaming   Game Name =  Pots of Luck  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/6c542751b3f52995ed00cda69b9919036c3ffac0/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:40.394  &gt;&gt;&gt;  6080  Game ID = 68057  Game Provider Name = KAGaming   Game Name =  Primeval Rainforest  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/982c149571f52c3bbb644b04c9b926b57129f362/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:40.740  &gt;&gt;&gt;  6085  Game ID = 67532  Game Provider Name = Spadegaming   Game Name =  Princess Wang  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/6a47948940109d58710a8c2eb6ec6170735bb8c9/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:40.749  &gt;&gt;&gt;  6086  Game ID = 68058  Game Provider Name = KAGaming   Game Name =  Princess Wencheng  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/d2083a401a3947c5accc0dbadbb7f82b79c24cd7/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:40.770  &gt;&gt;&gt;  6087  Game ID = 65829  Game Provider Name = 1X2Gaming   Game Name =  Prison Escape  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/30a1b569e61ca9901d0f2fa5cdea40e574e897ef/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:41.098  &gt;&gt;&gt;  6093  Game ID = 69586  Game Provider Name = 1X2Gaming   Game Name =  Prospector Wilds  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/5a92a8555922f3c47bb3e1cfcc6d6b05ddd8549e/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:41.106  &gt;&gt;&gt;  6094  Game ID = 69589  Game Provider Name = 1X2Gaming   Game Name =  Prospector Wilds Hold and Win   cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/848e515a33124b09379319e2e3a0053e297f704e/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:41.121  &gt;&gt;&gt;  6095  Game ID = 67533  Game Provider Name = Spadegaming   Game Name =  Prosperity Gods  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/29f2535b075fead9654339a0efc710102f4c1d85/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:41.666  &gt;&gt;&gt;  6108  Game ID = 68059  Game Provider Name = KAGaming   Game Name =  Pumpkin Win  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/2bd8ce9bb492c55289dca43fcbe8aa96fa1b430f/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:41.801  &gt;&gt;&gt;  6111  Game ID = 65384  Game Provider Name = 1X2Gaming   Game Name =  Puppy Payday  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/9da214038df942af27f52f9af4570877260aae9b/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:42.376  &gt;&gt;&gt;  6123  Game ID = 68060  Game Provider Name = KAGaming   Game Name =  Quadruple Dragons  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/9f9c158f19bdd40365bcdec3f531f3f1e43a64e5/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:42.412  &gt;&gt;&gt;  6124  Game ID = 66684  Game Provider Name = Mr.Slotty   Game Name =  Quarantine  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/1007f113e39f2308b60476c817fec69521692182/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:42.709  &gt;&gt;&gt;  6130  Game ID = 66278  Game Provider Name = 1X2Gaming   Game Name =  Queen of Embers  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/254f370237d9d57e2d39845cf863b4081af236db/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:43.127  &gt;&gt;&gt;  6137  Game ID = 68061  Game Provider Name = KAGaming   Game Name =  Quick Play Candy  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/d62386d6fef37c48353b9268ca67d7b0c84c8e96/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:43.158  &gt;&gt;&gt;  6138  Game ID = 68062  Game Provider Name = KAGaming   Game Name =  Quick Play Jewels  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/0660af1baf3d0cc8ca2f254f884f45acab0c42ee/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:43.301  &gt;&gt;&gt;  6139  Game ID = 68063  Game Provider Name = KAGaming   Game Name =  Quick Play Mahjong  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/ab847b0ecedadff97b80a46e01cbb2d959ce328b/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:43.346  &gt;&gt;&gt;  6141  Game ID = 69017  Game Provider Name = ELKStudios   Game Name =  Rabbit Royale  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/e597a14640e9f18e17c04b9098588ecf2a933d0c/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:43.774  &gt;&gt;&gt;  6149  Game ID = 69543  Game Provider Name = Corps   Game Name =  Raging Zeus Mines  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f9baf8131bc6184c0d14094369ac88ab4146ed9e/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:44.272  &gt;&gt;&gt;  6156  Game ID = 65618  Game Provider Name = 1X2Gaming   Game Name =  Rainbow 3X3  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/ed4dcfbd3f973436b1a1ace9f2c522f35285b461/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:44.797  &gt;&gt;&gt;  6166  Game ID = 68064  Game Provider Name = KAGaming   Game Name =  Rarities  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/9e9ffeec18ed48ee22de2e44deccadc6e725f819/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:45.351  &gt;&gt;&gt;  6173  Game ID = 68465  Game Provider Name = Gamzix   Game Name =  Really Easter  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/a61704f00aa25d238fe19f932898034857c2400b/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:45.488  &gt;&gt;&gt;  6175  Game ID = 68966  Game Provider Name = Gamzix   Game Name =  Really Hot 2  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/a4cc1184337c5a345d01a46c6374127be7c072b2/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:45.528  &gt;&gt;&gt;  6176  Game ID = 67215  Game Provider Name = Gamzix   Game Name =  Really Hot Flaming Edition  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/dc20c1796b1fe99dffa41f8ce53b07997cebcaea/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:46.038  &gt;&gt;&gt;  6180  Game ID = 68065  Game Provider Name = KAGaming   Game Name =  Red Boy  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/03c8a31e7c4ce8fd8330a4ccefe782e851247b71/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:46.162  &gt;&gt;&gt;  6181  Game ID = 65388  Game Provider Name = 1X2Gaming   Game Name =  Red Dragon  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/09c9d7f17c61e16c6cfd74a9bad4f17c0a242932/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:46.723  &gt;&gt;&gt;  6185  Game ID = 69395  Game Provider Name = Corps   Game Name =  Raging Zeus  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/beeb82cac075685fe1236e3a9939b7d752788939/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:48.080  &gt;&gt;&gt;  6186  Game ID = 69567  Game Provider Name = 1X2Gaming   Game Name =  Red Queen Blackjack  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/2994df41b2dcf0540e470a5b5d80e768e482400d/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:48.386  &gt;&gt;&gt;  6187  Game ID = 67214  Game Provider Name = Gamzix   Game Name =  Really Hot  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/8043c6a25ebb20fff8f4f4a8bb7c7acb95d02b99/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:48.424  &gt;&gt;&gt;  6188  Game ID = 68067  Game Provider Name = KAGaming   Game Name =  Red Riding Hood  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/5b08bf4fb0a207337be919a7b9dddfef431ef8fb/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:48.913  &gt;&gt;&gt;  6192  Game ID = 66527  Game Provider Name = 1X2Gaming   Game Name =  Reel Diamonds  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/82754f7eb3d20f7a462060a3d78ba7972a2226c0/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:48.922  &gt;&gt;&gt;  6193  Game ID = 66103  Game Provider Name = 1X2Gaming   Game Name =  Reel Fruits  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/c545be463a41b15ef5e248ab74d1cf51081ba2c8/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:49.059  &gt;&gt;&gt;  6194  Game ID = 68066  Game Provider Name = KAGaming   Game Name =  Red Cliff  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/6cdafcd66b996b36369fe72f3cdc58cfbeb61caa/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:49.250  &gt;&gt;&gt;  6197  Game ID = 66673  Game Provider Name = 1X2Gaming   Game Name =  Reel Fruits 88  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/83e30346d4dc0c62385cd7a24f5fe5e30609758f/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:51.189  &gt;&gt;&gt;  6239  Game ID = 67538  Game Provider Name = Spadegaming   Game Name =  Rich Cai Shen  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7cb61252789bf54b957d0a807435c4923e190a98/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:51.339  &gt;&gt;&gt;  6240  Game ID = 68068  Game Provider Name = KAGaming   Game Name =  Rich Squire  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/300df12322a10a0b2c14344e12da0652958845a2/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:51.393  &gt;&gt;&gt;  6243  Game ID = 69492  Game Provider Name = NetEnt   Game Name =  Riches of Midgard: Land and Expand  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/3cdf792f1e5493dbd785df36b2e3a56ceff2c14c/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:51.818  &gt;&gt;&gt;  6251  Game ID = 67540  Game Provider Name = Spadegaming   Game Name =  Rise Of Werewolves  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f6c2f4f46d353891cd80df0763a9a372a6d16667/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:52.332  &gt;&gt;&gt;  6261  Game ID = 68480  Game Provider Name = Gamzix   Game Name =  Rich Granny  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/167f4099603192338fff7f3a74af313713bed3b5/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:52.671  &gt;&gt;&gt;  6267  Game ID = 68069  Game Provider Name = KAGaming   Game Name =  Robots  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/d9faac3626fc332b7430e15c476b180720ca851d/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:53.164  &gt;&gt;&gt;  6274  Game ID = 67544  Game Provider Name = Spadegaming   Game Name =  Roma  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/940a6c9ba35d5a39523463343059e94584958731/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:53.263  &gt;&gt;&gt;  6276  Game ID = 68070  Game Provider Name = KAGaming   Game Name =  Romance of the Three Kingdoms  cod = 404   src = https://resources.pokies2go.io/products/null</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:54.030  &gt;&gt;&gt;  6286  Game ID = 69568  Game Provider Name = 1X2Gaming   Game Name =  Roulette Diamond  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7b56a608e90f9f261c18843a89a138c1f8b7c0f8/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:55.390  &gt;&gt;&gt;  6288  Game ID = 68071  Game Provider Name = KAGaming   Game Name =  Rouran Khaganate  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/e8a72b258e044a7c2db9002bcda5c7d6a9a1c78f/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:55.412  &gt;&gt;&gt;  6289  Game ID = 68072  Game Provider Name = KAGaming   Game Name =  Route 66  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/594dacc6a572ab398ec7ff4db3f0a205e4bd5725/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:56.071  &gt;&gt;&gt;  6294  Game ID = 69006  Game Provider Name = Gamzix   Game Name =  Royal Chip  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/145d2198b140ae674ce8a898c8346fe9aa768af9/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:56.191  &gt;&gt;&gt;  6296  Game ID = 68073  Game Provider Name = KAGaming   Game Name =  Royal Demeanor  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/6e8d281edee72fb4779f5d0bba88b860fb6d7a98/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:56.667  &gt;&gt;&gt;  6300  Game ID = 67545  Game Provider Name = Spadegaming   Game Name =  Royal Katt  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/6f33ed703b685155bf28f731ae4a757f32010beb/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:57.810  &gt;&gt;&gt;  6310  Game ID = 67546  Game Provider Name = Spadegaming   Game Name =  Royale House  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/216fdd7ca621fd4c14b31c8c3cec63b02c5890cb/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:58.477  &gt;&gt;&gt;  6314  Game ID = 67547  Game Provider Name = Spadegaming   Game Name =  Ruby Hood  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/db87115918df09ad06c23b358347eb47a3907a2b/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:51:58.836  &gt;&gt;&gt;  6316  Game ID = 68989  Game Provider Name = Gamzix   Game Name =  Ruby Win: Hold The Spin  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/bb80a34a2b455a7848da96dee120a5777405cb5e/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:00.041  &gt;&gt;&gt;  6330  Game ID = 68075  Game Provider Name = KAGaming   Game Name =  Safari Slots  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/0864d4a36a70c8d979d259dce88306331f9f7a93/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:00.728  &gt;&gt;&gt;  6336  Game ID = 65409  Game Provider Name = Mr.Slotty   Game Name =  Royal7Fruits  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/c810358928059b4956fdd205d76b6db3ae928d7d/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:02.186  &gt;&gt;&gt;  6340  Game ID = 68076  Game Provider Name = KAGaming   Game Name =  Samurai Way  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/e70c7ce9609e8b5e3839e94fc2a90f9e3b9a22b8/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:02.680  &gt;&gt;&gt;  6343  Game ID = 68077  Game Provider Name = KAGaming   Game Name =  Santa Bumble Bee Hold and Win  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/74d7cbee3b7af490df562db39fa8afe7bee64061/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:02.817  &gt;&gt;&gt;  6344  Game ID = 67548  Game Provider Name = Spadegaming   Game Name =  Santa Gifts  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/ffef2c72a5face19fc9e86346c466b0c5d58348d/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:03.899  &gt;&gt;&gt;  6353  Game ID = 68078  Game Provider Name = KAGaming   Game Name =  Sante  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/a0639f6374fadfcfa600bc90724095d63de2a965/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:15.822  &gt;&gt;&gt;  6377  Game ID = 69498  Game Provider Name = NetEnt   Game Name =  Scudamore's Super Stakes  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/684af8243ae9aaae43fbe53173015a280a60046c/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:15.917  &gt;&gt;&gt;  6379  Game ID = 67550  Game Provider Name = Spadegaming   Game Name =  Sea Emperor  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/fd05405162b42b556d90828b35995528d7c8f512/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:16.257  &gt;&gt;&gt;  6382  Game ID = 68079  Game Provider Name = KAGaming   Game Name =  Secret of Ocean  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/3eacd5e7309a5ab720296da93acbbf072e6440da/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:18.060  &gt;&gt;&gt;  6401  Game ID = 67551  Game Provider Name = Spadegaming   Game Name =  Sexy Vegas  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/158a1f5374cc8d46997d7cf381e39f609e0a8453/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:18.115  &gt;&gt;&gt;  6402  Game ID = 68080  Game Provider Name = KAGaming   Game Name =  Shadow Play  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/4ccb80564f0aa36a6f32b459c1c17cf368af8b29/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:19.176  &gt;&gt;&gt;  6414  Game ID = 65419  Game Provider Name = Mr.Slotty   Game Name =  She/He_beach  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/a49fcb803b5f39690e64db72bc98fd027ebe76bd/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:19.180  &gt;&gt;&gt;  6415  Game ID = 65420  Game Provider Name = Mr.Slotty   Game Name =  She/He_club  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/56da05a9ba49513b078cdd919e2b559292c5e6e7/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:19.696  &gt;&gt;&gt;  6423  Game ID = 65703  Game Provider Name = 1X2Gaming   Game Name =  Sherlock's Casebook  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/807759d7d142d8d8e3351adedce37b38d8d45e21/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:20.198  &gt;&gt;&gt;  6430  Game ID = 68081  Game Provider Name = KAGaming   Game Name =  Shock Tower  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/e4d47a53534e49b442378cef0e5d1781bc180588/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:20.352  &gt;&gt;&gt;  6432  Game ID = 68082  Game Provider Name = KAGaming   Game Name =  Shopping Fiend  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/4e07f667cd6cf716f35f0d2793e4a38197b368b3/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:20.739  &gt;&gt;&gt;  6439  Game ID = 68083  Game Provider Name = KAGaming   Game Name =  Siberian Wolves  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/cac91438724d69be8d8fe6ce695a06aa27891278/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:21.325  &gt;&gt;&gt;  6448  Game ID = 68084  Game Provider Name = KAGaming   Game Name =  Silk Road  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/2e752b313bd10b23befa2664ab6a8790e262ab22/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:22.214  &gt;&gt;&gt;  6462  Game ID = 65733  Game Provider Name = 1X2Gaming   Game Name =  Sinister Circus  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/3431c10a289178debf84cad55320277d2874bfa7/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:22.592  &gt;&gt;&gt;  6470  Game ID = 69370  Game Provider Name = Corps   Game Name =  Six or OUT!  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/5c3ef8de8b7f4794702ff943669dc47b1a3fe066/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:23.668  &gt;&gt;&gt;  6483  Game ID = 68085  Game Provider Name = KAGaming   Game Name =  Sky Force  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/de25db142530476e6de6501113f56081f4211587/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:23.699  &gt;&gt;&gt;  6484  Game ID = 68086  Game Provider Name = KAGaming   Game Name =  Sky Journey  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/87f852db7f0dbf5d6c79dc74b30aa88c764ae22b/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:24.037  &gt;&gt;&gt;  6491  Game ID = 66550  Game Provider Name = 1X2Gaming   Game Name =  Slice &amp; Dice  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/c395d2866f531cebd88585b49d1da6d7c9eb89a3/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:24.541  &gt;&gt;&gt;  6497  Game ID = 69578  Game Provider Name = 1X2Gaming   Game Name =  Smoking Hot Fruit Wild Respin  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f4fbf037491817b864606ed55d2738af78abb8db/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:24.682  &gt;&gt;&gt;  6498  Game ID = 66388  Game Provider Name = 1X2Gaming   Game Name =  Smoking Hot Fruits  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/5ced2b206fa89f55279000f92f88e8887e798f62/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:24.749  &gt;&gt;&gt;  6499  Game ID = 69574  Game Provider Name = 1X2Gaming   Game Name =  Smoking Hot Fruits 20 Lines  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7cef75cea07c8313414dc98d3fcf16dd8a13d181/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:24.886  &gt;&gt;&gt;  6502  Game ID = 69576  Game Provider Name = 1X2Gaming   Game Name =  Smoking Hot Fruits Stacks  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b12f9fcaab7bc0e718e2f551e342506cfc3aa662/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:25.497  &gt;&gt;&gt;  6509  Game ID = 68814  Game Provider Name = Gamzix   Game Name =  Snow Coin: Hold The Spin  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/2b6bbc5c3c657d8fa5db01d6d5fe1f4fddb7d020/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:25.640  &gt;&gt;&gt;  6512  Game ID = 68087  Game Provider Name = KAGaming   Game Name =  Snow Leopards  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/727dabd3180c4ab39f1e1d2423db038851f08965/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:25.681  &gt;&gt;&gt;  6513  Game ID = 68088  Game Provider Name = KAGaming   Game Name =  Snow Queen  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/fa02ec23dae71d79328cf4f31efc4284484a46c4/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:25.910  &gt;&gt;&gt;  6516  Game ID = 68089  Game Provider Name = KAGaming   Game Name =  Snow White  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/04699c64e91f109939cc2c1023a40c8ec531e49d/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:26.023  &gt;&gt;&gt;  6519  Game ID = 68074  Game Provider Name = KAGaming   Game Name =  SNS Friends  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/60626710ba3d0d2db833c5791a56c62548105008/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:26.180  &gt;&gt;&gt;  6523  Game ID = 68982  Game Provider Name = Orbital   Game Name =  Soccer  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/58e535a1f2a91ad3b71385b63fe8dba815f32fd7/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:26.404  &gt;&gt;&gt;  6528  Game ID = 68090  Game Provider Name = KAGaming   Game Name =  Soldiers  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/cf67673f11dff077c9b16f50872e185ffc768d0f/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:26.736  &gt;&gt;&gt;  6533  Game ID = 68091  Game Provider Name = KAGaming   Game Name =  Space Cat  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/4e3a44c4f53cf470e809a8ea429171cbaea95265/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:26.759  &gt;&gt;&gt;  6534  Game ID = 65813  Game Provider Name = 1X2Gaming   Game Name =  Space Christmas  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/2e6901f09186a4aa0d051cd256bc0390b731a32d/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:27.330  &gt;&gt;&gt;  6542  Game ID = 66735  Game Provider Name = 1X2Gaming   Game Name =  Sparkling 777s  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f3414c9946fd921a56220d4c14ef90c157840886/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:27.561  &gt;&gt;&gt;  6547  Game ID = 68093  Game Provider Name = KAGaming   Game Name =  Speakeasy  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/aac326636c8076da3f99a080d0d9e57c15dbf052/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:28.862  &gt;&gt;&gt;  6565  Game ID = 68094  Game Provider Name = KAGaming   Game Name =  Spinning In Space  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/e7ef3daa820dffb7084b9ebfc89a356c58af3552/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:29.007  &gt;&gt;&gt;  6567  Game ID = 67155  Game Provider Name = Orbital   Game Name =  Spheres  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/21adcc19a45b1277312d89a8b0ac41680a342d8a/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:29.533  &gt;&gt;&gt;  6575  Game ID = 68095  Game Provider Name = KAGaming   Game Name =  Spring Blossom  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/ebd4b548d8b499b83c69dec4094db4f0047ebb0b/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:29.880  &gt;&gt;&gt;  6578  Game ID = 66552  Game Provider Name = 1X2Gaming   Game Name =  Squeaky Blinders  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/731435543dbf5349aa07694037779264b2a7ccb7/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:30.130  &gt;&gt;&gt;  6580  Game ID = 68092  Game Provider Name = KAGaming   Game Name =  Space Storm  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/73c85218644247a2a0832154584bc9033c61da52/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:35.399  &gt;&gt;&gt;  6603  Game ID = 66557  Game Provider Name = 1X2Gaming   Game Name =  Stellar Ways  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7de126f53d6e4882248e1eb62d49e25edb6e67d1/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:36.480  &gt;&gt;&gt;  6608  Game ID = 68096  Game Provider Name = KAGaming   Game Name =  Stocked Bar  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/9787c10863514694a768242b96317b5bb88e2b3a/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:36.856  &gt;&gt;&gt;  6611  Game ID = 68097  Game Provider Name = KAGaming   Game Name =  Stonehenge  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/04afa469c1787361a7c113665b7da317a0cca6f3/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:38.011  &gt;&gt;&gt;  6618  Game ID = 69510  Game Provider Name = NetEnt   Game Name =  Street Fighter II: The World Warrior Slot  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/48cfe5bb35eaf28d8934718b544affb68d80bd88/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:38.365  &gt;&gt;&gt;  6620  Game ID = 68098  Game Provider Name = KAGaming   Game Name =  Street Racing  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/a1a4d89e1cc13faf96aad5e5d835b1ac0a3b4d81/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:38.701  &gt;&gt;&gt;  6623  Game ID = 69511  Game Provider Name = NetEnt   Game Name =  Strolling Staxx: Cubic Fruits  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/fc5a3aa6265fbef1b500a2f080596fdd39f5bb8a/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:39.806  &gt;&gt;&gt;  6639  Game ID = 66876  Game Provider Name = ELKStudios   Game Name =  Stars of Orion  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/33c65038903c7b4d74ead56d444be403d160df75/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:39.886  &gt;&gt;&gt;  6641  Game ID = 68927  Game Provider Name = ELKStudios   Game Name =  Sumo Sumo  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7bb4f7a3d17e95d1be43d909a2ae6dbcfd94ccc1/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:40.271  &gt;&gt;&gt;  6646  Game ID = 68099  Game Provider Name = KAGaming   Game Name =  Sunny Bikini  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f3b54884f67777135313cfa61a542294a50f5ded/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:40.343  &gt;&gt;&gt;  6647  Game ID = 68972  Game Provider Name = Gamzix   Game Name =  Sunny Coin 2: Hold The Spin  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f3fe53c0c14f43daaa3d4238af137793f2363a39/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:40.420  &gt;&gt;&gt;  6648  Game ID = 67221  Game Provider Name = Gamzix   Game Name =  Sunny Coin: Hold The Spin  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/db45f316691821da227604b0316081e020b41051/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:41.473  &gt;&gt;&gt;  6666  Game ID = 68100  Game Provider Name = KAGaming   Game Name =  Super Bonus Mania  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/18dbfd5718dc5d522affed6f54b1c9ce84045be5/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:41.737  &gt;&gt;&gt;  6670  Game ID = 65449  Game Provider Name = Mr.Slotty   Game Name =  Super Dragons Fire  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/ff02b59eb6dae7a3cab6cec2e3c0a073958578c3/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:42.071  &gt;&gt;&gt;  6675  Game ID = 68101  Game Provider Name = KAGaming   Game Name =  Super Keno  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/1985cd4396e10aca1e180403e4a1c71134c9ce12/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:42.237  &gt;&gt;&gt;  6678  Game ID = 67006  Game Provider Name = 1X2Gaming   Game Name =  Super Rainbow Megaways  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f73b9810051374129c62220639c97f9e7f4fc09c/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:42.607  &gt;&gt;&gt;  6685  Game ID = 68102  Game Provider Name = KAGaming   Game Name =  Super Video Poker  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/955a4fb7db113034df6f25db42caf21d7476b289/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:42.765  &gt;&gt;&gt;  6688  Game ID = 68103  Game Provider Name = KAGaming   Game Name =  SuperShot  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/a9065b263072bbc8269d00b61f6e77773b81c631/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:42.842  &gt;&gt;&gt;  6689  Game ID = 68104  Game Provider Name = KAGaming   Game Name =  SuperShot 2  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/cfed6e8048d5035eaa40b6fe430c8c923abb6b7f/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:43.248  &gt;&gt;&gt;  6695  Game ID = 68105  Game Provider Name = KAGaming   Game Name =  Sushi Ninja  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/273b6849d8f57c392bfdc4ded0bfd6d005edafd2/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:43.380  &gt;&gt;&gt;  6698  Game ID = 67560  Game Provider Name = Spadegaming   Game Name =  Sweet Bakery  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/01fc1abfc24c3c1b52b5d8b505504f98cc5830f4/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:43.743  &gt;&gt;&gt;  6704  Game ID = 68106  Game Provider Name = KAGaming   Game Name =  Sweet Maid  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/1a555422d255a05bdc73efa7359f64a0457f6f5b/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:43.848  &gt;&gt;&gt;  6705  Game ID = 69369  Game Provider Name = Corps   Game Name =  Sweet Miner  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/bf591718a3c971c4fbff376f030ecea4cc621d04/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:44.089  &gt;&gt;&gt;  6708  Game ID = 68107  Game Provider Name = KAGaming   Game Name =  Sweetopia  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/05e07b847acb6ce55896f7ac1e91d6777823c492/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:44.470  &gt;&gt;&gt;  6717  Game ID = 66060  Game Provider Name = ELKStudios   Game Name =  Taco Brothers  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/aefcb57fa19160d8ae514b3e8b5784356b80328e/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:44.624  &gt;&gt;&gt;  6719  Game ID = 68108  Game Provider Name = KAGaming   Game Name =  Tai Chi  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/42419fc9c22bb3d2c6a2df3486250ad05cfb1c2e/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:44.753  &gt;&gt;&gt;  6721  Game ID = 68109  Game Provider Name = KAGaming   Game Name =  Taiwan Black Bear  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b5a0bbf8158c7d4401b15f15fd3ee64fbc86abaa/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:45.093  &gt;&gt;&gt;  6728  Game ID = 68110  Game Provider Name = KAGaming   Game Name =  Tao  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7a42bbb3c1b544867b0253f057d6060030365cd8/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:46.243  &gt;&gt;&gt;  6754  Game ID = 68732  Game Provider Name = Orbital   Game Name =  Texas Hold'Em  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/9e3b4ff774932dd56725f70f9101718dcbfeb283/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:46.742  &gt;&gt;&gt;  6765  Game ID = 68111  Game Provider Name = KAGaming   Game Name =  The Apes  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/2eebaf06cb4133ead579ad52a192a5f66a9da020/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:47.581  &gt;&gt;&gt;  6780  Game ID = 65699  Game Provider Name = 1X2Gaming   Game Name =  The Davinci Device  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/71f6fc837b705d0ca0c72b22446d52c52b92a833/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:47.632  &gt;&gt;&gt;  6782  Game ID = 68112  Game Provider Name = KAGaming   Game Name =  The Deep Monster  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/5a9f969dd92a808dd640a0fab9c1d9bdedc54ef4/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:47.703  &gt;&gt;&gt;  6785  Game ID = 68113  Game Provider Name = KAGaming   Game Name =  The Door Gods  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/d90018f2282eacfa0922907642ba1d7afec572d7/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:48.024  &gt;&gt;&gt;  6790  Game ID = 68114  Game Provider Name = KAGaming   Game Name =  The Four Scholars  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/4ff3b990e42c3d4b2fb06c1118c7d4deda538a50/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:48.187  &gt;&gt;&gt;  6792  Game ID = 68115  Game Provider Name = KAGaming   Game Name =  The Gingerbread Land  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/465f188ab1b34d7292d4fc1c595d20f501aba9e2/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:48.257  &gt;&gt;&gt;  6795  Game ID = 68116  Game Provider Name = KAGaming   Game Name =  The Golden Ax  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/aeff7bb86b4206b007000616006917855e3e22e3/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:48.583  &gt;&gt;&gt;  6801  Game ID = 68117  Game Provider Name = KAGaming   Game Name =  The Grandmaster  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/bce85b574cd771c0722e797f9665f393f29c3b5e/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:48.928  &gt;&gt;&gt;  6809  Game ID = 68118  Game Provider Name = KAGaming   Game Name =  The Great Voyages  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/4c9fd7adee8bd5827beb3699b1674d91279e383e/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:49.062  &gt;&gt;&gt;  6810  Game ID = 68119  Game Provider Name = KAGaming   Game Name =  The Guard of Hades  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/64a7bae5e3832abb518e63ba316b01b0156753ed/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:49.190  &gt;&gt;&gt;  6815  Game ID = 68120  Game Provider Name = KAGaming   Game Name =  The Happy Prince  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/eeb60cfbd11007e6612dfefa319a7d438015c2cf/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:49.488  &gt;&gt;&gt;  6820  Game ID = 68121  Game Provider Name = KAGaming   Game Name =  The King of Dinosaurs  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/abd02bf74dcb5472a0364c676c8587c7cbef2dd2/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:49.525  &gt;&gt;&gt;  6822  Game ID = 68122  Game Provider Name = KAGaming   Game Name =  The Legend of Heroes  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/4ee5124035f97923a2901a66bc3af3f82270f44e/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:49.766  &gt;&gt;&gt;  6826  Game ID = 67226  Game Provider Name = Gamzix   Game Name =  The Lion  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/5904e50a51e4c0e6dde00dc55387c67baffc3627/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:49.856  &gt;&gt;&gt;  6828  Game ID = 68123  Game Provider Name = KAGaming   Game Name =  The Lotus Lamp  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/75307750ef5959212e3778f3b2fc623f609a213d/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:49.866  &gt;&gt;&gt;  6829  Game ID = 68124  Game Provider Name = KAGaming   Game Name =  The Mask of Zorro  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/6ec838f81339aa963c38afa169f940dd6290cd76/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:50.091  &gt;&gt;&gt;  6832  Game ID = 68125  Game Provider Name = KAGaming   Game Name =  The Nut Cracker  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/804807aaa9e3f418ab1e0e2ab60bdda8bf20ba84/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:51.102  &gt;&gt;&gt;  6856  Game ID = 68126  Game Provider Name = KAGaming   Game Name =  The West Chamber  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/c584e0bede8c278a53843545913516e63a9c38f2/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:51.479  &gt;&gt;&gt;  6865  Game ID = 68127  Game Provider Name = KAGaming   Game Name =  The Wizard of Oz  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/d991f6d4e1220a277504302c3fd5a133108fe5f6/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:51.613  &gt;&gt;&gt;  6868  Game ID = 66307  Game Provider Name = 1X2Gaming   Game Name =  Theseus Rises  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f30c06659e810efc499564fd89db3f1f70d1127f/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:51.925  &gt;&gt;&gt;  6873  Game ID = 68128  Game Provider Name = KAGaming   Game Name =  Three Bandits  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/60d338e7c5c4722d41bec2242c216234c7535552/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:52.083  &gt;&gt;&gt;  6874  Game ID = 68129  Game Provider Name = KAGaming   Game Name =  Three Gods  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/016cb5bf63744b3122569a549d3410233e24eced/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:52.095  &gt;&gt;&gt;  6875  Game ID = 68719  Game Provider Name = Spadegaming   Game Name =  Three Face Cards  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/abca9ccd08193cd7d2df8295877e7550780ddda9/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:52.183  &gt;&gt;&gt;  6876  Game ID = 68130  Game Provider Name = KAGaming   Game Name =  Three Heroes  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/77d2328ae644ecefe8a8e3a71a1847df43009d2a/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:52.192  &gt;&gt;&gt;  6877  Game ID = 68131  Game Provider Name = KAGaming   Game Name =  Three Little Pigs  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/9845449dc7a82d459e8384a85386736d58ff0a44/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:52.264  &gt;&gt;&gt;  6878  Game ID = 67562  Game Provider Name = Spadegaming   Game Name =  Three Lucky Stars  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/2262ea2e3f9596ea486d67c6f25cbcea0e189564/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:52.905  &gt;&gt;&gt;  6893  Game ID = 67563  Game Provider Name = Spadegaming   Game Name =  Tiger Dance  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/3ff382b65896511ccae53b58d4876b52e2cb764a/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:53.646  &gt;&gt;&gt;  6911  Game ID = 69383  Game Provider Name = Corps   Game Name =  Tikiz N Juice  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/44d4ee85936e988f361857af6e1513a578f27d36/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:54.328  &gt;&gt;&gt;  6927  Game ID = 66833  Game Provider Name = Corps   Game Name =  To Mars and Beyond  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/0c05d04e4b3b8e69ddce50ec8302ea440f71283c/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:54.473  &gt;&gt;&gt;  6931  Game ID = 68132  Game Provider Name = KAGaming   Game Name =  Tomb Heroes  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/c017895c82d1041cae28ac73cf374258a6a0aaf2/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:54.807  &gt;&gt;&gt;  6941  Game ID = 66848  Game Provider Name = ELKStudios   Game Name =  Toro 7s  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/1e91b8a8fccaf9637d1ddb12bde1faf637dba0b0/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:54.954  &gt;&gt;&gt;  6943  Game ID = 68133  Game Provider Name = KAGaming   Game Name =  Tower of Babel  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/1692918312af096ffd059a1ec1339baaba70a136/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:55.149  &gt;&gt;&gt;  6949  Game ID = 68134  Game Provider Name = KAGaming   Game Name =  Toy World  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/133b22833a20e88812d3b8b0252233d1bab71685/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:55.414  &gt;&gt;&gt;  6952  Game ID = 69585  Game Provider Name = 1X2Gaming   Game Name =  Trawler Fishin'  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/db24e10b4dce085a4ec1ed5a9e5a7cc324f344a8/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:55.417  &gt;&gt;&gt;  6953  Game ID = 68135  Game Provider Name = KAGaming   Game Name =  Treasure Bowl  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/977e7fec11fa23a1681a7f9d190939296315ef26/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:55.470  &gt;&gt;&gt;  6954  Game ID = 68136  Game Provider Name = KAGaming   Game Name =  Treasure Bowl Megaways  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/217a0660c7be620f4e3fe8d014c2fba96fcd3110/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:55.986  &gt;&gt;&gt;  6962  Game ID = 68137  Game Provider Name = KAGaming   Game Name =  Treasure Raider  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/1248f764a1538a545b43bfc72cb1d40e0ba4b899/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:56.022  &gt;&gt;&gt;  6964  Game ID = 68138  Game Provider Name = KAGaming   Game Name =  Treasure Tiger  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/a0c34ae98590014072524c357bfe0af3b3f44ece/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:56.357  &gt;&gt;&gt;  6968  Game ID = 65475  Game Provider Name = Mr.Slotty   Game Name =  Treasures Of Egypt  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/fbb25f4f2fefcd0f10ff35552f9f6d97a1943ab0/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:56.703  &gt;&gt;&gt;  6973  Game ID = 65476  Game Provider Name = Mr.Slotty   Game Name =  Trendy Skulls  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/77c62b68689f352f021111e22cbe2f43a187ebb5/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:56.808  &gt;&gt;&gt;  6977  Game ID = 65474  Game Provider Name = 1X2Gaming   Game Name =  Treasure Of The Pyramids  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/d010570ecd401c63d51b816f5630841a47eb7da8/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:57.052  &gt;&gt;&gt;  6981  Game ID = 66580  Game Provider Name = 1X2Gaming   Game Name =  Triple Bar  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/fc55fa9045a5b2b0e99f4bbef7081c85f3c5bcc8/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:57.092  &gt;&gt;&gt;  6983  Game ID = 68139  Game Provider Name = KAGaming   Game Name =  Triple Dragons  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7117a59e60d25364f77f6972208731d56473d4b1/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:57.356  &gt;&gt;&gt;  6988  Game ID = 67564  Game Provider Name = Spadegaming   Game Name =  Triple Panda  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/1f5fcf2b48e9334cd2ff6f105cdd7de888f84643/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:57.693  &gt;&gt;&gt;  6995  Game ID = 68140  Game Provider Name = KAGaming   Game Name =  Trippy Mushrooms  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/c9aeac3053e166ef0c83afff96fe8288b42578f3/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:57.779  &gt;&gt;&gt;  6997  Game ID = 65478  Game Provider Name = Mr.Slotty   Game Name =  Troll Faces  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/c62a20962888dd4665538f5be96345475803b166/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:58.062  &gt;&gt;&gt;  7003  Game ID = 65479  Game Provider Name = Mr.Slotty   Game Name =  Tropical 7 Fruits  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/0e0a8f9260aca7213e3b160c792d16cb22d18d6e/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:58.317  &gt;&gt;&gt;  7008  Game ID = 68964  Game Provider Name = ELKStudios   Game Name =  Tropicool 2  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/3220b0ead10433e525fde3df46b10181bd9b61b7/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:58.659  &gt;&gt;&gt;  7016  Game ID = 69521  Game Provider Name = NetEnt   Game Name =  Turn Your Fortune  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/4a3dea2d9c00e9feec89611b5a6400cc8fa23d6b/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:58.821  &gt;&gt;&gt;  7020  Game ID = 69522  Game Provider Name = NetEnt   Game Name =  Twin Happiness  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/8a690665b9b37a8ed1e72c98cda7fca4f4552df4/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:58.971  &gt;&gt;&gt;  7023  Game ID = 69523  Game Provider Name = NetEnt   Game Name =  Twin Spin  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/4d608854e20cb1b577e06f190b0f2bc5d04b21a3/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:59.033  &gt;&gt;&gt;  7024  Game ID = 69594  Game Provider Name = NetEnt   Game Name =  Twin Spin™ XXXtreme  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/638c77d436ceea02d46c6710a6d73df3284cd222/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:59.162  &gt;&gt;&gt;  7027  Game ID = 68141  Game Provider Name = KAGaming   Game Name =  UFO  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/8dbd4f89207bf4ce1f0745e46fc2aa3ba1078e09/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:59.324  &gt;&gt;&gt;  7030  Game ID = 69035  Game Provider Name = Gamzix   Game Name =  Ultra Luck  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/37a29c48e0da77e6853e1168a28a4079b100adae/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:59.516  &gt;&gt;&gt;  7034  Game ID = 66623  Game Provider Name = Corps   Game Name =  Undead vikings  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/2b78e71044b521a45f9c974a44ff67195d133b15/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:59.642  &gt;&gt;&gt;  7035  Game ID = 65485  Game Provider Name = 1X2Gaming   Game Name =  Under the Sea  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/3ef69ab63e5dcf9c81d5d0c8253e91290c21eb1f/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:59.730  &gt;&gt;&gt;  7037  Game ID = 65783  Game Provider Name = 1X2Gaming   Game Name =  Under The Waves  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/1dbaa73abf8dd72fb135b3b874474a8621a0c3b5/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:52:59.819  &gt;&gt;&gt;  7039  Game ID = 65486  Game Provider Name = Mr.Slotty   Game Name =  Unicorn Gems  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/67ffcb999755a7fdd0dbadc8faac5aefe0053b67/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:00.334  &gt;&gt;&gt;  7052  Game ID = 65770  Game Provider Name = 1X2Gaming   Game Name =  Vampire Hunters  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/bea75b1f51323a13dae10236716acc446ec5860c/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:00.684  &gt;&gt;&gt;  7060  Game ID = 68142  Game Provider Name = KAGaming   Game Name =  Vampire's Tale  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/2b90566d81152a48d5c18b4fb050cdfa9c59b448/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:00.740  &gt;&gt;&gt;  7061  Game ID = 66408  Game Provider Name = 1X2Gaming   Game Name =  Van Helsing's Book of the Undead  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/d416872c1c3ca807b7eee569b7604af0748ee92d/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:00.885  &gt;&gt;&gt;  7064  Game ID = 65490  Game Provider Name = Mr.Slotty   Game Name =  Vegas After Party  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/4a370cc396f0180c1a1b411d56c5bab10d56275f/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:01.658  &gt;&gt;&gt;  7082  Game ID = 68143  Game Provider Name = KAGaming   Game Name =  Veggies Plot  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/de93d6785057e683f4297107cfd072e2baed34af/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:02.308  &gt;&gt;&gt;  7096  Game ID = 67237  Game Provider Name = Orbital   Game Name =  Videopoker  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/bea7c3c1a87be46d90d83681a98f2204ccb55dd7/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:02.750  &gt;&gt;&gt;  7110  Game ID = 69527  Game Provider Name = NetEnt   Game Name =  Vikings Video Slot  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b4c42c10d962f3c1f7d5808c944b88992e6526d2/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:03.346  &gt;&gt;&gt;  7126  Game ID = 68144  Game Provider Name = KAGaming   Game Name =  Volcano Adventure  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b4129875d584a68bc795b0c6e984d27f0cff4d7d/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:03.862  &gt;&gt;&gt;  7137  Game ID = 68145  Game Provider Name = KAGaming   Game Name =  WanFu JinAn  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/d4b2ea23fb5baf30dcdfc65b2013e2e411c0f766/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:04.906  &gt;&gt;&gt;  7147  Game ID = 68147  Game Provider Name = KAGaming   Game Name =  Wen Ding  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/e2fcb0673063feff62f466ce847983f8e15e83a9/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:05.267  &gt;&gt;&gt;  7153  Game ID = 68148  Game Provider Name = KAGaming   Game Name =  Werewolf Is Coming  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/8130f7e55079cdcba38172969d4b2db938728966/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:05.547  &gt;&gt;&gt;  7158  Game ID = 68146  Game Provider Name = KAGaming   Game Name =  Welcome Fortune  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/cb7f8a9a72cd61fed7eaf69b63232c7b9ef1c9fe/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:05.899  &gt;&gt;&gt;  7163  Game ID = 66486  Game Provider Name = 1X2Gaming   Game Name =  Whisker Jones  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/e0b8ed8799be5e36b6bf9b67867453461ff5b52a/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:05.899  &gt;&gt;&gt;  7164  Game ID = 68149  Game Provider Name = KAGaming   Game Name =  White Deer  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/df59b7690a2e76aceaa1e34db48a38d8427b1772/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:06.458  &gt;&gt;&gt;  7177  Game ID = 65518  Game Provider Name = Mr.Slotty   Game Name =  Wild 7 Fruits  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/e67e9098dbcf2c9737ac1cfa0ec7cafec18fdeec/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:07.597  &gt;&gt;&gt;  7194  Game ID = 68150  Game Provider Name = KAGaming   Game Name =  Wild Alaska  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/ba2dee339d25f93dc3cf981f4d8719b22a90e63b/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:10.074  &gt;&gt;&gt;  7241  Game ID = 65519  Game Provider Name = Mr.Slotty   Game Name =  Wild Vegas  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/a9a02bbdb05af517f2d56dccf85345a7628f563c/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:10.127  &gt;&gt;&gt;  7243  Game ID = 68151  Game Provider Name = KAGaming   Game Name =  Wild Vick  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/4eb4f45e439de84aba003433d09f739b371944af/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:10.422  &gt;&gt;&gt;  7246  Game ID = 68152  Game Provider Name = KAGaming   Game Name =  Wild Wild Bell  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/c85c46d30a817af761a1abf623ed23c188b2b91a/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:10.468  &gt;&gt;&gt;  7248  Game ID = 69533  Game Provider Name = NetEnt   Game Name =  Wild Wild West: The Great Train Heist  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/cea60259fa08f8de87ddbdd1a97254fb70ac7958/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:10.862  &gt;&gt;&gt;  7255  Game ID = 69540  Game Provider Name = NetEnt   Game Name =  Wilderland  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/3505ec33a8fab2e6b45a0d9f3e80c2bfaf6d3422/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:11.278  &gt;&gt;&gt;  7265  Game ID = 67575  Game Provider Name = Spadegaming   Game Name =  Wild Wet Win  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/404e4d5e81c3d968e1c39ff1bf62b20679aa654f/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:11.489  &gt;&gt;&gt;  7270  Game ID = 68724  Game Provider Name = Spadegaming   Game Name =  Win Three Cards  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/0f1aa20ba307556e070297a0c304362f70119dff/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:12.159  &gt;&gt;&gt;  7285  Game ID = 68153  Game Provider Name = KAGaming   Game Name =  Witch Academy  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/b6dfa5ed88aecee5c98b5c2a9005abdb2816864b/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:12.551  &gt;&gt;&gt;  7294  Game ID = 68154  Game Provider Name = KAGaming   Game Name =  Wizardry  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/3b3ca185f0746adaf1f3617582000bb01aa51c94/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:13.272  &gt;&gt;&gt;  7306  Game ID = 69026  Game Provider Name = Gamzix   Game Name =  Wolf Story  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/68f44d3c974ad003237351e5914d0bd8a907ce06/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:13.563  &gt;&gt;&gt;  7309  Game ID = 68917  Game Provider Name = Gamzix   Game Name =  Won Hundred  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/bf70508dc5d87b8b1d6cfe9c85281feb00f0b8ea/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:13.566  &gt;&gt;&gt;  7310  Game ID = 68156  Game Provider Name = KAGaming   Game Name =  Won Won Catching  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/2fa259516329d867211d2d837c46560fb276d5b4/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:13.651  &gt;&gt;&gt;  7312  Game ID = 68157  Game Provider Name = KAGaming   Game Name =  Won Won Rich  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/38b3436d20731396a2583ffeae069c0f11585bf3/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:14.062  &gt;&gt;&gt;  7317  Game ID = 67576  Game Provider Name = Spadegaming   Game Name =  Wong Choy SA  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/12e349c269d51e2b084926339e025fd7885f0b14/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:14.109  &gt;&gt;&gt;  7319  Game ID = 67577  Game Provider Name = Spadegaming   Game Name =  Wong Po  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/0f45fa41983058c70f7556e3c4469a7d5f5b80ca/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:14.237  &gt;&gt;&gt;  7320  Game ID = 68158  Game Provider Name = KAGaming   Game Name =  Wong TaiSin  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/5e492ca868b8f91e263b857abe96c5fff203c2f3/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:14.412  &gt;&gt;&gt;  7322  Game ID = 68155  Game Provider Name = KAGaming   Game Name =  Wolf Warrior  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f9294ac44b3f6a9f180273db518837cfb82a1051/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:14.860  &gt;&gt;&gt;  7327  Game ID = 67579  Game Provider Name = Spadegaming   Game Name =  Wow Prosperity  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/da195ffe650333c94ea9c5d78efdccbb5246f9cb/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:14.907  &gt;&gt;&gt;  7328  Game ID = 68159  Game Provider Name = KAGaming   Game Name =  Wu Gang  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/c0754fa093ff8247f263c3b53812372ff936c43f/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:15.241  &gt;&gt;&gt;  7330  Game ID = 68161  Game Provider Name = KAGaming   Game Name =  Wu Zetian  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/623ef3d1a96bc4a0038fe30b8b848d25df28b950/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:15.703  &gt;&gt;&gt;  7337  Game ID = 68162  Game Provider Name = KAGaming   Game Name =  X-Bomber  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7dda08e3fe3a12090df6d1aebe3f6a59e91b124c/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:15.759  &gt;&gt;&gt;  7338  Game ID = 68163  Game Provider Name = KAGaming   Game Name =  X-Elements  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/496abfdd65e4443c5c11f8e178ee73d88de37e6d/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:16.240  &gt;&gt;&gt;  7344  Game ID = 65524  Game Provider Name = Mr.Slotty   Game Name =  Xmas Party  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/5fe224d97efb2e938327ef0d4d933d8217682e3a/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:16.485  &gt;&gt;&gt;  7347  Game ID = 68164  Game Provider Name = KAGaming   Game Name =  Xmas Wishes  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/93080207aad89c0cc389c27731e727025fe9d146/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:16.831  &gt;&gt;&gt;  7349  Game ID = 69575  Game Provider Name = 1X2Gaming   Game Name =  X-WILD  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/c2790b9f037a049b91c5a00cc7cc1600b9ea239e/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:16.946  &gt;&gt;&gt;  7350  Game ID = 68165  Game Provider Name = KAGaming   Game Name =  Yamato  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/43f44c1cacb14f9cb5a26af003ea942b170f30d9/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:17.332  &gt;&gt;&gt;  7353  Game ID = 68166  Game Provider Name = KAGaming   Game Name =  Year Of The Tiger  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/a5f77e950474444f7c114a429e27d441ebdaee37/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:17.912  &gt;&gt;&gt;  7359  Game ID = 68167  Game Provider Name = KAGaming   Game Name =  Yu Gong  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f2f771fd62eeeaeb5010a4408c8c8e019f717a5f/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:18.162  &gt;&gt;&gt;  7361  Game ID = 68168  Game Provider Name = KAGaming   Game Name =  Yue Fei  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/c279df401be8f90e73cabf5448c836a1c87978a2/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:18.361  &gt;&gt;&gt;  7362  Game ID = 68169  Game Provider Name = KAGaming   Game Name =  Yun Cai Tong Zi  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/c0bc4f665788ff8633ddbaa839d2ab3d34a7b7ae/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:18.864  &gt;&gt;&gt;  7366  Game ID = 67580  Game Provider Name = Spadegaming   Game Name =  Zeus  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/6f4c5f974a675b87ac218705e3b87c4f405c45bf/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:19.081  &gt;&gt;&gt;  7368  Game ID = 65806  Game Provider Name = 1X2Gaming   Game Name =  Xmas 3x3  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/ab101c29d6bf64913d905bc8048bba9d8c40d762/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:19.222  &gt;&gt;&gt;  7371  Game ID = 65525  Game Provider Name = 1X2Gaming   Game Name =  Yule Be Rich  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/01b390651f2459d759096a9753cca0fff55521f6/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:19.441  &gt;&gt;&gt;  7372  Game ID = 65526  Game Provider Name = Mr.Slotty   Game Name =  Zeus The Thunderer  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/a016c6a4257acfc97dca6d312f100aa140f97709/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:19.444  &gt;&gt;&gt;  7373  Game ID = 65527  Game Provider Name = Mr.Slotty   Game Name =  Zeus The Thunderer II  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/8a8b372287990c0f3af8af5450a22825b60967ea/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:20.119  &gt;&gt;&gt;  7384  Game ID = 67581  Game Provider Name = Spadegaming   Game Name =  Zombie Party  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/df1b83293924d98d48dd09c77cb8ba69c53d73bd/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:20.120  &gt;&gt;&gt;  7385  Game ID = 68170  Game Provider Name = KAGaming   Game Name =  Zombie Land  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/8ff7b13e500d64d75b9513d4b136fca4c6e327a4/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2024-03-11T12:53:22.235  &gt;&gt;&gt;  7390  Game ID = 68160  Game Provider Name = KAGaming   Game Name =  Wu Song  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/57acf3b537d9133b651101c452c5085acf9a5bc6/Games%20Catalog%20image/image.png</t>
   </si>
 </sst>
 </file>
@@ -2528,7 +5105,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A859"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2539,32 +5116,4297 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>461</v>
+        <v>467</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="s">
+        <v>1320</v>
       </c>
     </row>
   </sheetData>
